--- a/BOSS.DE.xlsx
+++ b/BOSS.DE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF3341AB-CE0A-4CE5-A41C-9FCA0C23B238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E9EE83-6985-40CF-86EC-AF598DA39E6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{09B18DE7-4EEF-4A72-AC57-80486CCDDA74}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" activeTab="1" xr2:uid="{09B18DE7-4EEF-4A72-AC57-80486CCDDA74}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -36,8 +36,35 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={D81B57CA-BD4B-4035-AE68-E24052A657A2}</author>
+    <author>tc={5337027C-6CD1-40E4-8BA0-D358F92A1B78}</author>
+  </authors>
+  <commentList>
+    <comment ref="L21" authorId="0" shapeId="0" xr:uid="{D81B57CA-BD4B-4035-AE68-E24052A657A2}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Consensus of 4 analysts</t>
+      </text>
+    </comment>
+    <comment ref="L26" authorId="1" shapeId="0" xr:uid="{5337027C-6CD1-40E4-8BA0-D358F92A1B78}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Consensus of 4 analysts</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="80">
   <si>
     <t>Hugo Boss</t>
   </si>
@@ -144,13 +171,7 @@
     <t>Asia Pacific Stores</t>
   </si>
   <si>
-    <t>Own Retail points of Sale</t>
-  </si>
-  <si>
     <t>Freestanding retail stores</t>
-  </si>
-  <si>
-    <t>Total Stores</t>
   </si>
   <si>
     <t>Boss Meanswear</t>
@@ -248,6 +269,42 @@
   <si>
     <t>FY24</t>
   </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Outlook 2025: Revenue -2% to 2%, EBIT +5% to +25%</t>
+  </si>
+  <si>
+    <t>Management</t>
+  </si>
+  <si>
+    <t>CEO</t>
+  </si>
+  <si>
+    <t>Daniel Grieder</t>
+  </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>Q325</t>
+  </si>
+  <si>
+    <t>Q425</t>
+  </si>
+  <si>
+    <t>Founded</t>
+  </si>
+  <si>
+    <t>Employees</t>
+  </si>
+  <si>
+    <t>Own Retail Stores</t>
+  </si>
 </sst>
 </file>
 
@@ -257,7 +314,7 @@
     <numFmt numFmtId="164" formatCode="#,##0;\(#,##0\)"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -288,6 +345,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -311,7 +383,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -324,6 +396,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -341,6 +416,67 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>604838</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{483CBA9F-D773-715C-EDA8-25F855F49E02}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8015288" y="152400"/>
+          <a:ext cx="14287" cy="10039350"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Oscar Settje" id="{BC3090F9-DCFB-461E-938B-BB97A04862C6}" userId="7ff36870b9739543" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -658,12 +794,23 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="L21" dT="2025-05-06T11:33:50.96" personId="{BC3090F9-DCFB-461E-938B-BB97A04862C6}" id="{D81B57CA-BD4B-4035-AE68-E24052A657A2}">
+    <text>Consensus of 4 analysts</text>
+  </threadedComment>
+  <threadedComment ref="L26" dT="2025-05-06T11:34:06.98" personId="{BC3090F9-DCFB-461E-938B-BB97A04862C6}" id="{5337027C-6CD1-40E4-8BA0-D358F92A1B78}">
+    <text>Consensus of 4 analysts</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8611755C-CD3F-4338-B61A-F6ABE7723C78}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5:K6"/>
+    <sheetView topLeftCell="B1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -684,7 +831,7 @@
         <v>2</v>
       </c>
       <c r="J2">
-        <v>36.11</v>
+        <v>38.450000000000003</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -695,7 +842,7 @@
         <v>70.400000000000006</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -707,7 +854,7 @@
       </c>
       <c r="J4" s="3">
         <f>+J2*J3</f>
-        <v>2542.1440000000002</v>
+        <v>2706.8800000000006</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -718,11 +865,10 @@
         <v>5</v>
       </c>
       <c r="J5" s="3">
-        <f>211+49</f>
-        <v>260</v>
+        <v>107</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -730,11 +876,10 @@
         <v>6</v>
       </c>
       <c r="J6" s="3">
-        <f>237+20+276+3</f>
-        <v>536</v>
+        <v>327</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -743,7 +888,42 @@
       </c>
       <c r="J7" s="3">
         <f>+J4-J5+J6</f>
-        <v>2818.1440000000002</v>
+        <v>2926.8800000000006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J9">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I10" t="s">
+        <v>78</v>
+      </c>
+      <c r="J10" s="3">
+        <v>18376</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>70</v>
+      </c>
+      <c r="I13" t="s">
+        <v>72</v>
+      </c>
+      <c r="J13" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -755,14 +935,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D20D4061-CFF8-435B-9C35-BFCD41DEF5B1}">
-  <dimension ref="A1:BE219"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D20D4061-CFF8-435B-9C35-BFCD41DEF5B1}">
+  <dimension ref="A1:BI218"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="N11" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q1" sqref="Q1"/>
+      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -771,12 +951,12 @@
     <col min="2" max="2" width="32.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
       <c r="C2" s="4" t="s">
         <v>12</v>
       </c>
@@ -801,75 +981,95 @@
       <c r="J2" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="K2" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="L2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="R2" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="S2" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="T2" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="U2" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="P2" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>32</v>
       </c>
       <c r="C3" s="7">
-        <f>587+212</f>
-        <v>799</v>
+        <f>587</f>
+        <v>587</v>
       </c>
       <c r="D3" s="7">
-        <f>587+212</f>
-        <v>799</v>
+        <f>587</f>
+        <v>587</v>
       </c>
       <c r="E3" s="7">
-        <f>587+212</f>
-        <v>799</v>
+        <f>587</f>
+        <v>587</v>
       </c>
       <c r="F3" s="7">
-        <f>+P3</f>
-        <v>799</v>
+        <f>+T3</f>
+        <v>587</v>
       </c>
       <c r="G3" s="7">
-        <f>592+212</f>
-        <v>804</v>
+        <f>592</f>
+        <v>592</v>
       </c>
       <c r="H3" s="7">
-        <f>591+213</f>
-        <v>804</v>
+        <f>591</f>
+        <v>591</v>
       </c>
       <c r="I3" s="7">
-        <f>567+199</f>
-        <v>766</v>
-      </c>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
+        <f>567</f>
+        <v>567</v>
+      </c>
+      <c r="J3" s="7">
+        <f>572</f>
+        <v>572</v>
+      </c>
+      <c r="K3" s="7">
+        <f>564</f>
+        <v>564</v>
+      </c>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
       <c r="N3" s="7"/>
-      <c r="O3" s="7">
-        <f>581+212</f>
-        <v>793</v>
-      </c>
-      <c r="P3" s="7">
-        <f>587+212</f>
-        <v>799</v>
-      </c>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
+      <c r="S3" s="7">
+        <f>581</f>
+        <v>581</v>
+      </c>
+      <c r="T3" s="7">
+        <f>587</f>
+        <v>587</v>
+      </c>
+      <c r="U3" s="7">
+        <v>572</v>
+      </c>
       <c r="V3" s="7"/>
       <c r="W3" s="7"/>
       <c r="X3" s="7"/>
@@ -892,57 +1092,69 @@
       <c r="AO3" s="7"/>
       <c r="AP3" s="7"/>
       <c r="AQ3" s="7"/>
-    </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AR3" s="7"/>
+      <c r="AS3" s="7"/>
+      <c r="AT3" s="7"/>
+      <c r="AU3" s="7"/>
+    </row>
+    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>33</v>
       </c>
       <c r="C4" s="7">
-        <f>456+115</f>
-        <v>571</v>
+        <f>456</f>
+        <v>456</v>
       </c>
       <c r="D4" s="7">
-        <f>456+115</f>
-        <v>571</v>
+        <f>456</f>
+        <v>456</v>
       </c>
       <c r="E4" s="7">
-        <f>456+115</f>
-        <v>571</v>
+        <f>456</f>
+        <v>456</v>
       </c>
       <c r="F4" s="7">
-        <f t="shared" ref="F4:F7" si="0">+P4</f>
-        <v>571</v>
+        <f t="shared" ref="F4:F7" si="0">+T4</f>
+        <v>456</v>
       </c>
       <c r="G4" s="7">
-        <f>457+116</f>
-        <v>573</v>
+        <f>457</f>
+        <v>457</v>
       </c>
       <c r="H4" s="7">
-        <f>524+121</f>
-        <v>645</v>
+        <f>524</f>
+        <v>524</v>
       </c>
       <c r="I4" s="7">
-        <f>536+127</f>
-        <v>663</v>
-      </c>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
+        <f>536</f>
+        <v>536</v>
+      </c>
+      <c r="J4" s="7">
+        <f>579</f>
+        <v>579</v>
+      </c>
+      <c r="K4" s="7">
+        <f>579</f>
+        <v>579</v>
+      </c>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
-      <c r="O4" s="7">
-        <f>383+106</f>
-        <v>489</v>
-      </c>
-      <c r="P4" s="7">
-        <f>456+115</f>
-        <v>571</v>
-      </c>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
+      <c r="S4" s="7">
+        <f>383</f>
+        <v>383</v>
+      </c>
+      <c r="T4" s="7">
+        <f>456</f>
+        <v>456</v>
+      </c>
+      <c r="U4" s="7">
+        <v>579</v>
+      </c>
       <c r="V4" s="7"/>
       <c r="W4" s="7"/>
       <c r="X4" s="7"/>
@@ -965,57 +1177,69 @@
       <c r="AO4" s="7"/>
       <c r="AP4" s="7"/>
       <c r="AQ4" s="7"/>
-    </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AR4" s="7"/>
+      <c r="AS4" s="7"/>
+      <c r="AT4" s="7"/>
+      <c r="AU4" s="7"/>
+    </row>
+    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>34</v>
       </c>
       <c r="C5" s="7">
-        <f>375+162</f>
-        <v>537</v>
+        <f>375</f>
+        <v>375</v>
       </c>
       <c r="D5" s="7">
-        <f>375+162</f>
-        <v>537</v>
+        <f>375</f>
+        <v>375</v>
       </c>
       <c r="E5" s="7">
-        <f>375+162</f>
-        <v>537</v>
+        <f>375</f>
+        <v>375</v>
       </c>
       <c r="F5" s="7">
         <f t="shared" si="0"/>
-        <v>537</v>
+        <v>375</v>
       </c>
       <c r="G5" s="7">
-        <f>377+162</f>
-        <v>539</v>
+        <f>377</f>
+        <v>377</v>
       </c>
       <c r="H5" s="7">
-        <f>375+160</f>
-        <v>535</v>
+        <f>375</f>
+        <v>375</v>
       </c>
       <c r="I5" s="7">
-        <f>381+164</f>
-        <v>545</v>
-      </c>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
+        <f>381</f>
+        <v>381</v>
+      </c>
+      <c r="J5" s="7">
+        <f>381</f>
+        <v>381</v>
+      </c>
+      <c r="K5" s="7">
+        <f>376</f>
+        <v>376</v>
+      </c>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
-      <c r="O5" s="7">
-        <f>352+152</f>
-        <v>504</v>
-      </c>
-      <c r="P5" s="7">
-        <f>375+162</f>
-        <v>537</v>
-      </c>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
+      <c r="S5" s="7">
+        <f>352</f>
+        <v>352</v>
+      </c>
+      <c r="T5" s="7">
+        <f>375</f>
+        <v>375</v>
+      </c>
+      <c r="U5" s="7">
+        <v>381</v>
+      </c>
       <c r="V5" s="7"/>
       <c r="W5" s="7"/>
       <c r="X5" s="7"/>
@@ -1038,75 +1262,90 @@
       <c r="AO5" s="7"/>
       <c r="AP5" s="7"/>
       <c r="AQ5" s="7"/>
-    </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="7">
+      <c r="AR5" s="7"/>
+      <c r="AS5" s="7"/>
+      <c r="AT5" s="7"/>
+      <c r="AU5" s="7"/>
+    </row>
+    <row r="6" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6"/>
+      <c r="B6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="8">
         <v>1418</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="8">
         <v>1418</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="8">
         <v>1418</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="8">
         <f t="shared" si="0"/>
         <v>1418</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="8">
         <v>1426</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="8">
         <v>1490</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="8">
         <v>1484</v>
       </c>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7">
+      <c r="J6" s="8">
+        <v>1532</v>
+      </c>
+      <c r="K6" s="8">
+        <v>1519</v>
+      </c>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8">
         <v>1316</v>
       </c>
-      <c r="P6" s="7">
+      <c r="T6" s="8">
         <v>1418</v>
       </c>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="7"/>
-      <c r="AA6" s="7"/>
-      <c r="AB6" s="7"/>
-      <c r="AC6" s="7"/>
-      <c r="AD6" s="7"/>
-      <c r="AE6" s="7"/>
-      <c r="AF6" s="7"/>
-      <c r="AG6" s="7"/>
-      <c r="AH6" s="7"/>
-      <c r="AI6" s="7"/>
-      <c r="AJ6" s="7"/>
-      <c r="AK6" s="7"/>
-      <c r="AL6" s="7"/>
-      <c r="AM6" s="7"/>
-      <c r="AN6" s="7"/>
-      <c r="AO6" s="7"/>
-      <c r="AP6" s="7"/>
-      <c r="AQ6" s="7"/>
-    </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="U6" s="8">
+        <v>1532</v>
+      </c>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="8"/>
+      <c r="AD6" s="8"/>
+      <c r="AE6" s="8"/>
+      <c r="AF6" s="8"/>
+      <c r="AG6" s="8"/>
+      <c r="AH6" s="8"/>
+      <c r="AI6" s="8"/>
+      <c r="AJ6" s="8"/>
+      <c r="AK6" s="8"/>
+      <c r="AL6" s="8"/>
+      <c r="AM6" s="8"/>
+      <c r="AN6" s="8"/>
+      <c r="AO6" s="8"/>
+      <c r="AP6" s="8"/>
+      <c r="AQ6" s="8"/>
+      <c r="AR6" s="8"/>
+      <c r="AS6" s="8"/>
+      <c r="AT6" s="8"/>
+      <c r="AU6" s="8"/>
+    </row>
+    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" s="7">
         <v>489</v>
@@ -1130,22 +1369,28 @@
       <c r="I7" s="7">
         <v>490</v>
       </c>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
+      <c r="J7" s="7">
+        <v>500</v>
+      </c>
+      <c r="K7" s="7">
+        <v>500</v>
+      </c>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
-      <c r="O7" s="7">
-        <v>470</v>
-      </c>
-      <c r="P7" s="7">
-        <v>489</v>
-      </c>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
+      <c r="S7" s="7">
+        <v>470</v>
+      </c>
+      <c r="T7" s="7">
+        <v>489</v>
+      </c>
+      <c r="U7" s="7">
+        <v>500</v>
+      </c>
       <c r="V7" s="7"/>
       <c r="W7" s="7"/>
       <c r="X7" s="7"/>
@@ -1168,64 +1413,26 @@
       <c r="AO7" s="7"/>
       <c r="AP7" s="7"/>
       <c r="AQ7" s="7"/>
-    </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="8">
-        <f t="shared" ref="C8:G8" si="1">+C6+C7</f>
-        <v>1907</v>
-      </c>
-      <c r="D8" s="8">
-        <f t="shared" si="1"/>
-        <v>1907</v>
-      </c>
-      <c r="E8" s="8">
-        <f t="shared" si="1"/>
-        <v>1907</v>
-      </c>
-      <c r="F8" s="8">
-        <f t="shared" si="1"/>
-        <v>1907</v>
-      </c>
-      <c r="G8" s="8">
-        <f t="shared" si="1"/>
-        <v>1916</v>
-      </c>
-      <c r="H8" s="8">
-        <f>+H6+H7</f>
-        <v>1984</v>
-      </c>
-      <c r="I8" s="8">
-        <f>+I6+I7</f>
-        <v>1974</v>
-      </c>
-      <c r="J8" s="8">
-        <f t="shared" ref="J8" si="2">+J6+J7</f>
-        <v>0</v>
-      </c>
+      <c r="AR7" s="7"/>
+      <c r="AS7" s="7"/>
+      <c r="AT7" s="7"/>
+      <c r="AU7" s="7"/>
+    </row>
+    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
       <c r="K8" s="7"/>
-      <c r="L8" s="8">
-        <f t="shared" ref="L8:O8" si="3">+L6+L7</f>
-        <v>0</v>
-      </c>
-      <c r="M8" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N8" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O8" s="8">
-        <f t="shared" si="3"/>
-        <v>1786</v>
-      </c>
-      <c r="P8" s="8">
-        <f>+P6+P7</f>
-        <v>1907</v>
-      </c>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
       <c r="S8" s="7"/>
@@ -1253,8 +1460,12 @@
       <c r="AO8" s="7"/>
       <c r="AP8" s="7"/>
       <c r="AQ8" s="7"/>
-    </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AR8" s="7"/>
+      <c r="AS8" s="7"/>
+      <c r="AT8" s="7"/>
+      <c r="AU8" s="7"/>
+    </row>
+    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
@@ -1296,17 +1507,44 @@
       <c r="AO9" s="7"/>
       <c r="AP9" s="7"/>
       <c r="AQ9" s="7"/>
-    </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
+      <c r="AR9" s="7"/>
+      <c r="AS9" s="7"/>
+      <c r="AT9" s="7"/>
+      <c r="AU9" s="7"/>
+    </row>
+    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="7">
+        <v>746</v>
+      </c>
+      <c r="D10" s="7">
+        <v>810</v>
+      </c>
+      <c r="E10" s="7">
+        <v>786</v>
+      </c>
+      <c r="F10" s="7">
+        <f>+T10-SUM(C10:E10)</f>
+        <v>914</v>
+      </c>
+      <c r="G10" s="7">
+        <v>777</v>
+      </c>
+      <c r="H10" s="7">
+        <v>794</v>
+      </c>
+      <c r="I10" s="7">
+        <v>785</v>
+      </c>
+      <c r="J10" s="7">
+        <f>+U10-SUM(G10:I10)</f>
+        <v>973</v>
+      </c>
+      <c r="K10" s="7">
+        <v>766</v>
+      </c>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
@@ -1314,9 +1552,15 @@
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
+      <c r="S10" s="7">
+        <v>2868</v>
+      </c>
+      <c r="T10" s="7">
+        <v>3256</v>
+      </c>
+      <c r="U10" s="7">
+        <v>3329</v>
+      </c>
       <c r="V10" s="7"/>
       <c r="W10" s="7"/>
       <c r="X10" s="7"/>
@@ -1339,54 +1583,60 @@
       <c r="AO10" s="7"/>
       <c r="AP10" s="7"/>
       <c r="AQ10" s="7"/>
-    </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AR10" s="7"/>
+      <c r="AS10" s="7"/>
+      <c r="AT10" s="7"/>
+      <c r="AU10" s="7"/>
+    </row>
+    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" s="7">
-        <v>746</v>
+        <v>67</v>
       </c>
       <c r="D11" s="7">
-        <v>810</v>
+        <v>67</v>
       </c>
       <c r="E11" s="7">
-        <v>786</v>
+        <v>73</v>
       </c>
       <c r="F11" s="7">
-        <f>+P11-SUM(C11:E11)</f>
-        <v>914</v>
+        <f t="shared" ref="F11:F31" si="1">+T11-SUM(C11:E11)</f>
+        <v>81</v>
       </c>
       <c r="G11" s="7">
-        <v>777</v>
+        <v>70</v>
       </c>
       <c r="H11" s="7">
-        <v>794</v>
+        <v>68</v>
       </c>
       <c r="I11" s="7">
-        <v>785</v>
+        <v>74</v>
       </c>
       <c r="J11" s="7">
-        <f>+Q11-SUM(G11:I11)</f>
-        <v>973</v>
-      </c>
-      <c r="K11" s="7"/>
+        <f t="shared" ref="J11:J31" si="2">+U11-SUM(G11:I11)</f>
+        <v>85</v>
+      </c>
+      <c r="K11" s="7">
+        <v>70</v>
+      </c>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
-      <c r="O11" s="7">
-        <v>2868</v>
-      </c>
-      <c r="P11" s="7">
-        <v>3256</v>
-      </c>
-      <c r="Q11" s="7">
-        <v>3329</v>
-      </c>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
+      <c r="S11" s="7">
+        <v>239</v>
+      </c>
+      <c r="T11" s="7">
+        <v>288</v>
+      </c>
+      <c r="U11" s="7">
+        <v>297</v>
+      </c>
       <c r="V11" s="7"/>
       <c r="W11" s="7"/>
       <c r="X11" s="7"/>
@@ -1409,54 +1659,60 @@
       <c r="AO11" s="7"/>
       <c r="AP11" s="7"/>
       <c r="AQ11" s="7"/>
-    </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AR11" s="7"/>
+      <c r="AS11" s="7"/>
+      <c r="AT11" s="7"/>
+      <c r="AU11" s="7"/>
+    </row>
+    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" s="7">
-        <v>67</v>
+        <v>155</v>
       </c>
       <c r="D12" s="7">
-        <v>67</v>
+        <v>148</v>
       </c>
       <c r="E12" s="7">
-        <v>73</v>
+        <v>169</v>
       </c>
       <c r="F12" s="7">
-        <f t="shared" ref="F12:F32" si="4">+P12-SUM(C12:E12)</f>
-        <v>81</v>
+        <f t="shared" si="1"/>
+        <v>181</v>
       </c>
       <c r="G12" s="7">
-        <v>70</v>
+        <v>167</v>
       </c>
       <c r="H12" s="7">
-        <v>68</v>
+        <v>152</v>
       </c>
       <c r="I12" s="7">
-        <v>74</v>
+        <v>171</v>
       </c>
       <c r="J12" s="7">
-        <f t="shared" ref="J12:J32" si="5">+Q12-SUM(G12:I12)</f>
-        <v>85</v>
-      </c>
-      <c r="K12" s="7"/>
+        <f t="shared" si="2"/>
+        <v>192</v>
+      </c>
+      <c r="K12" s="7">
+        <v>163</v>
+      </c>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
-      <c r="O12" s="7">
-        <v>239</v>
-      </c>
-      <c r="P12" s="7">
-        <v>288</v>
-      </c>
-      <c r="Q12" s="7">
-        <v>297</v>
-      </c>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
+      <c r="S12" s="7">
+        <v>545</v>
+      </c>
+      <c r="T12" s="7">
+        <v>653</v>
+      </c>
+      <c r="U12" s="7">
+        <v>682</v>
+      </c>
       <c r="V12" s="7"/>
       <c r="W12" s="7"/>
       <c r="X12" s="7"/>
@@ -1479,54 +1735,60 @@
       <c r="AO12" s="7"/>
       <c r="AP12" s="7"/>
       <c r="AQ12" s="7"/>
-    </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AR12" s="7"/>
+      <c r="AS12" s="7"/>
+      <c r="AT12" s="7"/>
+      <c r="AU12" s="7"/>
+    </row>
+    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="7">
-        <v>155</v>
+        <v>609</v>
       </c>
       <c r="D13" s="7">
-        <v>148</v>
+        <v>620</v>
       </c>
       <c r="E13" s="7">
-        <v>169</v>
+        <v>653</v>
       </c>
       <c r="F13" s="7">
-        <f t="shared" si="4"/>
-        <v>181</v>
+        <f t="shared" si="1"/>
+        <v>680</v>
       </c>
       <c r="G13" s="7">
-        <v>167</v>
+        <v>634</v>
       </c>
       <c r="H13" s="7">
-        <v>152</v>
+        <v>604</v>
       </c>
       <c r="I13" s="7">
-        <v>171</v>
+        <v>662</v>
       </c>
       <c r="J13" s="7">
-        <f t="shared" si="5"/>
-        <v>192</v>
-      </c>
-      <c r="K13" s="7"/>
+        <f t="shared" si="2"/>
+        <v>725</v>
+      </c>
+      <c r="K13" s="7">
+        <v>631</v>
+      </c>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
-      <c r="O13" s="7">
-        <v>545</v>
-      </c>
-      <c r="P13" s="7">
-        <v>653</v>
-      </c>
-      <c r="Q13" s="7">
-        <v>682</v>
-      </c>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
       <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="7"/>
-      <c r="U13" s="7"/>
+      <c r="S13" s="7">
+        <v>2303</v>
+      </c>
+      <c r="T13" s="7">
+        <v>2562</v>
+      </c>
+      <c r="U13" s="7">
+        <v>2625</v>
+      </c>
       <c r="V13" s="7"/>
       <c r="W13" s="7"/>
       <c r="X13" s="7"/>
@@ -1549,54 +1811,60 @@
       <c r="AO13" s="7"/>
       <c r="AP13" s="7"/>
       <c r="AQ13" s="7"/>
-    </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AR13" s="7"/>
+      <c r="AS13" s="7"/>
+      <c r="AT13" s="7"/>
+      <c r="AU13" s="7"/>
+    </row>
+    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C14" s="7">
-        <v>609</v>
+        <v>195</v>
       </c>
       <c r="D14" s="7">
-        <v>620</v>
+        <v>236</v>
       </c>
       <c r="E14" s="7">
-        <v>653</v>
+        <v>228</v>
       </c>
       <c r="F14" s="7">
-        <f t="shared" si="4"/>
-        <v>680</v>
+        <f t="shared" si="1"/>
+        <v>296</v>
       </c>
       <c r="G14" s="7">
-        <v>634</v>
+        <v>218</v>
       </c>
       <c r="H14" s="7">
-        <v>604</v>
+        <v>250</v>
       </c>
       <c r="I14" s="7">
-        <v>662</v>
+        <v>228</v>
       </c>
       <c r="J14" s="7">
-        <f t="shared" si="5"/>
-        <v>725</v>
-      </c>
-      <c r="K14" s="7"/>
+        <f t="shared" si="2"/>
+        <v>324</v>
+      </c>
+      <c r="K14" s="7">
+        <v>212</v>
+      </c>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
-      <c r="O14" s="7">
-        <v>2303</v>
-      </c>
-      <c r="P14" s="7">
-        <v>2562</v>
-      </c>
-      <c r="Q14" s="7">
-        <v>2625</v>
-      </c>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="7"/>
+      <c r="S14" s="7">
+        <v>789</v>
+      </c>
+      <c r="T14" s="7">
+        <v>955</v>
+      </c>
+      <c r="U14" s="7">
+        <v>1020</v>
+      </c>
       <c r="V14" s="7"/>
       <c r="W14" s="7"/>
       <c r="X14" s="7"/>
@@ -1619,54 +1887,60 @@
       <c r="AO14" s="7"/>
       <c r="AP14" s="7"/>
       <c r="AQ14" s="7"/>
-    </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AR14" s="7"/>
+      <c r="AS14" s="7"/>
+      <c r="AT14" s="7"/>
+      <c r="AU14" s="7"/>
+    </row>
+    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C15" s="7">
-        <v>195</v>
+        <v>141</v>
       </c>
       <c r="D15" s="7">
-        <v>236</v>
+        <v>144</v>
       </c>
       <c r="E15" s="7">
-        <v>228</v>
+        <v>120</v>
       </c>
       <c r="F15" s="7">
-        <f t="shared" si="4"/>
-        <v>296</v>
+        <f t="shared" si="1"/>
+        <v>171</v>
       </c>
       <c r="G15" s="7">
-        <v>218</v>
+        <v>139</v>
       </c>
       <c r="H15" s="7">
-        <v>250</v>
+        <v>134</v>
       </c>
       <c r="I15" s="7">
-        <v>228</v>
+        <v>110</v>
       </c>
       <c r="J15" s="7">
-        <f t="shared" si="5"/>
-        <v>324</v>
-      </c>
-      <c r="K15" s="7"/>
+        <f t="shared" si="2"/>
+        <v>170</v>
+      </c>
+      <c r="K15" s="7">
+        <v>130</v>
+      </c>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
-      <c r="O15" s="7">
-        <v>789</v>
-      </c>
-      <c r="P15" s="7">
-        <v>955</v>
-      </c>
-      <c r="Q15" s="7">
-        <v>1020</v>
-      </c>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="7"/>
-      <c r="U15" s="7"/>
+      <c r="S15" s="7">
+        <v>467</v>
+      </c>
+      <c r="T15" s="7">
+        <v>576</v>
+      </c>
+      <c r="U15" s="7">
+        <v>553</v>
+      </c>
       <c r="V15" s="7"/>
       <c r="W15" s="7"/>
       <c r="X15" s="7"/>
@@ -1689,54 +1963,60 @@
       <c r="AO15" s="7"/>
       <c r="AP15" s="7"/>
       <c r="AQ15" s="7"/>
-    </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AR15" s="7"/>
+      <c r="AS15" s="7"/>
+      <c r="AT15" s="7"/>
+      <c r="AU15" s="7"/>
+    </row>
+    <row r="16" spans="1:47" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C16" s="7">
-        <v>141</v>
+        <v>23</v>
       </c>
       <c r="D16" s="7">
-        <v>144</v>
+        <v>26</v>
       </c>
       <c r="E16" s="7">
-        <v>120</v>
+        <v>26</v>
       </c>
       <c r="F16" s="7">
-        <f t="shared" si="4"/>
-        <v>171</v>
+        <f t="shared" si="1"/>
+        <v>29</v>
       </c>
       <c r="G16" s="7">
-        <v>139</v>
+        <v>23</v>
       </c>
       <c r="H16" s="7">
-        <v>134</v>
+        <v>26</v>
       </c>
       <c r="I16" s="7">
-        <v>110</v>
+        <v>29</v>
       </c>
       <c r="J16" s="7">
-        <f t="shared" si="5"/>
-        <v>170</v>
-      </c>
-      <c r="K16" s="7"/>
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="K16" s="7">
+        <v>26</v>
+      </c>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
-      <c r="O16" s="7">
-        <v>467</v>
-      </c>
-      <c r="P16" s="7">
-        <v>576</v>
-      </c>
-      <c r="Q16" s="7">
-        <v>553</v>
-      </c>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="7"/>
+      <c r="S16" s="7">
+        <v>92</v>
+      </c>
+      <c r="T16" s="7">
+        <v>104</v>
+      </c>
+      <c r="U16" s="7">
+        <v>109</v>
+      </c>
       <c r="V16" s="7"/>
       <c r="W16" s="7"/>
       <c r="X16" s="7"/>
@@ -1759,54 +2039,60 @@
       <c r="AO16" s="7"/>
       <c r="AP16" s="7"/>
       <c r="AQ16" s="7"/>
-    </row>
-    <row r="17" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="AR16" s="7"/>
+      <c r="AS16" s="7"/>
+      <c r="AT16" s="7"/>
+      <c r="AU16" s="7"/>
+    </row>
+    <row r="17" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C17" s="7">
-        <v>23</v>
+        <v>485</v>
       </c>
       <c r="D17" s="7">
-        <v>26</v>
+        <v>580</v>
       </c>
       <c r="E17" s="7">
-        <v>26</v>
+        <v>521</v>
       </c>
       <c r="F17" s="7">
-        <f t="shared" si="4"/>
-        <v>29</v>
+        <f t="shared" si="1"/>
+        <v>676</v>
       </c>
       <c r="G17" s="7">
-        <v>23</v>
+        <v>492</v>
       </c>
       <c r="H17" s="7">
-        <v>26</v>
+        <v>563</v>
       </c>
       <c r="I17" s="7">
-        <v>29</v>
+        <v>499</v>
       </c>
       <c r="J17" s="7">
-        <f t="shared" si="5"/>
-        <v>31</v>
-      </c>
-      <c r="K17" s="7"/>
+        <f t="shared" si="2"/>
+        <v>677</v>
+      </c>
+      <c r="K17" s="7">
+        <v>473</v>
+      </c>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
-      <c r="O17" s="7">
-        <v>92</v>
-      </c>
-      <c r="P17" s="7">
-        <v>104</v>
-      </c>
-      <c r="Q17" s="7">
-        <v>109</v>
-      </c>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
       <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
-      <c r="T17" s="7"/>
-      <c r="U17" s="7"/>
+      <c r="S17" s="7">
+        <v>2016</v>
+      </c>
+      <c r="T17" s="7">
+        <v>2262</v>
+      </c>
+      <c r="U17" s="7">
+        <v>2231</v>
+      </c>
       <c r="V17" s="7"/>
       <c r="W17" s="7"/>
       <c r="X17" s="7"/>
@@ -1829,54 +2115,60 @@
       <c r="AO17" s="7"/>
       <c r="AP17" s="7"/>
       <c r="AQ17" s="7"/>
-    </row>
-    <row r="18" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="AR17" s="7"/>
+      <c r="AS17" s="7"/>
+      <c r="AT17" s="7"/>
+      <c r="AU17" s="7"/>
+    </row>
+    <row r="18" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C18" s="7">
-        <v>485</v>
+        <v>282</v>
       </c>
       <c r="D18" s="7">
-        <v>580</v>
+        <v>224</v>
       </c>
       <c r="E18" s="7">
-        <v>521</v>
+        <v>293</v>
       </c>
       <c r="F18" s="7">
-        <f t="shared" si="4"/>
-        <v>676</v>
+        <f t="shared" si="1"/>
+        <v>234</v>
       </c>
       <c r="G18" s="7">
-        <v>492</v>
+        <v>303</v>
       </c>
       <c r="H18" s="7">
-        <v>563</v>
+        <v>236</v>
       </c>
       <c r="I18" s="7">
-        <v>499</v>
+        <v>302</v>
       </c>
       <c r="J18" s="7">
-        <f t="shared" si="5"/>
-        <v>677</v>
-      </c>
-      <c r="K18" s="7"/>
+        <f t="shared" si="2"/>
+        <v>270</v>
+      </c>
+      <c r="K18" s="7">
+        <v>296</v>
+      </c>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
-      <c r="O18" s="7">
-        <v>2016</v>
-      </c>
-      <c r="P18" s="7">
-        <v>2262</v>
-      </c>
-      <c r="Q18" s="7">
-        <v>2231</v>
-      </c>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
       <c r="R18" s="7"/>
-      <c r="S18" s="7"/>
-      <c r="T18" s="7"/>
-      <c r="U18" s="7"/>
+      <c r="S18" s="7">
+        <v>895</v>
+      </c>
+      <c r="T18" s="7">
+        <v>1033</v>
+      </c>
+      <c r="U18" s="7">
+        <v>1111</v>
+      </c>
       <c r="V18" s="7"/>
       <c r="W18" s="7"/>
       <c r="X18" s="7"/>
@@ -1899,54 +2191,60 @@
       <c r="AO18" s="7"/>
       <c r="AP18" s="7"/>
       <c r="AQ18" s="7"/>
-    </row>
-    <row r="19" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="AR18" s="7"/>
+      <c r="AS18" s="7"/>
+      <c r="AT18" s="7"/>
+      <c r="AU18" s="7"/>
+    </row>
+    <row r="19" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C19" s="7">
-        <v>282</v>
+        <v>178</v>
       </c>
       <c r="D19" s="7">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="E19" s="7">
-        <v>293</v>
+        <v>187</v>
       </c>
       <c r="F19" s="7">
-        <f t="shared" si="4"/>
-        <v>234</v>
+        <f t="shared" si="1"/>
+        <v>237</v>
       </c>
       <c r="G19" s="7">
-        <v>303</v>
+        <v>195</v>
       </c>
       <c r="H19" s="7">
-        <v>236</v>
+        <v>189</v>
       </c>
       <c r="I19" s="7">
-        <v>302</v>
+        <v>199</v>
       </c>
       <c r="J19" s="7">
-        <f t="shared" si="5"/>
-        <v>270</v>
-      </c>
-      <c r="K19" s="7"/>
+        <f t="shared" si="2"/>
+        <v>263</v>
+      </c>
+      <c r="K19" s="7">
+        <v>204</v>
+      </c>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
-      <c r="O19" s="7">
-        <v>895</v>
-      </c>
-      <c r="P19" s="7">
-        <v>1033</v>
-      </c>
-      <c r="Q19" s="7">
-        <v>1111</v>
-      </c>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
       <c r="R19" s="7"/>
-      <c r="S19" s="7"/>
-      <c r="T19" s="7"/>
-      <c r="U19" s="7"/>
+      <c r="S19" s="7">
+        <v>648</v>
+      </c>
+      <c r="T19" s="7">
+        <v>798</v>
+      </c>
+      <c r="U19" s="7">
+        <v>846</v>
+      </c>
       <c r="V19" s="7"/>
       <c r="W19" s="7"/>
       <c r="X19" s="7"/>
@@ -1969,54 +2267,60 @@
       <c r="AO19" s="7"/>
       <c r="AP19" s="7"/>
       <c r="AQ19" s="7"/>
-    </row>
-    <row r="20" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="AR19" s="7"/>
+      <c r="AS19" s="7"/>
+      <c r="AT19" s="7"/>
+      <c r="AU19" s="7"/>
+    </row>
+    <row r="20" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C20" s="7">
-        <v>178</v>
+        <v>23</v>
       </c>
       <c r="D20" s="7">
-        <v>196</v>
+        <v>26</v>
       </c>
       <c r="E20" s="7">
-        <v>187</v>
+        <v>26</v>
       </c>
       <c r="F20" s="7">
-        <f t="shared" si="4"/>
-        <v>237</v>
+        <f t="shared" si="1"/>
+        <v>29</v>
       </c>
       <c r="G20" s="7">
-        <v>195</v>
+        <v>23</v>
       </c>
       <c r="H20" s="7">
-        <v>189</v>
+        <v>26</v>
       </c>
       <c r="I20" s="7">
-        <v>199</v>
+        <v>29</v>
       </c>
       <c r="J20" s="7">
-        <f t="shared" si="5"/>
-        <v>263</v>
-      </c>
-      <c r="K20" s="7"/>
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="K20" s="7">
+        <v>26</v>
+      </c>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
       <c r="N20" s="7"/>
-      <c r="O20" s="7">
-        <v>648</v>
-      </c>
-      <c r="P20" s="7">
-        <v>798</v>
-      </c>
-      <c r="Q20" s="7">
-        <v>846</v>
-      </c>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
       <c r="R20" s="7"/>
-      <c r="S20" s="7"/>
-      <c r="T20" s="7"/>
-      <c r="U20" s="7"/>
+      <c r="S20" s="7">
+        <v>92</v>
+      </c>
+      <c r="T20" s="7">
+        <v>104</v>
+      </c>
+      <c r="U20" s="7">
+        <v>109</v>
+      </c>
       <c r="V20" s="7"/>
       <c r="W20" s="7"/>
       <c r="X20" s="7"/>
@@ -2039,54 +2343,76 @@
       <c r="AO20" s="7"/>
       <c r="AP20" s="7"/>
       <c r="AQ20" s="7"/>
-    </row>
-    <row r="21" spans="2:57" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="7">
-        <v>23</v>
-      </c>
-      <c r="D21" s="7">
-        <v>26</v>
-      </c>
-      <c r="E21" s="7">
-        <v>26</v>
-      </c>
-      <c r="F21" s="7">
-        <f t="shared" si="4"/>
-        <v>29</v>
-      </c>
-      <c r="G21" s="7">
-        <v>23</v>
-      </c>
-      <c r="H21" s="7">
-        <v>26</v>
-      </c>
-      <c r="I21" s="7">
-        <v>29</v>
-      </c>
-      <c r="J21" s="7">
-        <f t="shared" si="5"/>
-        <v>31</v>
-      </c>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7">
-        <v>92</v>
-      </c>
-      <c r="P21" s="7">
-        <v>104</v>
-      </c>
-      <c r="Q21" s="7">
-        <v>109</v>
-      </c>
+      <c r="AR20" s="7"/>
+      <c r="AS20" s="7"/>
+      <c r="AT20" s="7"/>
+      <c r="AU20" s="7"/>
+      <c r="AV20" s="3"/>
+      <c r="AW20" s="3"/>
+      <c r="AX20" s="3"/>
+      <c r="AY20" s="3"/>
+      <c r="AZ20" s="3"/>
+      <c r="BA20" s="3"/>
+      <c r="BB20" s="3"/>
+      <c r="BC20" s="3"/>
+      <c r="BD20" s="3"/>
+      <c r="BE20" s="3"/>
+      <c r="BF20" s="3"/>
+      <c r="BG20" s="3"/>
+      <c r="BH20" s="3"/>
+      <c r="BI20" s="3"/>
+    </row>
+    <row r="21" spans="2:61" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="8">
+        <v>968</v>
+      </c>
+      <c r="D21" s="8">
+        <v>1026</v>
+      </c>
+      <c r="E21" s="8">
+        <v>1027</v>
+      </c>
+      <c r="F21" s="8">
+        <f t="shared" si="1"/>
+        <v>1176</v>
+      </c>
+      <c r="G21" s="8">
+        <v>1014</v>
+      </c>
+      <c r="H21" s="8">
+        <v>1015</v>
+      </c>
+      <c r="I21" s="8">
+        <v>1029</v>
+      </c>
+      <c r="J21" s="8">
+        <f t="shared" si="2"/>
+        <v>1249</v>
+      </c>
+      <c r="K21" s="8">
+        <v>999</v>
+      </c>
+      <c r="L21" s="8">
+        <v>1010</v>
+      </c>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
       <c r="R21" s="7"/>
-      <c r="S21" s="7"/>
-      <c r="T21" s="7"/>
-      <c r="U21" s="7"/>
+      <c r="S21" s="8">
+        <v>3651</v>
+      </c>
+      <c r="T21" s="8">
+        <v>4197</v>
+      </c>
+      <c r="U21" s="8">
+        <v>4307</v>
+      </c>
       <c r="V21" s="7"/>
       <c r="W21" s="7"/>
       <c r="X21" s="7"/>
@@ -2109,10 +2435,10 @@
       <c r="AO21" s="7"/>
       <c r="AP21" s="7"/>
       <c r="AQ21" s="7"/>
-      <c r="AR21" s="3"/>
-      <c r="AS21" s="3"/>
-      <c r="AT21" s="3"/>
-      <c r="AU21" s="3"/>
+      <c r="AR21" s="7"/>
+      <c r="AS21" s="7"/>
+      <c r="AT21" s="7"/>
+      <c r="AU21" s="7"/>
       <c r="AV21" s="3"/>
       <c r="AW21" s="3"/>
       <c r="AX21" s="3"/>
@@ -2123,54 +2449,60 @@
       <c r="BC21" s="3"/>
       <c r="BD21" s="3"/>
       <c r="BE21" s="3"/>
-    </row>
-    <row r="22" spans="2:57" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="8">
-        <v>968</v>
-      </c>
-      <c r="D22" s="8">
-        <v>1026</v>
-      </c>
-      <c r="E22" s="8">
-        <v>1027</v>
-      </c>
-      <c r="F22" s="8">
-        <f t="shared" si="4"/>
-        <v>1176</v>
-      </c>
-      <c r="G22" s="8">
-        <v>1014</v>
-      </c>
-      <c r="H22" s="8">
-        <v>1015</v>
-      </c>
-      <c r="I22" s="8">
-        <v>1029</v>
-      </c>
-      <c r="J22" s="8">
-        <f t="shared" si="5"/>
-        <v>1249</v>
-      </c>
-      <c r="K22" s="7"/>
+      <c r="BF21" s="3"/>
+      <c r="BG21" s="3"/>
+      <c r="BH21" s="3"/>
+      <c r="BI21" s="3"/>
+    </row>
+    <row r="22" spans="2:61" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="7">
+        <v>374</v>
+      </c>
+      <c r="D22" s="7">
+        <v>386</v>
+      </c>
+      <c r="E22" s="7">
+        <v>404</v>
+      </c>
+      <c r="F22" s="7">
+        <f t="shared" si="1"/>
+        <v>453</v>
+      </c>
+      <c r="G22" s="7">
+        <v>391</v>
+      </c>
+      <c r="H22" s="7">
+        <v>377</v>
+      </c>
+      <c r="I22" s="7">
+        <v>410</v>
+      </c>
+      <c r="J22" s="7">
+        <f t="shared" si="2"/>
+        <v>470</v>
+      </c>
+      <c r="K22" s="7">
+        <v>386</v>
+      </c>
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
       <c r="N22" s="7"/>
-      <c r="O22" s="8">
-        <v>3651</v>
-      </c>
-      <c r="P22" s="8">
-        <v>4197</v>
-      </c>
-      <c r="Q22" s="8">
-        <v>4307</v>
-      </c>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
       <c r="R22" s="7"/>
-      <c r="S22" s="7"/>
-      <c r="T22" s="7"/>
-      <c r="U22" s="7"/>
+      <c r="S22" s="7">
+        <v>1395</v>
+      </c>
+      <c r="T22" s="7">
+        <v>1617</v>
+      </c>
+      <c r="U22" s="7">
+        <v>1648</v>
+      </c>
       <c r="V22" s="7"/>
       <c r="W22" s="7"/>
       <c r="X22" s="7"/>
@@ -2193,10 +2525,10 @@
       <c r="AO22" s="7"/>
       <c r="AP22" s="7"/>
       <c r="AQ22" s="7"/>
-      <c r="AR22" s="3"/>
-      <c r="AS22" s="3"/>
-      <c r="AT22" s="3"/>
-      <c r="AU22" s="3"/>
+      <c r="AR22" s="7"/>
+      <c r="AS22" s="7"/>
+      <c r="AT22" s="7"/>
+      <c r="AU22" s="7"/>
       <c r="AV22" s="3"/>
       <c r="AW22" s="3"/>
       <c r="AX22" s="3"/>
@@ -2207,54 +2539,70 @@
       <c r="BC22" s="3"/>
       <c r="BD22" s="3"/>
       <c r="BE22" s="3"/>
-    </row>
-    <row r="23" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="BF22" s="3"/>
+      <c r="BG22" s="3"/>
+      <c r="BH22" s="3"/>
+      <c r="BI22" s="3"/>
+    </row>
+    <row r="23" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C23" s="7">
-        <v>374</v>
+        <f t="shared" ref="C23:H23" si="3">+C21-C22</f>
+        <v>594</v>
       </c>
       <c r="D23" s="7">
-        <v>386</v>
+        <f t="shared" si="3"/>
+        <v>640</v>
       </c>
       <c r="E23" s="7">
-        <v>404</v>
+        <f t="shared" si="3"/>
+        <v>623</v>
       </c>
       <c r="F23" s="7">
-        <f t="shared" si="4"/>
-        <v>453</v>
+        <f t="shared" si="3"/>
+        <v>723</v>
       </c>
       <c r="G23" s="7">
-        <v>391</v>
+        <f t="shared" si="3"/>
+        <v>623</v>
       </c>
       <c r="H23" s="7">
-        <v>377</v>
+        <f t="shared" si="3"/>
+        <v>638</v>
       </c>
       <c r="I23" s="7">
-        <v>410</v>
+        <f>+I21-I22</f>
+        <v>619</v>
       </c>
       <c r="J23" s="7">
-        <f t="shared" si="5"/>
-        <v>470</v>
-      </c>
-      <c r="K23" s="7"/>
+        <f>+J21-J22</f>
+        <v>779</v>
+      </c>
+      <c r="K23" s="7">
+        <f>+K21-K22</f>
+        <v>613</v>
+      </c>
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
       <c r="N23" s="7"/>
-      <c r="O23" s="7">
-        <v>1395</v>
-      </c>
-      <c r="P23" s="7">
-        <v>1617</v>
-      </c>
-      <c r="Q23" s="7">
-        <v>1648</v>
-      </c>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
       <c r="R23" s="7"/>
-      <c r="S23" s="7"/>
-      <c r="T23" s="7"/>
-      <c r="U23" s="7"/>
+      <c r="S23" s="7">
+        <f>+S21-S22</f>
+        <v>2256</v>
+      </c>
+      <c r="T23" s="7">
+        <f>+T21-T22</f>
+        <v>2580</v>
+      </c>
+      <c r="U23" s="7">
+        <f>+U21-U22</f>
+        <v>2659</v>
+      </c>
       <c r="V23" s="7"/>
       <c r="W23" s="7"/>
       <c r="X23" s="7"/>
@@ -2277,10 +2625,10 @@
       <c r="AO23" s="7"/>
       <c r="AP23" s="7"/>
       <c r="AQ23" s="7"/>
-      <c r="AR23" s="3"/>
-      <c r="AS23" s="3"/>
-      <c r="AT23" s="3"/>
-      <c r="AU23" s="3"/>
+      <c r="AR23" s="7"/>
+      <c r="AS23" s="7"/>
+      <c r="AT23" s="7"/>
+      <c r="AU23" s="7"/>
       <c r="AV23" s="3"/>
       <c r="AW23" s="3"/>
       <c r="AX23" s="3"/>
@@ -2291,63 +2639,60 @@
       <c r="BC23" s="3"/>
       <c r="BD23" s="3"/>
       <c r="BE23" s="3"/>
-    </row>
-    <row r="24" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="BF23" s="3"/>
+      <c r="BG23" s="3"/>
+      <c r="BH23" s="3"/>
+      <c r="BI23" s="3"/>
+    </row>
+    <row r="24" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C24" s="7">
-        <f t="shared" ref="C24:H24" si="6">+C22-C23</f>
-        <v>594</v>
+        <v>414</v>
       </c>
       <c r="D24" s="7">
-        <f t="shared" si="6"/>
-        <v>640</v>
+        <v>410</v>
       </c>
       <c r="E24" s="7">
-        <f t="shared" si="6"/>
-        <v>623</v>
+        <v>424</v>
       </c>
       <c r="F24" s="7">
-        <f t="shared" si="6"/>
-        <v>723</v>
+        <f t="shared" si="1"/>
+        <v>497</v>
       </c>
       <c r="G24" s="7">
-        <f t="shared" si="6"/>
-        <v>623</v>
+        <v>442</v>
       </c>
       <c r="H24" s="7">
-        <f t="shared" si="6"/>
-        <v>638</v>
+        <v>450</v>
       </c>
       <c r="I24" s="7">
-        <f>+I22-I23</f>
-        <v>619</v>
+        <v>433</v>
       </c>
       <c r="J24" s="7">
-        <f>+J22-J23</f>
-        <v>779</v>
-      </c>
-      <c r="K24" s="7"/>
+        <f t="shared" si="2"/>
+        <v>543</v>
+      </c>
+      <c r="K24" s="7">
+        <v>441</v>
+      </c>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
       <c r="N24" s="7"/>
-      <c r="O24" s="7">
-        <f>+O22-O23</f>
-        <v>2256</v>
-      </c>
-      <c r="P24" s="7">
-        <f>+P22-P23</f>
-        <v>2580</v>
-      </c>
-      <c r="Q24" s="7">
-        <f>+Q22-Q23</f>
-        <v>2659</v>
-      </c>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
       <c r="R24" s="7"/>
-      <c r="S24" s="7"/>
-      <c r="T24" s="7"/>
-      <c r="U24" s="7"/>
+      <c r="S24" s="7">
+        <v>1539</v>
+      </c>
+      <c r="T24" s="7">
+        <v>1745</v>
+      </c>
+      <c r="U24" s="7">
+        <v>1868</v>
+      </c>
       <c r="V24" s="7"/>
       <c r="W24" s="7"/>
       <c r="X24" s="7"/>
@@ -2370,10 +2715,10 @@
       <c r="AO24" s="7"/>
       <c r="AP24" s="7"/>
       <c r="AQ24" s="7"/>
-      <c r="AR24" s="3"/>
-      <c r="AS24" s="3"/>
-      <c r="AT24" s="3"/>
-      <c r="AU24" s="3"/>
+      <c r="AR24" s="7"/>
+      <c r="AS24" s="7"/>
+      <c r="AT24" s="7"/>
+      <c r="AU24" s="7"/>
       <c r="AV24" s="3"/>
       <c r="AW24" s="3"/>
       <c r="AX24" s="3"/>
@@ -2384,54 +2729,60 @@
       <c r="BC24" s="3"/>
       <c r="BD24" s="3"/>
       <c r="BE24" s="3"/>
-    </row>
-    <row r="25" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="BF24" s="3"/>
+      <c r="BG24" s="3"/>
+      <c r="BH24" s="3"/>
+      <c r="BI24" s="3"/>
+    </row>
+    <row r="25" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C25" s="7">
-        <v>414</v>
+        <v>114</v>
       </c>
       <c r="D25" s="7">
-        <v>410</v>
+        <v>108</v>
       </c>
       <c r="E25" s="7">
-        <v>424</v>
+        <v>96</v>
       </c>
       <c r="F25" s="7">
-        <f t="shared" si="4"/>
-        <v>497</v>
+        <f t="shared" si="1"/>
+        <v>108</v>
       </c>
       <c r="G25" s="7">
-        <v>442</v>
+        <v>112</v>
       </c>
       <c r="H25" s="7">
-        <v>450</v>
+        <v>117</v>
       </c>
       <c r="I25" s="7">
-        <v>433</v>
+        <v>91</v>
       </c>
       <c r="J25" s="7">
-        <f t="shared" si="5"/>
-        <v>543</v>
-      </c>
-      <c r="K25" s="7"/>
+        <f t="shared" si="2"/>
+        <v>111</v>
+      </c>
+      <c r="K25" s="7">
+        <v>110</v>
+      </c>
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
       <c r="N25" s="7"/>
-      <c r="O25" s="7">
-        <v>1539</v>
-      </c>
-      <c r="P25" s="7">
-        <v>1745</v>
-      </c>
-      <c r="Q25" s="7">
-        <v>1868</v>
-      </c>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
       <c r="R25" s="7"/>
-      <c r="S25" s="7"/>
-      <c r="T25" s="7"/>
-      <c r="U25" s="7"/>
+      <c r="S25" s="7">
+        <v>382</v>
+      </c>
+      <c r="T25" s="7">
+        <v>426</v>
+      </c>
+      <c r="U25" s="7">
+        <v>431</v>
+      </c>
       <c r="V25" s="7"/>
       <c r="W25" s="7"/>
       <c r="X25" s="7"/>
@@ -2454,10 +2805,10 @@
       <c r="AO25" s="7"/>
       <c r="AP25" s="7"/>
       <c r="AQ25" s="7"/>
-      <c r="AR25" s="3"/>
-      <c r="AS25" s="3"/>
-      <c r="AT25" s="3"/>
-      <c r="AU25" s="3"/>
+      <c r="AR25" s="7"/>
+      <c r="AS25" s="7"/>
+      <c r="AT25" s="7"/>
+      <c r="AU25" s="7"/>
       <c r="AV25" s="3"/>
       <c r="AW25" s="3"/>
       <c r="AX25" s="3"/>
@@ -2468,54 +2819,72 @@
       <c r="BC25" s="3"/>
       <c r="BD25" s="3"/>
       <c r="BE25" s="3"/>
-    </row>
-    <row r="26" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="BF25" s="3"/>
+      <c r="BG25" s="3"/>
+      <c r="BH25" s="3"/>
+      <c r="BI25" s="3"/>
+    </row>
+    <row r="26" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C26" s="7">
-        <v>114</v>
+        <f t="shared" ref="C26:H26" si="4">+C23-SUM(C24:C25)</f>
+        <v>66</v>
       </c>
       <c r="D26" s="7">
-        <v>108</v>
+        <f t="shared" si="4"/>
+        <v>122</v>
       </c>
       <c r="E26" s="7">
-        <v>96</v>
+        <f t="shared" si="4"/>
+        <v>103</v>
       </c>
       <c r="F26" s="7">
         <f t="shared" si="4"/>
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="G26" s="7">
-        <v>112</v>
+        <f t="shared" si="4"/>
+        <v>69</v>
       </c>
       <c r="H26" s="7">
-        <v>117</v>
+        <f t="shared" si="4"/>
+        <v>71</v>
       </c>
       <c r="I26" s="7">
-        <v>91</v>
+        <f>+I23-SUM(I24:I25)</f>
+        <v>95</v>
       </c>
       <c r="J26" s="7">
+        <f t="shared" ref="J26:K26" si="5">+J23-SUM(J24:J25)</f>
+        <v>125</v>
+      </c>
+      <c r="K26" s="7">
         <f t="shared" si="5"/>
-        <v>111</v>
-      </c>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
+        <v>62</v>
+      </c>
+      <c r="L26" s="7">
+        <v>88.2</v>
+      </c>
       <c r="M26" s="7"/>
       <c r="N26" s="7"/>
-      <c r="O26" s="7">
-        <v>382</v>
-      </c>
-      <c r="P26" s="7">
-        <v>426</v>
-      </c>
-      <c r="Q26" s="7">
-        <v>431</v>
-      </c>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
       <c r="R26" s="7"/>
-      <c r="S26" s="7"/>
-      <c r="T26" s="7"/>
-      <c r="U26" s="7"/>
+      <c r="S26" s="7">
+        <f>+S23-S24-S25</f>
+        <v>335</v>
+      </c>
+      <c r="T26" s="7">
+        <f>+T23-T24-T25</f>
+        <v>409</v>
+      </c>
+      <c r="U26" s="7">
+        <f>+U23-U24-U25</f>
+        <v>360</v>
+      </c>
       <c r="V26" s="7"/>
       <c r="W26" s="7"/>
       <c r="X26" s="7"/>
@@ -2538,10 +2907,10 @@
       <c r="AO26" s="7"/>
       <c r="AP26" s="7"/>
       <c r="AQ26" s="7"/>
-      <c r="AR26" s="3"/>
-      <c r="AS26" s="3"/>
-      <c r="AT26" s="3"/>
-      <c r="AU26" s="3"/>
+      <c r="AR26" s="7"/>
+      <c r="AS26" s="7"/>
+      <c r="AT26" s="7"/>
+      <c r="AU26" s="7"/>
       <c r="AV26" s="3"/>
       <c r="AW26" s="3"/>
       <c r="AX26" s="3"/>
@@ -2552,63 +2921,60 @@
       <c r="BC26" s="3"/>
       <c r="BD26" s="3"/>
       <c r="BE26" s="3"/>
-    </row>
-    <row r="27" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="BF26" s="3"/>
+      <c r="BG26" s="3"/>
+      <c r="BH26" s="3"/>
+      <c r="BI26" s="3"/>
+    </row>
+    <row r="27" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C27" s="7">
-        <f t="shared" ref="C27:H27" si="7">+C24-SUM(C25:C26)</f>
-        <v>66</v>
+        <v>-12</v>
       </c>
       <c r="D27" s="7">
-        <f t="shared" si="7"/>
-        <v>122</v>
+        <v>-12</v>
       </c>
       <c r="E27" s="7">
-        <f t="shared" si="7"/>
-        <v>103</v>
+        <v>-15</v>
       </c>
       <c r="F27" s="7">
-        <f t="shared" si="7"/>
-        <v>118</v>
+        <f t="shared" si="1"/>
+        <v>-14</v>
       </c>
       <c r="G27" s="7">
-        <f t="shared" si="7"/>
-        <v>69</v>
+        <v>-12</v>
       </c>
       <c r="H27" s="7">
-        <f t="shared" si="7"/>
-        <v>71</v>
+        <v>-16</v>
       </c>
       <c r="I27" s="7">
-        <f>+I24-SUM(I25:I26)</f>
-        <v>95</v>
+        <v>-18</v>
       </c>
       <c r="J27" s="7">
-        <f t="shared" ref="J27" si="8">+J24-SUM(J25:J26)</f>
-        <v>125</v>
-      </c>
-      <c r="K27" s="7"/>
+        <f t="shared" si="2"/>
+        <v>-13</v>
+      </c>
+      <c r="K27" s="7">
+        <v>-9</v>
+      </c>
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
       <c r="N27" s="7"/>
-      <c r="O27" s="7">
-        <f>+O24-O25-O26</f>
-        <v>335</v>
-      </c>
-      <c r="P27" s="7">
-        <f>+P24-P25-P26</f>
-        <v>409</v>
-      </c>
-      <c r="Q27" s="7">
-        <f>+Q24-Q25-Q26</f>
-        <v>360</v>
-      </c>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
       <c r="R27" s="7"/>
-      <c r="S27" s="7"/>
-      <c r="T27" s="7"/>
-      <c r="U27" s="7"/>
+      <c r="S27" s="7">
+        <v>-50</v>
+      </c>
+      <c r="T27" s="7">
+        <v>-53</v>
+      </c>
+      <c r="U27" s="7">
+        <v>-59</v>
+      </c>
       <c r="V27" s="7"/>
       <c r="W27" s="7"/>
       <c r="X27" s="7"/>
@@ -2631,10 +2997,10 @@
       <c r="AO27" s="7"/>
       <c r="AP27" s="7"/>
       <c r="AQ27" s="7"/>
-      <c r="AR27" s="3"/>
-      <c r="AS27" s="3"/>
-      <c r="AT27" s="3"/>
-      <c r="AU27" s="3"/>
+      <c r="AR27" s="7"/>
+      <c r="AS27" s="7"/>
+      <c r="AT27" s="7"/>
+      <c r="AU27" s="7"/>
       <c r="AV27" s="3"/>
       <c r="AW27" s="3"/>
       <c r="AX27" s="3"/>
@@ -2645,54 +3011,70 @@
       <c r="BC27" s="3"/>
       <c r="BD27" s="3"/>
       <c r="BE27" s="3"/>
-    </row>
-    <row r="28" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="BF27" s="3"/>
+      <c r="BG27" s="3"/>
+      <c r="BH27" s="3"/>
+      <c r="BI27" s="3"/>
+    </row>
+    <row r="28" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" s="7">
-        <v>-12</v>
+        <f t="shared" ref="C28:H28" si="6">+C26+C27</f>
+        <v>54</v>
       </c>
       <c r="D28" s="7">
-        <v>-12</v>
+        <f t="shared" si="6"/>
+        <v>110</v>
       </c>
       <c r="E28" s="7">
-        <v>-15</v>
+        <f t="shared" si="6"/>
+        <v>88</v>
       </c>
       <c r="F28" s="7">
-        <f t="shared" si="4"/>
-        <v>-14</v>
+        <f t="shared" si="6"/>
+        <v>104</v>
       </c>
       <c r="G28" s="7">
-        <v>-12</v>
+        <f t="shared" si="6"/>
+        <v>57</v>
       </c>
       <c r="H28" s="7">
-        <v>-16</v>
+        <f t="shared" si="6"/>
+        <v>55</v>
       </c>
       <c r="I28" s="7">
-        <v>-18</v>
+        <f>+I26+I27</f>
+        <v>77</v>
       </c>
       <c r="J28" s="7">
-        <f t="shared" si="5"/>
-        <v>-13</v>
-      </c>
-      <c r="K28" s="7"/>
+        <f t="shared" ref="J28:K28" si="7">+J26+J27</f>
+        <v>112</v>
+      </c>
+      <c r="K28" s="7">
+        <f t="shared" si="7"/>
+        <v>53</v>
+      </c>
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
       <c r="N28" s="7"/>
-      <c r="O28" s="7">
-        <v>-50</v>
-      </c>
-      <c r="P28" s="7">
-        <v>-53</v>
-      </c>
-      <c r="Q28" s="7">
-        <v>-59</v>
-      </c>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
       <c r="R28" s="7"/>
-      <c r="S28" s="7"/>
-      <c r="T28" s="7"/>
-      <c r="U28" s="7"/>
+      <c r="S28" s="7">
+        <f>+S26+S27</f>
+        <v>285</v>
+      </c>
+      <c r="T28" s="7">
+        <f>+T26+T27</f>
+        <v>356</v>
+      </c>
+      <c r="U28" s="7">
+        <f>+U26+U27</f>
+        <v>301</v>
+      </c>
       <c r="V28" s="7"/>
       <c r="W28" s="7"/>
       <c r="X28" s="7"/>
@@ -2715,10 +3097,10 @@
       <c r="AO28" s="7"/>
       <c r="AP28" s="7"/>
       <c r="AQ28" s="7"/>
-      <c r="AR28" s="3"/>
-      <c r="AS28" s="3"/>
-      <c r="AT28" s="3"/>
-      <c r="AU28" s="3"/>
+      <c r="AR28" s="7"/>
+      <c r="AS28" s="7"/>
+      <c r="AT28" s="7"/>
+      <c r="AU28" s="7"/>
       <c r="AV28" s="3"/>
       <c r="AW28" s="3"/>
       <c r="AX28" s="3"/>
@@ -2729,63 +3111,60 @@
       <c r="BC28" s="3"/>
       <c r="BD28" s="3"/>
       <c r="BE28" s="3"/>
-    </row>
-    <row r="29" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="BF28" s="3"/>
+      <c r="BG28" s="3"/>
+      <c r="BH28" s="3"/>
+      <c r="BI28" s="3"/>
+    </row>
+    <row r="29" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C29" s="7">
-        <f t="shared" ref="C29:H29" si="9">+C27+C28</f>
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="D29" s="7">
-        <f t="shared" si="9"/>
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="E29" s="7">
-        <f t="shared" si="9"/>
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="F29" s="7">
-        <f t="shared" si="9"/>
-        <v>104</v>
+        <f t="shared" si="1"/>
+        <v>17</v>
       </c>
       <c r="G29" s="7">
-        <f t="shared" si="9"/>
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="H29" s="7">
-        <f t="shared" si="9"/>
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="I29" s="7">
-        <f>+I27+I28</f>
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="J29" s="7">
-        <f t="shared" ref="J29" si="10">+J27+J28</f>
-        <v>112</v>
-      </c>
-      <c r="K29" s="7"/>
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="K29" s="7">
+        <v>15</v>
+      </c>
       <c r="L29" s="7"/>
       <c r="M29" s="7"/>
       <c r="N29" s="7"/>
-      <c r="O29" s="7">
-        <f>+O27+O28</f>
-        <v>285</v>
-      </c>
-      <c r="P29" s="7">
-        <f>+P27+P28</f>
-        <v>356</v>
-      </c>
-      <c r="Q29" s="7">
-        <f>+Q27+Q28</f>
-        <v>301</v>
-      </c>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="7"/>
       <c r="R29" s="7"/>
-      <c r="S29" s="7"/>
-      <c r="T29" s="7"/>
-      <c r="U29" s="7"/>
+      <c r="S29" s="7">
+        <v>63</v>
+      </c>
+      <c r="T29" s="7">
+        <v>87</v>
+      </c>
+      <c r="U29" s="7">
+        <v>78</v>
+      </c>
       <c r="V29" s="7"/>
       <c r="W29" s="7"/>
       <c r="X29" s="7"/>
@@ -2808,10 +3187,10 @@
       <c r="AO29" s="7"/>
       <c r="AP29" s="7"/>
       <c r="AQ29" s="7"/>
-      <c r="AR29" s="3"/>
-      <c r="AS29" s="3"/>
-      <c r="AT29" s="3"/>
-      <c r="AU29" s="3"/>
+      <c r="AR29" s="7"/>
+      <c r="AS29" s="7"/>
+      <c r="AT29" s="7"/>
+      <c r="AU29" s="7"/>
       <c r="AV29" s="3"/>
       <c r="AW29" s="3"/>
       <c r="AX29" s="3"/>
@@ -2822,54 +3201,70 @@
       <c r="BC29" s="3"/>
       <c r="BD29" s="3"/>
       <c r="BE29" s="3"/>
-    </row>
-    <row r="30" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="BF29" s="3"/>
+      <c r="BG29" s="3"/>
+      <c r="BH29" s="3"/>
+      <c r="BI29" s="3"/>
+    </row>
+    <row r="30" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C30" s="7">
-        <v>15</v>
+        <f t="shared" ref="C30:H30" si="8">+C28-C29</f>
+        <v>39</v>
       </c>
       <c r="D30" s="7">
-        <v>30</v>
+        <f t="shared" si="8"/>
+        <v>80</v>
       </c>
       <c r="E30" s="7">
-        <v>25</v>
+        <f t="shared" si="8"/>
+        <v>63</v>
       </c>
       <c r="F30" s="7">
-        <f t="shared" si="4"/>
-        <v>17</v>
+        <f t="shared" si="8"/>
+        <v>87</v>
       </c>
       <c r="G30" s="7">
-        <v>16</v>
+        <f t="shared" si="8"/>
+        <v>41</v>
       </c>
       <c r="H30" s="7">
-        <v>15</v>
+        <f t="shared" si="8"/>
+        <v>40</v>
       </c>
       <c r="I30" s="7">
-        <v>22</v>
+        <f>+I28-I29</f>
+        <v>55</v>
       </c>
       <c r="J30" s="7">
-        <f t="shared" si="5"/>
-        <v>25</v>
-      </c>
-      <c r="K30" s="7"/>
+        <f t="shared" ref="J30:K30" si="9">+J28-J29</f>
+        <v>87</v>
+      </c>
+      <c r="K30" s="7">
+        <f t="shared" si="9"/>
+        <v>38</v>
+      </c>
       <c r="L30" s="7"/>
       <c r="M30" s="7"/>
       <c r="N30" s="7"/>
-      <c r="O30" s="7">
-        <v>63</v>
-      </c>
-      <c r="P30" s="7">
-        <v>87</v>
-      </c>
-      <c r="Q30" s="7">
-        <v>78</v>
-      </c>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="7"/>
       <c r="R30" s="7"/>
-      <c r="S30" s="7"/>
-      <c r="T30" s="7"/>
-      <c r="U30" s="7"/>
+      <c r="S30" s="7">
+        <f>+S28-S29</f>
+        <v>222</v>
+      </c>
+      <c r="T30" s="7">
+        <f>+T28-T29</f>
+        <v>269</v>
+      </c>
+      <c r="U30" s="7">
+        <f>+U28-U29</f>
+        <v>223</v>
+      </c>
       <c r="V30" s="7"/>
       <c r="W30" s="7"/>
       <c r="X30" s="7"/>
@@ -2892,10 +3287,10 @@
       <c r="AO30" s="7"/>
       <c r="AP30" s="7"/>
       <c r="AQ30" s="7"/>
-      <c r="AR30" s="3"/>
-      <c r="AS30" s="3"/>
-      <c r="AT30" s="3"/>
-      <c r="AU30" s="3"/>
+      <c r="AR30" s="7"/>
+      <c r="AS30" s="7"/>
+      <c r="AT30" s="7"/>
+      <c r="AU30" s="7"/>
       <c r="AV30" s="3"/>
       <c r="AW30" s="3"/>
       <c r="AX30" s="3"/>
@@ -2906,63 +3301,60 @@
       <c r="BC30" s="3"/>
       <c r="BD30" s="3"/>
       <c r="BE30" s="3"/>
-    </row>
-    <row r="31" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="BF30" s="3"/>
+      <c r="BG30" s="3"/>
+      <c r="BH30" s="3"/>
+      <c r="BI30" s="3"/>
+    </row>
+    <row r="31" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C31" s="7">
-        <f t="shared" ref="C31:H31" si="11">+C29-C30</f>
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="D31" s="7">
-        <f t="shared" si="11"/>
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="E31" s="7">
-        <f t="shared" si="11"/>
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="F31" s="7">
-        <f t="shared" si="11"/>
-        <v>87</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="G31" s="7">
-        <f t="shared" si="11"/>
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="H31" s="7">
-        <f t="shared" si="11"/>
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="I31" s="7">
-        <f>+I29-I30</f>
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="J31" s="7">
-        <f t="shared" ref="J31" si="12">+J29-J30</f>
-        <v>87</v>
-      </c>
-      <c r="K31" s="7"/>
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="K31" s="7">
+        <v>2</v>
+      </c>
       <c r="L31" s="7"/>
       <c r="M31" s="7"/>
       <c r="N31" s="7"/>
-      <c r="O31" s="7">
-        <f>+O29-O30</f>
-        <v>222</v>
-      </c>
-      <c r="P31" s="7">
-        <f>+P29-P30</f>
-        <v>269</v>
-      </c>
-      <c r="Q31" s="7">
-        <f>+Q29-Q30</f>
-        <v>223</v>
-      </c>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="7"/>
       <c r="R31" s="7"/>
-      <c r="S31" s="7"/>
-      <c r="T31" s="7"/>
-      <c r="U31" s="7"/>
+      <c r="S31" s="7">
+        <v>12</v>
+      </c>
+      <c r="T31" s="7">
+        <v>11</v>
+      </c>
+      <c r="U31" s="7">
+        <v>10</v>
+      </c>
       <c r="V31" s="7"/>
       <c r="W31" s="7"/>
       <c r="X31" s="7"/>
@@ -2985,10 +3377,10 @@
       <c r="AO31" s="7"/>
       <c r="AP31" s="7"/>
       <c r="AQ31" s="7"/>
-      <c r="AR31" s="3"/>
-      <c r="AS31" s="3"/>
-      <c r="AT31" s="3"/>
-      <c r="AU31" s="3"/>
+      <c r="AR31" s="7"/>
+      <c r="AS31" s="7"/>
+      <c r="AT31" s="7"/>
+      <c r="AU31" s="7"/>
       <c r="AV31" s="3"/>
       <c r="AW31" s="3"/>
       <c r="AX31" s="3"/>
@@ -2999,54 +3391,70 @@
       <c r="BC31" s="3"/>
       <c r="BD31" s="3"/>
       <c r="BE31" s="3"/>
-    </row>
-    <row r="32" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="BF31" s="3"/>
+      <c r="BG31" s="3"/>
+      <c r="BH31" s="3"/>
+      <c r="BI31" s="3"/>
+    </row>
+    <row r="32" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C32" s="7">
-        <v>4</v>
+        <f t="shared" ref="C32:H32" si="10">+C30-C31</f>
+        <v>35</v>
       </c>
       <c r="D32" s="7">
-        <v>3</v>
+        <f t="shared" si="10"/>
+        <v>77</v>
       </c>
       <c r="E32" s="7">
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>63</v>
       </c>
       <c r="F32" s="7">
-        <f t="shared" si="4"/>
-        <v>4</v>
+        <f t="shared" si="10"/>
+        <v>83</v>
       </c>
       <c r="G32" s="7">
-        <v>3</v>
+        <f t="shared" si="10"/>
+        <v>38</v>
       </c>
       <c r="H32" s="7">
-        <v>2</v>
+        <f t="shared" si="10"/>
+        <v>38</v>
       </c>
       <c r="I32" s="7">
-        <v>1</v>
+        <f>+I30-I31</f>
+        <v>54</v>
       </c>
       <c r="J32" s="7">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="K32" s="7"/>
+        <f t="shared" ref="J32:K32" si="11">+J30-J31</f>
+        <v>83</v>
+      </c>
+      <c r="K32" s="7">
+        <f t="shared" si="11"/>
+        <v>36</v>
+      </c>
       <c r="L32" s="7"/>
       <c r="M32" s="7"/>
       <c r="N32" s="7"/>
-      <c r="O32" s="7">
-        <v>12</v>
-      </c>
-      <c r="P32" s="7">
-        <v>11</v>
-      </c>
-      <c r="Q32" s="7">
-        <v>10</v>
-      </c>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
       <c r="R32" s="7"/>
-      <c r="S32" s="7"/>
-      <c r="T32" s="7"/>
-      <c r="U32" s="7"/>
+      <c r="S32" s="7">
+        <f>+S30-S31</f>
+        <v>210</v>
+      </c>
+      <c r="T32" s="7">
+        <f>+T30-T31</f>
+        <v>258</v>
+      </c>
+      <c r="U32" s="7">
+        <f>+U30-U31</f>
+        <v>213</v>
+      </c>
       <c r="V32" s="7"/>
       <c r="W32" s="7"/>
       <c r="X32" s="7"/>
@@ -3069,10 +3477,10 @@
       <c r="AO32" s="7"/>
       <c r="AP32" s="7"/>
       <c r="AQ32" s="7"/>
-      <c r="AR32" s="3"/>
-      <c r="AS32" s="3"/>
-      <c r="AT32" s="3"/>
-      <c r="AU32" s="3"/>
+      <c r="AR32" s="7"/>
+      <c r="AS32" s="7"/>
+      <c r="AT32" s="7"/>
+      <c r="AU32" s="7"/>
       <c r="AV32" s="3"/>
       <c r="AW32" s="3"/>
       <c r="AX32" s="3"/>
@@ -3083,85 +3491,53 @@
       <c r="BC32" s="3"/>
       <c r="BD32" s="3"/>
       <c r="BE32" s="3"/>
-    </row>
-    <row r="33" spans="2:57" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>30</v>
-      </c>
-      <c r="C33" s="7">
-        <f t="shared" ref="C33:H33" si="13">+C31-C32</f>
-        <v>35</v>
-      </c>
-      <c r="D33" s="7">
-        <f t="shared" si="13"/>
-        <v>77</v>
-      </c>
-      <c r="E33" s="7">
-        <f t="shared" si="13"/>
-        <v>63</v>
-      </c>
-      <c r="F33" s="7">
-        <f t="shared" si="13"/>
-        <v>83</v>
-      </c>
-      <c r="G33" s="7">
-        <f t="shared" si="13"/>
-        <v>38</v>
-      </c>
-      <c r="H33" s="7">
-        <f t="shared" si="13"/>
-        <v>38</v>
-      </c>
-      <c r="I33" s="7">
-        <f>+I31-I32</f>
-        <v>54</v>
-      </c>
-      <c r="J33" s="7">
-        <f t="shared" ref="J33" si="14">+J31-J32</f>
-        <v>83</v>
-      </c>
-      <c r="K33" s="7"/>
-      <c r="L33" s="7"/>
-      <c r="M33" s="7"/>
-      <c r="N33" s="7"/>
-      <c r="O33" s="7">
-        <f>+O31-O32</f>
-        <v>210</v>
-      </c>
-      <c r="P33" s="7">
-        <f>+P31-P32</f>
-        <v>258</v>
-      </c>
-      <c r="Q33" s="7">
-        <f>+Q31-Q32</f>
-        <v>213</v>
-      </c>
-      <c r="R33" s="7"/>
-      <c r="S33" s="7"/>
-      <c r="T33" s="7"/>
-      <c r="U33" s="7"/>
-      <c r="V33" s="7"/>
-      <c r="W33" s="7"/>
-      <c r="X33" s="7"/>
-      <c r="Y33" s="7"/>
-      <c r="Z33" s="7"/>
-      <c r="AA33" s="7"/>
-      <c r="AB33" s="7"/>
-      <c r="AC33" s="7"/>
-      <c r="AD33" s="7"/>
-      <c r="AE33" s="7"/>
-      <c r="AF33" s="7"/>
-      <c r="AG33" s="7"/>
-      <c r="AH33" s="7"/>
-      <c r="AI33" s="7"/>
-      <c r="AJ33" s="7"/>
-      <c r="AK33" s="7"/>
-      <c r="AL33" s="7"/>
-      <c r="AM33" s="7"/>
-      <c r="AN33" s="7"/>
-      <c r="AO33" s="7"/>
-      <c r="AP33" s="7"/>
-      <c r="AQ33" s="7"/>
+      <c r="BF32" s="3"/>
+      <c r="BG32" s="3"/>
+      <c r="BH32" s="3"/>
+      <c r="BI32" s="3"/>
+    </row>
+    <row r="33" spans="2:61" x14ac:dyDescent="0.25">
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3"/>
+      <c r="W33" s="3"/>
+      <c r="X33" s="3"/>
+      <c r="Y33" s="3"/>
+      <c r="Z33" s="3"/>
+      <c r="AA33" s="3"/>
+      <c r="AB33" s="3"/>
+      <c r="AC33" s="3"/>
+      <c r="AD33" s="3"/>
+      <c r="AE33" s="3"/>
+      <c r="AF33" s="3"/>
+      <c r="AG33" s="3"/>
+      <c r="AH33" s="3"/>
+      <c r="AI33" s="3"/>
+      <c r="AJ33" s="3"/>
+      <c r="AK33" s="3"/>
+      <c r="AL33" s="3"/>
+      <c r="AM33" s="3"/>
+      <c r="AN33" s="3"/>
+      <c r="AO33" s="3"/>
+      <c r="AP33" s="3"/>
+      <c r="AQ33" s="3"/>
       <c r="AR33" s="3"/>
       <c r="AS33" s="3"/>
       <c r="AT33" s="3"/>
@@ -3176,27 +3552,79 @@
       <c r="BC33" s="3"/>
       <c r="BD33" s="3"/>
       <c r="BE33" s="3"/>
-    </row>
-    <row r="34" spans="2:57" x14ac:dyDescent="0.25">
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
+      <c r="BF33" s="3"/>
+      <c r="BG33" s="3"/>
+      <c r="BH33" s="3"/>
+      <c r="BI33" s="3"/>
+    </row>
+    <row r="34" spans="2:61" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" s="5">
+        <f t="shared" ref="C34:D34" si="12">+C32/C35</f>
+        <v>0.49715909090909088</v>
+      </c>
+      <c r="D34" s="5">
+        <f t="shared" si="12"/>
+        <v>1.09375</v>
+      </c>
+      <c r="E34" s="5">
+        <f>+E32/E35</f>
+        <v>0.89488636363636354</v>
+      </c>
+      <c r="F34" s="5">
+        <f t="shared" ref="F34:K34" si="13">+F32/F35</f>
+        <v>1.1789772727272727</v>
+      </c>
+      <c r="G34" s="5">
+        <f t="shared" si="13"/>
+        <v>0.53977272727272718</v>
+      </c>
+      <c r="H34" s="5">
+        <f t="shared" si="13"/>
+        <v>0.53977272727272718</v>
+      </c>
+      <c r="I34" s="5">
+        <f t="shared" si="13"/>
+        <v>0.76704545454545447</v>
+      </c>
+      <c r="J34" s="5">
+        <f t="shared" si="13"/>
+        <v>1.1789772727272727</v>
+      </c>
+      <c r="K34" s="5">
+        <f t="shared" si="13"/>
+        <v>0.51136363636363635</v>
+      </c>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
       <c r="O34" s="3"/>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="3"/>
-      <c r="R34" s="3"/>
-      <c r="S34" s="3"/>
-      <c r="T34" s="3"/>
-      <c r="U34" s="3"/>
+      <c r="P34" s="5" t="e">
+        <f t="shared" ref="P34:S34" si="14">+P32/P35</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q34" s="5" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R34" s="5" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S34" s="5">
+        <f t="shared" si="14"/>
+        <v>2.9829545454545454</v>
+      </c>
+      <c r="T34" s="5">
+        <f>+T32/T35</f>
+        <v>3.6647727272727271</v>
+      </c>
+      <c r="U34" s="5">
+        <f>+U32/U35</f>
+        <v>3.0255681818181817</v>
+      </c>
       <c r="V34" s="3"/>
       <c r="W34" s="3"/>
       <c r="X34" s="3"/>
@@ -3233,72 +3661,58 @@
       <c r="BC34" s="3"/>
       <c r="BD34" s="3"/>
       <c r="BE34" s="3"/>
-    </row>
-    <row r="35" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="BF34" s="3"/>
+      <c r="BG34" s="3"/>
+      <c r="BH34" s="3"/>
+      <c r="BI34" s="3"/>
+    </row>
+    <row r="35" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>31</v>
-      </c>
-      <c r="C35" s="5">
-        <f t="shared" ref="C35:D35" si="15">+C33/C36</f>
-        <v>0.49715909090909088</v>
-      </c>
-      <c r="D35" s="5">
-        <f t="shared" si="15"/>
-        <v>1.09375</v>
-      </c>
-      <c r="E35" s="5">
-        <f>+E33/E36</f>
-        <v>0.89488636363636354</v>
-      </c>
-      <c r="F35" s="5">
-        <f t="shared" ref="F35:J35" si="16">+F33/F36</f>
-        <v>1.1789772727272727</v>
-      </c>
-      <c r="G35" s="5">
-        <f t="shared" si="16"/>
-        <v>0.53977272727272718</v>
-      </c>
-      <c r="H35" s="5">
-        <f t="shared" si="16"/>
-        <v>0.53977272727272718</v>
-      </c>
-      <c r="I35" s="5">
-        <f t="shared" si="16"/>
-        <v>0.76704545454545447</v>
-      </c>
-      <c r="J35" s="5">
-        <f t="shared" si="16"/>
-        <v>1.1789772727272727</v>
-      </c>
-      <c r="K35" s="3"/>
-      <c r="L35" s="5" t="e">
-        <f t="shared" ref="L35:O35" si="17">+L33/L36</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M35" s="5" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N35" s="5" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O35" s="5">
-        <f t="shared" si="17"/>
-        <v>2.9829545454545454</v>
-      </c>
-      <c r="P35" s="5">
-        <f>+P33/P36</f>
-        <v>3.6647727272727271</v>
-      </c>
-      <c r="Q35" s="5">
-        <f>+Q33/Q36</f>
-        <v>3.0255681818181817</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="C35" s="9">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="D35" s="9">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="E35" s="9">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="F35" s="9">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="G35" s="9">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="H35" s="9">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="I35" s="9">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="J35" s="9">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="K35" s="9">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
       <c r="R35" s="3"/>
-      <c r="S35" s="3"/>
-      <c r="T35" s="3"/>
-      <c r="U35" s="3"/>
+      <c r="S35" s="9">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="T35" s="9">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="U35" s="9">
+        <v>70.400000000000006</v>
+      </c>
       <c r="V35" s="3"/>
       <c r="W35" s="3"/>
       <c r="X35" s="3"/>
@@ -3335,48 +3749,27 @@
       <c r="BC35" s="3"/>
       <c r="BD35" s="3"/>
       <c r="BE35" s="3"/>
-    </row>
-    <row r="36" spans="2:57" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>3</v>
-      </c>
-      <c r="C36" s="9">
-        <v>70.400000000000006</v>
-      </c>
-      <c r="D36" s="9">
-        <v>70.400000000000006</v>
-      </c>
-      <c r="E36" s="9">
-        <v>70.400000000000006</v>
-      </c>
-      <c r="F36" s="9">
-        <v>70.400000000000006</v>
-      </c>
-      <c r="G36" s="9">
-        <v>70.400000000000006</v>
-      </c>
-      <c r="H36" s="9">
-        <v>70.400000000000006</v>
-      </c>
-      <c r="I36" s="9">
-        <v>70.400000000000006</v>
-      </c>
-      <c r="J36" s="9">
-        <v>70.400000000000006</v>
-      </c>
+      <c r="BF35" s="3"/>
+      <c r="BG35" s="3"/>
+      <c r="BH35" s="3"/>
+      <c r="BI35" s="3"/>
+    </row>
+    <row r="36" spans="2:61" x14ac:dyDescent="0.25">
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
-      <c r="O36" s="9">
-        <v>70.400000000000006</v>
-      </c>
-      <c r="P36" s="9">
-        <v>70.400000000000006</v>
-      </c>
-      <c r="Q36" s="9">
-        <v>70.400000000000006</v>
-      </c>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
       <c r="R36" s="3"/>
       <c r="S36" s="3"/>
       <c r="T36" s="3"/>
@@ -3417,27 +3810,64 @@
       <c r="BC36" s="3"/>
       <c r="BD36" s="3"/>
       <c r="BE36" s="3"/>
-    </row>
-    <row r="37" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="BF36" s="3"/>
+      <c r="BG36" s="3"/>
+      <c r="BH36" s="3"/>
+      <c r="BI36" s="3"/>
+    </row>
+    <row r="37" spans="2:61" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>60</v>
+      </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
+      <c r="G37" s="6">
+        <f>+G6/C6-1</f>
+        <v>5.6417489421720646E-3</v>
+      </c>
+      <c r="H37" s="6">
+        <f>+H6/D6-1</f>
+        <v>5.0775740479548581E-2</v>
+      </c>
+      <c r="I37" s="6">
+        <f>+I6/E6-1</f>
+        <v>4.6544428772919533E-2</v>
+      </c>
+      <c r="J37" s="6">
+        <f>+J6/F6-1</f>
+        <v>8.0394922425952142E-2</v>
+      </c>
+      <c r="K37" s="6">
+        <f>+K6/G6-1</f>
+        <v>6.5217391304347894E-2</v>
+      </c>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
       <c r="O37" s="3"/>
       <c r="P37" s="3"/>
-      <c r="Q37" s="3"/>
-      <c r="R37" s="3"/>
-      <c r="S37" s="3"/>
-      <c r="T37" s="3"/>
-      <c r="U37" s="3"/>
+      <c r="Q37" s="6" t="e">
+        <f>+Q6/P6-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R37" s="6" t="e">
+        <f>+R6/Q6-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S37" s="6" t="e">
+        <f>+S6/R6-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T37" s="6">
+        <f>+T6/S6-1</f>
+        <v>7.7507598784194442E-2</v>
+      </c>
+      <c r="U37" s="6">
+        <f>+U6/T6-1</f>
+        <v>8.0394922425952142E-2</v>
+      </c>
       <c r="V37" s="3"/>
       <c r="W37" s="3"/>
       <c r="X37" s="3"/>
@@ -3474,57 +3904,64 @@
       <c r="BC37" s="3"/>
       <c r="BD37" s="3"/>
       <c r="BE37" s="3"/>
-    </row>
-    <row r="38" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="BF37" s="3"/>
+      <c r="BG37" s="3"/>
+      <c r="BH37" s="3"/>
+      <c r="BI37" s="3"/>
+    </row>
+    <row r="38" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="6">
-        <f t="shared" ref="G38:H39" si="18">+G6/C6-1</f>
-        <v>5.6417489421720646E-3</v>
+        <f>+G7/C7-1</f>
+        <v>2.044989775051187E-3</v>
       </c>
       <c r="H38" s="6">
-        <f t="shared" si="18"/>
-        <v>5.0775740479548581E-2</v>
+        <f>+H7/D7-1</f>
+        <v>1.0224948875255713E-2</v>
       </c>
       <c r="I38" s="6">
-        <f>+I6/E6-1</f>
-        <v>4.6544428772919533E-2</v>
+        <f>+I7/E7-1</f>
+        <v>2.044989775051187E-3</v>
       </c>
       <c r="J38" s="6">
-        <f>+J6/F6-1</f>
-        <v>-1</v>
-      </c>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="6" t="e">
-        <f t="shared" ref="M38:O38" si="19">+M6/L6-1</f>
+        <f>+J7/F7-1</f>
+        <v>2.249488752556239E-2</v>
+      </c>
+      <c r="K38" s="6">
+        <f>+K7/G7-1</f>
+        <v>2.0408163265306145E-2</v>
+      </c>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="6" t="e">
+        <f>+Q7/P7-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N38" s="6" t="e">
-        <f t="shared" si="19"/>
+      <c r="R38" s="6" t="e">
+        <f>+R7/Q7-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O38" s="6" t="e">
-        <f t="shared" si="19"/>
+      <c r="S38" s="6" t="e">
+        <f>+S7/R7-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P38" s="6">
-        <f>+P6/O6-1</f>
-        <v>7.7507598784194442E-2</v>
-      </c>
-      <c r="Q38" s="6">
-        <f>+Q6/P6-1</f>
-        <v>-1</v>
-      </c>
-      <c r="R38" s="3"/>
-      <c r="S38" s="3"/>
-      <c r="T38" s="3"/>
-      <c r="U38" s="3"/>
+      <c r="T38" s="6">
+        <f>+T7/S7-1</f>
+        <v>4.042553191489362E-2</v>
+      </c>
+      <c r="U38" s="6">
+        <f>+U7/T7-1</f>
+        <v>2.249488752556239E-2</v>
+      </c>
       <c r="V38" s="3"/>
       <c r="W38" s="3"/>
       <c r="X38" s="3"/>
@@ -3561,57 +3998,64 @@
       <c r="BC38" s="3"/>
       <c r="BD38" s="3"/>
       <c r="BE38" s="3"/>
-    </row>
-    <row r="39" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="BF38" s="3"/>
+      <c r="BG38" s="3"/>
+      <c r="BH38" s="3"/>
+      <c r="BI38" s="3"/>
+    </row>
+    <row r="39" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
       <c r="G39" s="6">
-        <f t="shared" si="18"/>
-        <v>2.044989775051187E-3</v>
+        <f t="shared" ref="G39:H48" si="15">+G10/C10-1</f>
+        <v>4.1554959785522705E-2</v>
       </c>
       <c r="H39" s="6">
-        <f t="shared" si="18"/>
-        <v>1.0224948875255713E-2</v>
+        <f t="shared" si="15"/>
+        <v>-1.9753086419753041E-2</v>
       </c>
       <c r="I39" s="6">
-        <f t="shared" ref="I39:J39" si="20">+I7/E7-1</f>
-        <v>2.044989775051187E-3</v>
+        <f>+I10/E10-1</f>
+        <v>-1.2722646310432406E-3</v>
       </c>
       <c r="J39" s="6">
-        <f t="shared" si="20"/>
-        <v>-1</v>
-      </c>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="6" t="e">
-        <f t="shared" ref="M39:O39" si="21">+M7/L7-1</f>
+        <f>+J10/F10-1</f>
+        <v>6.4551422319474749E-2</v>
+      </c>
+      <c r="K39" s="6">
+        <f>+K10/G10-1</f>
+        <v>-1.4157014157014203E-2</v>
+      </c>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="6" t="e">
+        <f t="shared" ref="Q39:S48" si="16">+Q10/P10-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N39" s="6" t="e">
-        <f t="shared" si="21"/>
+      <c r="R39" s="6" t="e">
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O39" s="6" t="e">
-        <f t="shared" si="21"/>
+      <c r="S39" s="6" t="e">
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P39" s="6">
-        <f>+P7/O7-1</f>
-        <v>4.042553191489362E-2</v>
-      </c>
-      <c r="Q39" s="6">
-        <f>+Q7/P7-1</f>
-        <v>-1</v>
-      </c>
-      <c r="R39" s="3"/>
-      <c r="S39" s="3"/>
-      <c r="T39" s="3"/>
-      <c r="U39" s="3"/>
+      <c r="T39" s="6">
+        <f>+T10/S10-1</f>
+        <v>0.13528591352859132</v>
+      </c>
+      <c r="U39" s="6">
+        <f>+U10/T10-1</f>
+        <v>2.2420147420147529E-2</v>
+      </c>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
@@ -3648,57 +4092,64 @@
       <c r="BC39" s="3"/>
       <c r="BD39" s="3"/>
       <c r="BE39" s="3"/>
-    </row>
-    <row r="40" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="BF39" s="3"/>
+      <c r="BG39" s="3"/>
+      <c r="BH39" s="3"/>
+      <c r="BI39" s="3"/>
+    </row>
+    <row r="40" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
       <c r="G40" s="6">
-        <f t="shared" ref="G40:H49" si="22">+G11/C11-1</f>
-        <v>4.1554959785522705E-2</v>
+        <f t="shared" si="15"/>
+        <v>4.4776119402984982E-2</v>
       </c>
       <c r="H40" s="6">
-        <f t="shared" si="22"/>
-        <v>-1.9753086419753041E-2</v>
+        <f t="shared" si="15"/>
+        <v>1.4925373134328401E-2</v>
       </c>
       <c r="I40" s="6">
-        <f>+I11/E11-1</f>
-        <v>-1.2722646310432406E-3</v>
+        <f t="shared" ref="I40:K48" si="17">+I11/E11-1</f>
+        <v>1.3698630136986356E-2</v>
       </c>
       <c r="J40" s="6">
-        <f>+J11/F11-1</f>
-        <v>6.4551422319474749E-2</v>
-      </c>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="6" t="e">
-        <f t="shared" ref="M40:O49" si="23">+M11/L11-1</f>
+        <f t="shared" si="17"/>
+        <v>4.9382716049382713E-2</v>
+      </c>
+      <c r="K40" s="6">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="6" t="e">
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N40" s="6" t="e">
-        <f t="shared" si="23"/>
+      <c r="R40" s="6" t="e">
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O40" s="6" t="e">
-        <f t="shared" si="23"/>
+      <c r="S40" s="6" t="e">
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P40" s="6">
-        <f>+P11/O11-1</f>
-        <v>0.13528591352859132</v>
-      </c>
-      <c r="Q40" s="6">
-        <f>+Q11/P11-1</f>
-        <v>2.2420147420147529E-2</v>
-      </c>
-      <c r="R40" s="3"/>
-      <c r="S40" s="3"/>
-      <c r="T40" s="3"/>
-      <c r="U40" s="3"/>
+      <c r="T40" s="6">
+        <f t="shared" ref="T40:U48" si="18">+T11/S11-1</f>
+        <v>0.20502092050209209</v>
+      </c>
+      <c r="U40" s="6">
+        <f t="shared" si="18"/>
+        <v>3.125E-2</v>
+      </c>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
@@ -3735,57 +4186,64 @@
       <c r="BC40" s="3"/>
       <c r="BD40" s="3"/>
       <c r="BE40" s="3"/>
-    </row>
-    <row r="41" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="BF40" s="3"/>
+      <c r="BG40" s="3"/>
+      <c r="BH40" s="3"/>
+      <c r="BI40" s="3"/>
+    </row>
+    <row r="41" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
       <c r="G41" s="6">
-        <f t="shared" si="22"/>
-        <v>4.4776119402984982E-2</v>
+        <f t="shared" si="15"/>
+        <v>7.7419354838709653E-2</v>
       </c>
       <c r="H41" s="6">
-        <f t="shared" si="22"/>
-        <v>1.4925373134328401E-2</v>
+        <f t="shared" si="15"/>
+        <v>2.7027027027026973E-2</v>
       </c>
       <c r="I41" s="6">
-        <f t="shared" ref="I41:J49" si="24">+I12/E12-1</f>
-        <v>1.3698630136986356E-2</v>
+        <f t="shared" si="17"/>
+        <v>1.1834319526627279E-2</v>
       </c>
       <c r="J41" s="6">
-        <f t="shared" si="24"/>
-        <v>4.9382716049382713E-2</v>
-      </c>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="6" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
+        <v>6.0773480662983381E-2</v>
+      </c>
+      <c r="K41" s="6">
+        <f t="shared" si="17"/>
+        <v>-2.39520958083832E-2</v>
+      </c>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="3"/>
+      <c r="Q41" s="6" t="e">
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N41" s="6" t="e">
-        <f t="shared" si="23"/>
+      <c r="R41" s="6" t="e">
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O41" s="6" t="e">
-        <f t="shared" si="23"/>
+      <c r="S41" s="6" t="e">
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P41" s="6">
-        <f t="shared" ref="P41:Q49" si="25">+P12/O12-1</f>
-        <v>0.20502092050209209</v>
-      </c>
-      <c r="Q41" s="6">
-        <f t="shared" si="25"/>
-        <v>3.125E-2</v>
-      </c>
-      <c r="R41" s="3"/>
-      <c r="S41" s="3"/>
-      <c r="T41" s="3"/>
-      <c r="U41" s="3"/>
+      <c r="T41" s="6">
+        <f t="shared" si="18"/>
+        <v>0.19816513761467891</v>
+      </c>
+      <c r="U41" s="6">
+        <f t="shared" si="18"/>
+        <v>4.4410413476263511E-2</v>
+      </c>
       <c r="V41" s="3"/>
       <c r="W41" s="3"/>
       <c r="X41" s="3"/>
@@ -3822,57 +4280,64 @@
       <c r="BC41" s="3"/>
       <c r="BD41" s="3"/>
       <c r="BE41" s="3"/>
-    </row>
-    <row r="42" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="BF41" s="3"/>
+      <c r="BG41" s="3"/>
+      <c r="BH41" s="3"/>
+      <c r="BI41" s="3"/>
+    </row>
+    <row r="42" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
       <c r="G42" s="6">
-        <f t="shared" si="22"/>
-        <v>7.7419354838709653E-2</v>
+        <f t="shared" si="15"/>
+        <v>4.1050903119868698E-2</v>
       </c>
       <c r="H42" s="6">
-        <f t="shared" si="22"/>
-        <v>2.7027027027026973E-2</v>
+        <f t="shared" si="15"/>
+        <v>-2.5806451612903181E-2</v>
       </c>
       <c r="I42" s="6">
-        <f t="shared" si="24"/>
-        <v>1.1834319526627279E-2</v>
+        <f t="shared" si="17"/>
+        <v>1.3782542113323082E-2</v>
       </c>
       <c r="J42" s="6">
-        <f t="shared" si="24"/>
-        <v>6.0773480662983381E-2</v>
-      </c>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-      <c r="M42" s="6" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
+        <v>6.6176470588235281E-2</v>
+      </c>
+      <c r="K42" s="6">
+        <f t="shared" si="17"/>
+        <v>-4.7318611987381409E-3</v>
+      </c>
+      <c r="L42" s="6"/>
+      <c r="M42" s="6"/>
+      <c r="N42" s="6"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="6" t="e">
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N42" s="6" t="e">
-        <f t="shared" si="23"/>
+      <c r="R42" s="6" t="e">
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O42" s="6" t="e">
-        <f t="shared" si="23"/>
+      <c r="S42" s="6" t="e">
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P42" s="6">
-        <f t="shared" si="25"/>
-        <v>0.19816513761467891</v>
-      </c>
-      <c r="Q42" s="6">
-        <f t="shared" si="25"/>
-        <v>4.4410413476263511E-2</v>
-      </c>
-      <c r="R42" s="3"/>
-      <c r="S42" s="3"/>
-      <c r="T42" s="3"/>
-      <c r="U42" s="3"/>
+      <c r="T42" s="6">
+        <f t="shared" si="18"/>
+        <v>0.11246200607902734</v>
+      </c>
+      <c r="U42" s="6">
+        <f t="shared" si="18"/>
+        <v>2.4590163934426146E-2</v>
+      </c>
       <c r="V42" s="3"/>
       <c r="W42" s="3"/>
       <c r="X42" s="3"/>
@@ -3909,57 +4374,64 @@
       <c r="BC42" s="3"/>
       <c r="BD42" s="3"/>
       <c r="BE42" s="3"/>
-    </row>
-    <row r="43" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="BF42" s="3"/>
+      <c r="BG42" s="3"/>
+      <c r="BH42" s="3"/>
+      <c r="BI42" s="3"/>
+    </row>
+    <row r="43" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
       <c r="G43" s="6">
-        <f t="shared" si="22"/>
-        <v>4.1050903119868698E-2</v>
+        <f t="shared" si="15"/>
+        <v>0.11794871794871797</v>
       </c>
       <c r="H43" s="6">
-        <f t="shared" si="22"/>
-        <v>-2.5806451612903181E-2</v>
+        <f t="shared" si="15"/>
+        <v>5.9322033898305149E-2</v>
       </c>
       <c r="I43" s="6">
-        <f t="shared" si="24"/>
-        <v>1.3782542113323082E-2</v>
+        <f t="shared" si="17"/>
+        <v>0</v>
       </c>
       <c r="J43" s="6">
-        <f t="shared" si="24"/>
-        <v>6.6176470588235281E-2</v>
-      </c>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="6" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
+        <v>9.4594594594594517E-2</v>
+      </c>
+      <c r="K43" s="6">
+        <f t="shared" si="17"/>
+        <v>-2.752293577981646E-2</v>
+      </c>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="6"/>
+      <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="6" t="e">
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N43" s="6" t="e">
-        <f t="shared" si="23"/>
+      <c r="R43" s="6" t="e">
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O43" s="6" t="e">
-        <f t="shared" si="23"/>
+      <c r="S43" s="6" t="e">
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P43" s="6">
-        <f t="shared" si="25"/>
-        <v>0.11246200607902734</v>
-      </c>
-      <c r="Q43" s="6">
-        <f t="shared" si="25"/>
-        <v>2.4590163934426146E-2</v>
-      </c>
-      <c r="R43" s="3"/>
-      <c r="S43" s="3"/>
-      <c r="T43" s="3"/>
-      <c r="U43" s="3"/>
+      <c r="T43" s="6">
+        <f t="shared" si="18"/>
+        <v>0.21039290240811148</v>
+      </c>
+      <c r="U43" s="6">
+        <f t="shared" si="18"/>
+        <v>6.8062827225130906E-2</v>
+      </c>
       <c r="V43" s="3"/>
       <c r="W43" s="3"/>
       <c r="X43" s="3"/>
@@ -3996,57 +4468,64 @@
       <c r="BC43" s="3"/>
       <c r="BD43" s="3"/>
       <c r="BE43" s="3"/>
-    </row>
-    <row r="44" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="BF43" s="3"/>
+      <c r="BG43" s="3"/>
+      <c r="BH43" s="3"/>
+      <c r="BI43" s="3"/>
+    </row>
+    <row r="44" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
       <c r="G44" s="6">
-        <f t="shared" si="22"/>
-        <v>0.11794871794871797</v>
+        <f t="shared" si="15"/>
+        <v>-1.4184397163120588E-2</v>
       </c>
       <c r="H44" s="6">
-        <f t="shared" si="22"/>
-        <v>5.9322033898305149E-2</v>
+        <f t="shared" si="15"/>
+        <v>-6.944444444444442E-2</v>
       </c>
       <c r="I44" s="6">
-        <f t="shared" si="24"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>-8.333333333333337E-2</v>
       </c>
       <c r="J44" s="6">
-        <f t="shared" si="24"/>
-        <v>9.4594594594594517E-2</v>
-      </c>
-      <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
-      <c r="M44" s="6" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
+        <v>-5.8479532163743242E-3</v>
+      </c>
+      <c r="K44" s="6">
+        <f t="shared" si="17"/>
+        <v>-6.4748201438848962E-2</v>
+      </c>
+      <c r="L44" s="6"/>
+      <c r="M44" s="6"/>
+      <c r="N44" s="6"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="6" t="e">
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N44" s="6" t="e">
-        <f t="shared" si="23"/>
+      <c r="R44" s="6" t="e">
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O44" s="6" t="e">
-        <f t="shared" si="23"/>
+      <c r="S44" s="6" t="e">
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P44" s="6">
-        <f t="shared" si="25"/>
-        <v>0.21039290240811148</v>
-      </c>
-      <c r="Q44" s="6">
-        <f t="shared" si="25"/>
-        <v>6.8062827225130906E-2</v>
-      </c>
-      <c r="R44" s="3"/>
-      <c r="S44" s="3"/>
-      <c r="T44" s="3"/>
-      <c r="U44" s="3"/>
+      <c r="T44" s="6">
+        <f t="shared" si="18"/>
+        <v>0.23340471092077086</v>
+      </c>
+      <c r="U44" s="6">
+        <f t="shared" si="18"/>
+        <v>-3.993055555555558E-2</v>
+      </c>
       <c r="V44" s="3"/>
       <c r="W44" s="3"/>
       <c r="X44" s="3"/>
@@ -4083,57 +4562,64 @@
       <c r="BC44" s="3"/>
       <c r="BD44" s="3"/>
       <c r="BE44" s="3"/>
-    </row>
-    <row r="45" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="BF44" s="3"/>
+      <c r="BG44" s="3"/>
+      <c r="BH44" s="3"/>
+      <c r="BI44" s="3"/>
+    </row>
+    <row r="45" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
       <c r="G45" s="6">
-        <f t="shared" si="22"/>
-        <v>-1.4184397163120588E-2</v>
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
       <c r="H45" s="6">
-        <f t="shared" si="22"/>
-        <v>-6.944444444444442E-2</v>
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
       <c r="I45" s="6">
-        <f t="shared" si="24"/>
-        <v>-8.333333333333337E-2</v>
+        <f t="shared" si="17"/>
+        <v>0.11538461538461542</v>
       </c>
       <c r="J45" s="6">
-        <f t="shared" si="24"/>
-        <v>-5.8479532163743242E-3</v>
-      </c>
-      <c r="K45" s="3"/>
-      <c r="L45" s="3"/>
-      <c r="M45" s="6" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
+        <v>6.8965517241379226E-2</v>
+      </c>
+      <c r="K45" s="6">
+        <f t="shared" si="17"/>
+        <v>0.13043478260869557</v>
+      </c>
+      <c r="L45" s="6"/>
+      <c r="M45" s="6"/>
+      <c r="N45" s="6"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="3"/>
+      <c r="Q45" s="6" t="e">
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N45" s="6" t="e">
-        <f t="shared" si="23"/>
+      <c r="R45" s="6" t="e">
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O45" s="6" t="e">
-        <f t="shared" si="23"/>
+      <c r="S45" s="6" t="e">
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P45" s="6">
-        <f t="shared" si="25"/>
-        <v>0.23340471092077086</v>
-      </c>
-      <c r="Q45" s="6">
-        <f t="shared" si="25"/>
-        <v>-3.993055555555558E-2</v>
-      </c>
-      <c r="R45" s="3"/>
-      <c r="S45" s="3"/>
-      <c r="T45" s="3"/>
-      <c r="U45" s="3"/>
+      <c r="T45" s="6">
+        <f t="shared" si="18"/>
+        <v>0.13043478260869557</v>
+      </c>
+      <c r="U45" s="6">
+        <f t="shared" si="18"/>
+        <v>4.8076923076923128E-2</v>
+      </c>
       <c r="V45" s="3"/>
       <c r="W45" s="3"/>
       <c r="X45" s="3"/>
@@ -4170,57 +4656,64 @@
       <c r="BC45" s="3"/>
       <c r="BD45" s="3"/>
       <c r="BE45" s="3"/>
-    </row>
-    <row r="46" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="BF45" s="3"/>
+      <c r="BG45" s="3"/>
+      <c r="BH45" s="3"/>
+      <c r="BI45" s="3"/>
+    </row>
+    <row r="46" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
       <c r="G46" s="6">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>1.4432989690721598E-2</v>
       </c>
       <c r="H46" s="6">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>-2.931034482758621E-2</v>
       </c>
       <c r="I46" s="6">
-        <f t="shared" si="24"/>
-        <v>0.11538461538461542</v>
+        <f t="shared" si="17"/>
+        <v>-4.2226487523992273E-2</v>
       </c>
       <c r="J46" s="6">
-        <f t="shared" si="24"/>
-        <v>6.8965517241379226E-2</v>
-      </c>
-      <c r="K46" s="3"/>
-      <c r="L46" s="3"/>
-      <c r="M46" s="6" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
+        <v>1.4792899408284654E-3</v>
+      </c>
+      <c r="K46" s="6">
+        <f t="shared" si="17"/>
+        <v>-3.8617886178861749E-2</v>
+      </c>
+      <c r="L46" s="6"/>
+      <c r="M46" s="6"/>
+      <c r="N46" s="6"/>
+      <c r="O46" s="3"/>
+      <c r="P46" s="3"/>
+      <c r="Q46" s="6" t="e">
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N46" s="6" t="e">
-        <f t="shared" si="23"/>
+      <c r="R46" s="6" t="e">
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O46" s="6" t="e">
-        <f t="shared" si="23"/>
+      <c r="S46" s="6" t="e">
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P46" s="6">
-        <f t="shared" si="25"/>
-        <v>0.13043478260869557</v>
-      </c>
-      <c r="Q46" s="6">
-        <f t="shared" si="25"/>
-        <v>4.8076923076923128E-2</v>
-      </c>
-      <c r="R46" s="3"/>
-      <c r="S46" s="3"/>
-      <c r="T46" s="3"/>
-      <c r="U46" s="3"/>
+      <c r="T46" s="6">
+        <f t="shared" si="18"/>
+        <v>0.12202380952380953</v>
+      </c>
+      <c r="U46" s="6">
+        <f t="shared" si="18"/>
+        <v>-1.3704686118479192E-2</v>
+      </c>
       <c r="V46" s="3"/>
       <c r="W46" s="3"/>
       <c r="X46" s="3"/>
@@ -4257,57 +4750,64 @@
       <c r="BC46" s="3"/>
       <c r="BD46" s="3"/>
       <c r="BE46" s="3"/>
-    </row>
-    <row r="47" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="BF46" s="3"/>
+      <c r="BG46" s="3"/>
+      <c r="BH46" s="3"/>
+      <c r="BI46" s="3"/>
+    </row>
+    <row r="47" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
       <c r="G47" s="6">
-        <f t="shared" si="22"/>
-        <v>1.4432989690721598E-2</v>
+        <f t="shared" si="15"/>
+        <v>7.4468085106383031E-2</v>
       </c>
       <c r="H47" s="6">
-        <f t="shared" si="22"/>
-        <v>-2.931034482758621E-2</v>
+        <f t="shared" si="15"/>
+        <v>5.3571428571428603E-2</v>
       </c>
       <c r="I47" s="6">
-        <f t="shared" si="24"/>
-        <v>-4.2226487523992273E-2</v>
+        <f t="shared" si="17"/>
+        <v>3.0716723549488067E-2</v>
       </c>
       <c r="J47" s="6">
-        <f t="shared" si="24"/>
-        <v>1.4792899408284654E-3</v>
-      </c>
-      <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
-      <c r="M47" s="6" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
+        <v>0.15384615384615374</v>
+      </c>
+      <c r="K47" s="6">
+        <f t="shared" si="17"/>
+        <v>-2.3102310231023049E-2</v>
+      </c>
+      <c r="L47" s="6"/>
+      <c r="M47" s="6"/>
+      <c r="N47" s="6"/>
+      <c r="O47" s="3"/>
+      <c r="P47" s="3"/>
+      <c r="Q47" s="6" t="e">
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N47" s="6" t="e">
-        <f t="shared" si="23"/>
+      <c r="R47" s="6" t="e">
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O47" s="6" t="e">
-        <f t="shared" si="23"/>
+      <c r="S47" s="6" t="e">
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P47" s="6">
-        <f t="shared" si="25"/>
-        <v>0.12202380952380953</v>
-      </c>
-      <c r="Q47" s="6">
-        <f t="shared" si="25"/>
-        <v>-1.3704686118479192E-2</v>
-      </c>
-      <c r="R47" s="3"/>
-      <c r="S47" s="3"/>
-      <c r="T47" s="3"/>
-      <c r="U47" s="3"/>
+      <c r="T47" s="6">
+        <f t="shared" si="18"/>
+        <v>0.15418994413407816</v>
+      </c>
+      <c r="U47" s="6">
+        <f t="shared" si="18"/>
+        <v>7.5508228460793747E-2</v>
+      </c>
       <c r="V47" s="3"/>
       <c r="W47" s="3"/>
       <c r="X47" s="3"/>
@@ -4344,57 +4844,64 @@
       <c r="BC47" s="3"/>
       <c r="BD47" s="3"/>
       <c r="BE47" s="3"/>
-    </row>
-    <row r="48" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="BF47" s="3"/>
+      <c r="BG47" s="3"/>
+      <c r="BH47" s="3"/>
+      <c r="BI47" s="3"/>
+    </row>
+    <row r="48" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
       <c r="G48" s="6">
-        <f t="shared" si="22"/>
-        <v>7.4468085106383031E-2</v>
+        <f t="shared" si="15"/>
+        <v>9.550561797752799E-2</v>
       </c>
       <c r="H48" s="6">
-        <f t="shared" si="22"/>
-        <v>5.3571428571428603E-2</v>
+        <f t="shared" si="15"/>
+        <v>-3.5714285714285698E-2</v>
       </c>
       <c r="I48" s="6">
-        <f t="shared" si="24"/>
-        <v>3.0716723549488067E-2</v>
+        <f t="shared" si="17"/>
+        <v>6.4171122994652441E-2</v>
       </c>
       <c r="J48" s="6">
-        <f t="shared" si="24"/>
-        <v>0.15384615384615374</v>
-      </c>
-      <c r="K48" s="3"/>
-      <c r="L48" s="3"/>
-      <c r="M48" s="6" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
+        <v>0.10970464135021096</v>
+      </c>
+      <c r="K48" s="6">
+        <f t="shared" si="17"/>
+        <v>4.6153846153846212E-2</v>
+      </c>
+      <c r="L48" s="6"/>
+      <c r="M48" s="6"/>
+      <c r="N48" s="6"/>
+      <c r="O48" s="3"/>
+      <c r="P48" s="3"/>
+      <c r="Q48" s="6" t="e">
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N48" s="6" t="e">
-        <f t="shared" si="23"/>
+      <c r="R48" s="6" t="e">
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O48" s="6" t="e">
-        <f t="shared" si="23"/>
+      <c r="S48" s="6" t="e">
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P48" s="6">
-        <f t="shared" si="25"/>
-        <v>0.15418994413407816</v>
-      </c>
-      <c r="Q48" s="6">
-        <f t="shared" si="25"/>
-        <v>7.5508228460793747E-2</v>
-      </c>
-      <c r="R48" s="3"/>
-      <c r="S48" s="3"/>
-      <c r="T48" s="3"/>
-      <c r="U48" s="3"/>
+      <c r="T48" s="6">
+        <f t="shared" si="18"/>
+        <v>0.2314814814814814</v>
+      </c>
+      <c r="U48" s="6">
+        <f t="shared" si="18"/>
+        <v>6.0150375939849621E-2</v>
+      </c>
       <c r="V48" s="3"/>
       <c r="W48" s="3"/>
       <c r="X48" s="3"/>
@@ -4431,59 +4938,66 @@
       <c r="BC48" s="3"/>
       <c r="BD48" s="3"/>
       <c r="BE48" s="3"/>
-    </row>
-    <row r="49" spans="2:57" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
-        <v>57</v>
-      </c>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="6">
-        <f t="shared" si="22"/>
-        <v>9.550561797752799E-2</v>
-      </c>
-      <c r="H49" s="6">
-        <f t="shared" si="22"/>
-        <v>-3.5714285714285698E-2</v>
-      </c>
-      <c r="I49" s="6">
-        <f t="shared" si="24"/>
-        <v>6.4171122994652441E-2</v>
-      </c>
-      <c r="J49" s="6">
-        <f t="shared" si="24"/>
-        <v>0.10970464135021096</v>
-      </c>
-      <c r="K49" s="3"/>
-      <c r="L49" s="3"/>
-      <c r="M49" s="6" t="e">
-        <f t="shared" si="23"/>
+      <c r="BF48" s="3"/>
+      <c r="BG48" s="3"/>
+      <c r="BH48" s="3"/>
+      <c r="BI48" s="3"/>
+    </row>
+    <row r="49" spans="2:61" x14ac:dyDescent="0.25">
+      <c r="B49" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="12">
+        <f t="shared" ref="G49:H49" si="19">+G21/C21-1</f>
+        <v>4.7520661157024691E-2</v>
+      </c>
+      <c r="H49" s="12">
+        <f t="shared" si="19"/>
+        <v>-1.0721247563352798E-2</v>
+      </c>
+      <c r="I49" s="12">
+        <f>+I21/E21-1</f>
+        <v>1.9474196689386325E-3</v>
+      </c>
+      <c r="J49" s="12">
+        <f t="shared" ref="J49:K49" si="20">+J21/F21-1</f>
+        <v>6.2074829931972886E-2</v>
+      </c>
+      <c r="K49" s="12">
+        <f t="shared" si="20"/>
+        <v>-1.4792899408283988E-2</v>
+      </c>
+      <c r="L49" s="6"/>
+      <c r="M49" s="12"/>
+      <c r="N49" s="12"/>
+      <c r="O49" s="11"/>
+      <c r="P49" s="11"/>
+      <c r="Q49" s="12" t="e">
+        <f t="shared" ref="Q49:S49" si="21">+Q21/P21-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N49" s="6" t="e">
-        <f t="shared" si="23"/>
+      <c r="R49" s="12" t="e">
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O49" s="6" t="e">
-        <f t="shared" si="23"/>
+      <c r="S49" s="12" t="e">
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P49" s="6">
-        <f t="shared" si="25"/>
-        <v>0.2314814814814814</v>
-      </c>
-      <c r="Q49" s="6">
-        <f t="shared" si="25"/>
-        <v>6.0150375939849621E-2</v>
-      </c>
-      <c r="R49" s="3"/>
-      <c r="S49" s="3"/>
-      <c r="T49" s="3"/>
-      <c r="U49" s="3"/>
-      <c r="V49" s="3"/>
-      <c r="W49" s="3"/>
+      <c r="T49" s="12">
+        <f>+T21/S21-1</f>
+        <v>0.14954806902218576</v>
+      </c>
+      <c r="U49" s="12">
+        <f>+U21/T21-1</f>
+        <v>2.6209197045508725E-2</v>
+      </c>
+      <c r="V49" s="11"/>
+      <c r="W49" s="11"/>
       <c r="X49" s="3"/>
       <c r="Y49" s="3"/>
       <c r="Z49" s="3"/>
@@ -4518,57 +5032,79 @@
       <c r="BC49" s="3"/>
       <c r="BD49" s="3"/>
       <c r="BE49" s="3"/>
-    </row>
-    <row r="50" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="BF49" s="3"/>
+      <c r="BG49" s="3"/>
+      <c r="BH49" s="3"/>
+      <c r="BI49" s="3"/>
+    </row>
+    <row r="50" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>58</v>
-      </c>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
+        <v>57</v>
+      </c>
+      <c r="C50" s="6">
+        <f t="shared" ref="C50:H50" si="22">+C23/C21</f>
+        <v>0.61363636363636365</v>
+      </c>
+      <c r="D50" s="6">
+        <f t="shared" si="22"/>
+        <v>0.62378167641325533</v>
+      </c>
+      <c r="E50" s="6">
+        <f t="shared" si="22"/>
+        <v>0.60662122687439146</v>
+      </c>
+      <c r="F50" s="6">
+        <f t="shared" si="22"/>
+        <v>0.61479591836734693</v>
+      </c>
       <c r="G50" s="6">
-        <f t="shared" ref="G50:H50" si="26">+G22/C22-1</f>
-        <v>4.7520661157024691E-2</v>
+        <f t="shared" si="22"/>
+        <v>0.61439842209072981</v>
       </c>
       <c r="H50" s="6">
-        <f t="shared" si="26"/>
-        <v>-1.0721247563352798E-2</v>
+        <f t="shared" si="22"/>
+        <v>0.62857142857142856</v>
       </c>
       <c r="I50" s="6">
-        <f>+I22/E22-1</f>
-        <v>1.9474196689386325E-3</v>
+        <f>+I23/I21</f>
+        <v>0.60155490767735664</v>
       </c>
       <c r="J50" s="6">
-        <f t="shared" ref="J50" si="27">+J22/F22-1</f>
-        <v>6.2074829931972886E-2</v>
-      </c>
-      <c r="K50" s="3"/>
-      <c r="L50" s="3"/>
-      <c r="M50" s="6" t="e">
-        <f t="shared" ref="M50:O50" si="28">+M22/L22-1</f>
+        <f>+J23/J21</f>
+        <v>0.62369895916733387</v>
+      </c>
+      <c r="K50" s="6">
+        <f>+K23/K21</f>
+        <v>0.61361361361361366</v>
+      </c>
+      <c r="L50" s="6"/>
+      <c r="M50" s="6"/>
+      <c r="N50" s="6"/>
+      <c r="O50" s="3"/>
+      <c r="P50" s="6" t="e">
+        <f t="shared" ref="P50:S50" si="23">+P23/P21</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N50" s="6" t="e">
-        <f t="shared" si="28"/>
+      <c r="Q50" s="6" t="e">
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O50" s="6" t="e">
-        <f t="shared" si="28"/>
+      <c r="R50" s="6" t="e">
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P50" s="6">
-        <f>+P22/O22-1</f>
-        <v>0.14954806902218576</v>
-      </c>
-      <c r="Q50" s="6">
-        <f>+Q22/P22-1</f>
-        <v>2.6209197045508725E-2</v>
-      </c>
-      <c r="R50" s="3"/>
-      <c r="S50" s="3"/>
-      <c r="T50" s="3"/>
-      <c r="U50" s="3"/>
+      <c r="S50" s="6">
+        <f t="shared" si="23"/>
+        <v>0.61791290057518489</v>
+      </c>
+      <c r="T50" s="6">
+        <f>+T23/T21</f>
+        <v>0.6147248034310222</v>
+      </c>
+      <c r="U50" s="6">
+        <f>+U23/U21</f>
+        <v>0.61736707685163683</v>
+      </c>
       <c r="V50" s="3"/>
       <c r="W50" s="3"/>
       <c r="X50" s="3"/>
@@ -4605,72 +5141,79 @@
       <c r="BC50" s="3"/>
       <c r="BD50" s="3"/>
       <c r="BE50" s="3"/>
-    </row>
-    <row r="51" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="BF50" s="3"/>
+      <c r="BG50" s="3"/>
+      <c r="BH50" s="3"/>
+      <c r="BI50" s="3"/>
+    </row>
+    <row r="51" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C51" s="6">
-        <f t="shared" ref="C51:H51" si="29">+C24/C22</f>
-        <v>0.61363636363636365</v>
+        <f t="shared" ref="C51:H51" si="24">+C26/C21</f>
+        <v>6.8181818181818177E-2</v>
       </c>
       <c r="D51" s="6">
-        <f t="shared" si="29"/>
-        <v>0.62378167641325533</v>
+        <f t="shared" si="24"/>
+        <v>0.1189083820662768</v>
       </c>
       <c r="E51" s="6">
-        <f t="shared" si="29"/>
-        <v>0.60662122687439146</v>
+        <f t="shared" si="24"/>
+        <v>0.10029211295034079</v>
       </c>
       <c r="F51" s="6">
-        <f t="shared" si="29"/>
-        <v>0.61479591836734693</v>
+        <f t="shared" si="24"/>
+        <v>0.10034013605442177</v>
       </c>
       <c r="G51" s="6">
-        <f t="shared" si="29"/>
-        <v>0.61439842209072981</v>
+        <f t="shared" si="24"/>
+        <v>6.8047337278106509E-2</v>
       </c>
       <c r="H51" s="6">
-        <f t="shared" si="29"/>
-        <v>0.62857142857142856</v>
+        <f t="shared" si="24"/>
+        <v>6.9950738916256153E-2</v>
       </c>
       <c r="I51" s="6">
-        <f>+I24/I22</f>
-        <v>0.60155490767735664</v>
+        <f>+I26/I21</f>
+        <v>9.23226433430515E-2</v>
       </c>
       <c r="J51" s="6">
-        <f>+J24/J22</f>
-        <v>0.62369895916733387</v>
-      </c>
-      <c r="K51" s="3"/>
-      <c r="L51" s="6" t="e">
-        <f t="shared" ref="L51:O51" si="30">+L24/L22</f>
+        <f>+J26/J21</f>
+        <v>0.10008006405124099</v>
+      </c>
+      <c r="K51" s="6">
+        <f>+K26/K21</f>
+        <v>6.2062062062062065E-2</v>
+      </c>
+      <c r="L51" s="6"/>
+      <c r="M51" s="6"/>
+      <c r="N51" s="6"/>
+      <c r="O51" s="3"/>
+      <c r="P51" s="6" t="e">
+        <f t="shared" ref="P51:S51" si="25">+P26/P21</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M51" s="6" t="e">
-        <f t="shared" si="30"/>
+      <c r="Q51" s="6" t="e">
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N51" s="6" t="e">
-        <f t="shared" si="30"/>
+      <c r="R51" s="6" t="e">
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O51" s="6">
-        <f t="shared" si="30"/>
-        <v>0.61791290057518489</v>
-      </c>
-      <c r="P51" s="6">
-        <f>+P24/P22</f>
-        <v>0.6147248034310222</v>
-      </c>
-      <c r="Q51" s="6">
-        <f>+Q24/Q22</f>
-        <v>0.61736707685163683</v>
-      </c>
-      <c r="R51" s="3"/>
-      <c r="S51" s="3"/>
-      <c r="T51" s="3"/>
-      <c r="U51" s="3"/>
+      <c r="S51" s="6">
+        <f t="shared" si="25"/>
+        <v>9.1755683374417973E-2</v>
+      </c>
+      <c r="T51" s="6">
+        <f>+T26/T21</f>
+        <v>9.7450559923755065E-2</v>
+      </c>
+      <c r="U51" s="6">
+        <f>+U26/U21</f>
+        <v>8.3584861852797773E-2</v>
+      </c>
       <c r="V51" s="3"/>
       <c r="W51" s="3"/>
       <c r="X51" s="3"/>
@@ -4707,72 +5250,79 @@
       <c r="BC51" s="3"/>
       <c r="BD51" s="3"/>
       <c r="BE51" s="3"/>
-    </row>
-    <row r="52" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="BF51" s="3"/>
+      <c r="BG51" s="3"/>
+      <c r="BH51" s="3"/>
+      <c r="BI51" s="3"/>
+    </row>
+    <row r="52" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C52" s="6">
-        <f t="shared" ref="C52:H52" si="31">+C27/C22</f>
-        <v>6.8181818181818177E-2</v>
+        <f t="shared" ref="C52:H52" si="26">+C29/C28</f>
+        <v>0.27777777777777779</v>
       </c>
       <c r="D52" s="6">
-        <f t="shared" si="31"/>
-        <v>0.1189083820662768</v>
+        <f t="shared" si="26"/>
+        <v>0.27272727272727271</v>
       </c>
       <c r="E52" s="6">
-        <f t="shared" si="31"/>
-        <v>0.10029211295034079</v>
+        <f t="shared" si="26"/>
+        <v>0.28409090909090912</v>
       </c>
       <c r="F52" s="6">
-        <f t="shared" si="31"/>
-        <v>0.10034013605442177</v>
+        <f t="shared" si="26"/>
+        <v>0.16346153846153846</v>
       </c>
       <c r="G52" s="6">
-        <f t="shared" si="31"/>
-        <v>6.8047337278106509E-2</v>
+        <f t="shared" si="26"/>
+        <v>0.2807017543859649</v>
       </c>
       <c r="H52" s="6">
-        <f t="shared" si="31"/>
-        <v>6.9950738916256153E-2</v>
+        <f t="shared" si="26"/>
+        <v>0.27272727272727271</v>
       </c>
       <c r="I52" s="6">
-        <f>+I27/I22</f>
-        <v>9.23226433430515E-2</v>
+        <f>+I29/I28</f>
+        <v>0.2857142857142857</v>
       </c>
       <c r="J52" s="6">
-        <f>+J27/J22</f>
-        <v>0.10008006405124099</v>
-      </c>
-      <c r="K52" s="3"/>
-      <c r="L52" s="6" t="e">
-        <f t="shared" ref="L52:O52" si="32">+L27/L22</f>
+        <f>+J29/J28</f>
+        <v>0.22321428571428573</v>
+      </c>
+      <c r="K52" s="6">
+        <f>+K29/K28</f>
+        <v>0.28301886792452829</v>
+      </c>
+      <c r="L52" s="6"/>
+      <c r="M52" s="6"/>
+      <c r="N52" s="6"/>
+      <c r="O52" s="3"/>
+      <c r="P52" s="6" t="e">
+        <f t="shared" ref="P52:S52" si="27">+P29/P28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M52" s="6" t="e">
-        <f t="shared" si="32"/>
+      <c r="Q52" s="6" t="e">
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N52" s="6" t="e">
-        <f t="shared" si="32"/>
+      <c r="R52" s="6" t="e">
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O52" s="6">
-        <f t="shared" si="32"/>
-        <v>9.1755683374417973E-2</v>
-      </c>
-      <c r="P52" s="6">
-        <f>+P27/P22</f>
-        <v>9.7450559923755065E-2</v>
-      </c>
-      <c r="Q52" s="6">
-        <f>+Q27/Q22</f>
-        <v>8.3584861852797773E-2</v>
-      </c>
-      <c r="R52" s="3"/>
-      <c r="S52" s="3"/>
-      <c r="T52" s="3"/>
-      <c r="U52" s="3"/>
+      <c r="S52" s="6">
+        <f t="shared" si="27"/>
+        <v>0.22105263157894736</v>
+      </c>
+      <c r="T52" s="6">
+        <f>+T29/T28</f>
+        <v>0.2443820224719101</v>
+      </c>
+      <c r="U52" s="6">
+        <f>+U29/U28</f>
+        <v>0.25913621262458469</v>
+      </c>
       <c r="V52" s="3"/>
       <c r="W52" s="3"/>
       <c r="X52" s="3"/>
@@ -4809,68 +5359,27 @@
       <c r="BC52" s="3"/>
       <c r="BD52" s="3"/>
       <c r="BE52" s="3"/>
-    </row>
-    <row r="53" spans="2:57" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
-        <v>61</v>
-      </c>
-      <c r="C53" s="6">
-        <f t="shared" ref="C53:H53" si="33">+C30/C29</f>
-        <v>0.27777777777777779</v>
-      </c>
-      <c r="D53" s="6">
-        <f t="shared" si="33"/>
-        <v>0.27272727272727271</v>
-      </c>
-      <c r="E53" s="6">
-        <f t="shared" si="33"/>
-        <v>0.28409090909090912</v>
-      </c>
-      <c r="F53" s="6">
-        <f t="shared" si="33"/>
-        <v>0.16346153846153846</v>
-      </c>
-      <c r="G53" s="6">
-        <f t="shared" si="33"/>
-        <v>0.2807017543859649</v>
-      </c>
-      <c r="H53" s="6">
-        <f t="shared" si="33"/>
-        <v>0.27272727272727271</v>
-      </c>
-      <c r="I53" s="6">
-        <f>+I30/I29</f>
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="J53" s="6">
-        <f>+J30/J29</f>
-        <v>0.22321428571428573</v>
-      </c>
+      <c r="BF52" s="3"/>
+      <c r="BG52" s="3"/>
+      <c r="BH52" s="3"/>
+      <c r="BI52" s="3"/>
+    </row>
+    <row r="53" spans="2:61" x14ac:dyDescent="0.25">
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
       <c r="K53" s="3"/>
-      <c r="L53" s="6" t="e">
-        <f t="shared" ref="L53:O53" si="34">+L30/L29</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M53" s="6" t="e">
-        <f t="shared" si="34"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N53" s="6" t="e">
-        <f t="shared" si="34"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O53" s="6">
-        <f t="shared" si="34"/>
-        <v>0.22105263157894736</v>
-      </c>
-      <c r="P53" s="6">
-        <f>+P30/P29</f>
-        <v>0.2443820224719101</v>
-      </c>
-      <c r="Q53" s="6">
-        <f>+Q30/Q29</f>
-        <v>0.25913621262458469</v>
-      </c>
+      <c r="L53" s="3"/>
+      <c r="M53" s="3"/>
+      <c r="N53" s="3"/>
+      <c r="O53" s="3"/>
+      <c r="P53" s="3"/>
+      <c r="Q53" s="3"/>
       <c r="R53" s="3"/>
       <c r="S53" s="3"/>
       <c r="T53" s="3"/>
@@ -4911,8 +5420,12 @@
       <c r="BC53" s="3"/>
       <c r="BD53" s="3"/>
       <c r="BE53" s="3"/>
-    </row>
-    <row r="54" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="BF53" s="3"/>
+      <c r="BG53" s="3"/>
+      <c r="BH53" s="3"/>
+      <c r="BI53" s="3"/>
+    </row>
+    <row r="54" spans="2:61" x14ac:dyDescent="0.25">
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
@@ -4968,8 +5481,12 @@
       <c r="BC54" s="3"/>
       <c r="BD54" s="3"/>
       <c r="BE54" s="3"/>
-    </row>
-    <row r="55" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="BF54" s="3"/>
+      <c r="BG54" s="3"/>
+      <c r="BH54" s="3"/>
+      <c r="BI54" s="3"/>
+    </row>
+    <row r="55" spans="2:61" x14ac:dyDescent="0.25">
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
@@ -5025,8 +5542,12 @@
       <c r="BC55" s="3"/>
       <c r="BD55" s="3"/>
       <c r="BE55" s="3"/>
-    </row>
-    <row r="56" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="BF55" s="3"/>
+      <c r="BG55" s="3"/>
+      <c r="BH55" s="3"/>
+      <c r="BI55" s="3"/>
+    </row>
+    <row r="56" spans="2:61" x14ac:dyDescent="0.25">
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
@@ -5082,8 +5603,12 @@
       <c r="BC56" s="3"/>
       <c r="BD56" s="3"/>
       <c r="BE56" s="3"/>
-    </row>
-    <row r="57" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="BF56" s="3"/>
+      <c r="BG56" s="3"/>
+      <c r="BH56" s="3"/>
+      <c r="BI56" s="3"/>
+    </row>
+    <row r="57" spans="2:61" x14ac:dyDescent="0.25">
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
@@ -5139,8 +5664,12 @@
       <c r="BC57" s="3"/>
       <c r="BD57" s="3"/>
       <c r="BE57" s="3"/>
-    </row>
-    <row r="58" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="BF57" s="3"/>
+      <c r="BG57" s="3"/>
+      <c r="BH57" s="3"/>
+      <c r="BI57" s="3"/>
+    </row>
+    <row r="58" spans="2:61" x14ac:dyDescent="0.25">
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
@@ -5196,8 +5725,12 @@
       <c r="BC58" s="3"/>
       <c r="BD58" s="3"/>
       <c r="BE58" s="3"/>
-    </row>
-    <row r="59" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="BF58" s="3"/>
+      <c r="BG58" s="3"/>
+      <c r="BH58" s="3"/>
+      <c r="BI58" s="3"/>
+    </row>
+    <row r="59" spans="2:61" x14ac:dyDescent="0.25">
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
@@ -5253,8 +5786,12 @@
       <c r="BC59" s="3"/>
       <c r="BD59" s="3"/>
       <c r="BE59" s="3"/>
-    </row>
-    <row r="60" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="BF59" s="3"/>
+      <c r="BG59" s="3"/>
+      <c r="BH59" s="3"/>
+      <c r="BI59" s="3"/>
+    </row>
+    <row r="60" spans="2:61" x14ac:dyDescent="0.25">
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
@@ -5310,8 +5847,12 @@
       <c r="BC60" s="3"/>
       <c r="BD60" s="3"/>
       <c r="BE60" s="3"/>
-    </row>
-    <row r="61" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="BF60" s="3"/>
+      <c r="BG60" s="3"/>
+      <c r="BH60" s="3"/>
+      <c r="BI60" s="3"/>
+    </row>
+    <row r="61" spans="2:61" x14ac:dyDescent="0.25">
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
@@ -5367,8 +5908,12 @@
       <c r="BC61" s="3"/>
       <c r="BD61" s="3"/>
       <c r="BE61" s="3"/>
-    </row>
-    <row r="62" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="BF61" s="3"/>
+      <c r="BG61" s="3"/>
+      <c r="BH61" s="3"/>
+      <c r="BI61" s="3"/>
+    </row>
+    <row r="62" spans="2:61" x14ac:dyDescent="0.25">
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
@@ -5424,8 +5969,12 @@
       <c r="BC62" s="3"/>
       <c r="BD62" s="3"/>
       <c r="BE62" s="3"/>
-    </row>
-    <row r="63" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="BF62" s="3"/>
+      <c r="BG62" s="3"/>
+      <c r="BH62" s="3"/>
+      <c r="BI62" s="3"/>
+    </row>
+    <row r="63" spans="2:61" x14ac:dyDescent="0.25">
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
@@ -5481,8 +6030,12 @@
       <c r="BC63" s="3"/>
       <c r="BD63" s="3"/>
       <c r="BE63" s="3"/>
-    </row>
-    <row r="64" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="BF63" s="3"/>
+      <c r="BG63" s="3"/>
+      <c r="BH63" s="3"/>
+      <c r="BI63" s="3"/>
+    </row>
+    <row r="64" spans="2:61" x14ac:dyDescent="0.25">
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
@@ -5538,8 +6091,12 @@
       <c r="BC64" s="3"/>
       <c r="BD64" s="3"/>
       <c r="BE64" s="3"/>
-    </row>
-    <row r="65" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF64" s="3"/>
+      <c r="BG64" s="3"/>
+      <c r="BH64" s="3"/>
+      <c r="BI64" s="3"/>
+    </row>
+    <row r="65" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
@@ -5595,8 +6152,12 @@
       <c r="BC65" s="3"/>
       <c r="BD65" s="3"/>
       <c r="BE65" s="3"/>
-    </row>
-    <row r="66" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF65" s="3"/>
+      <c r="BG65" s="3"/>
+      <c r="BH65" s="3"/>
+      <c r="BI65" s="3"/>
+    </row>
+    <row r="66" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
@@ -5652,8 +6213,12 @@
       <c r="BC66" s="3"/>
       <c r="BD66" s="3"/>
       <c r="BE66" s="3"/>
-    </row>
-    <row r="67" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF66" s="3"/>
+      <c r="BG66" s="3"/>
+      <c r="BH66" s="3"/>
+      <c r="BI66" s="3"/>
+    </row>
+    <row r="67" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
@@ -5709,8 +6274,12 @@
       <c r="BC67" s="3"/>
       <c r="BD67" s="3"/>
       <c r="BE67" s="3"/>
-    </row>
-    <row r="68" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF67" s="3"/>
+      <c r="BG67" s="3"/>
+      <c r="BH67" s="3"/>
+      <c r="BI67" s="3"/>
+    </row>
+    <row r="68" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
@@ -5766,8 +6335,12 @@
       <c r="BC68" s="3"/>
       <c r="BD68" s="3"/>
       <c r="BE68" s="3"/>
-    </row>
-    <row r="69" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF68" s="3"/>
+      <c r="BG68" s="3"/>
+      <c r="BH68" s="3"/>
+      <c r="BI68" s="3"/>
+    </row>
+    <row r="69" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
@@ -5823,8 +6396,12 @@
       <c r="BC69" s="3"/>
       <c r="BD69" s="3"/>
       <c r="BE69" s="3"/>
-    </row>
-    <row r="70" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF69" s="3"/>
+      <c r="BG69" s="3"/>
+      <c r="BH69" s="3"/>
+      <c r="BI69" s="3"/>
+    </row>
+    <row r="70" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
@@ -5880,8 +6457,12 @@
       <c r="BC70" s="3"/>
       <c r="BD70" s="3"/>
       <c r="BE70" s="3"/>
-    </row>
-    <row r="71" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF70" s="3"/>
+      <c r="BG70" s="3"/>
+      <c r="BH70" s="3"/>
+      <c r="BI70" s="3"/>
+    </row>
+    <row r="71" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
@@ -5937,8 +6518,12 @@
       <c r="BC71" s="3"/>
       <c r="BD71" s="3"/>
       <c r="BE71" s="3"/>
-    </row>
-    <row r="72" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF71" s="3"/>
+      <c r="BG71" s="3"/>
+      <c r="BH71" s="3"/>
+      <c r="BI71" s="3"/>
+    </row>
+    <row r="72" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
@@ -5994,8 +6579,12 @@
       <c r="BC72" s="3"/>
       <c r="BD72" s="3"/>
       <c r="BE72" s="3"/>
-    </row>
-    <row r="73" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF72" s="3"/>
+      <c r="BG72" s="3"/>
+      <c r="BH72" s="3"/>
+      <c r="BI72" s="3"/>
+    </row>
+    <row r="73" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
@@ -6051,8 +6640,12 @@
       <c r="BC73" s="3"/>
       <c r="BD73" s="3"/>
       <c r="BE73" s="3"/>
-    </row>
-    <row r="74" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF73" s="3"/>
+      <c r="BG73" s="3"/>
+      <c r="BH73" s="3"/>
+      <c r="BI73" s="3"/>
+    </row>
+    <row r="74" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
@@ -6108,8 +6701,12 @@
       <c r="BC74" s="3"/>
       <c r="BD74" s="3"/>
       <c r="BE74" s="3"/>
-    </row>
-    <row r="75" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF74" s="3"/>
+      <c r="BG74" s="3"/>
+      <c r="BH74" s="3"/>
+      <c r="BI74" s="3"/>
+    </row>
+    <row r="75" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
@@ -6165,8 +6762,12 @@
       <c r="BC75" s="3"/>
       <c r="BD75" s="3"/>
       <c r="BE75" s="3"/>
-    </row>
-    <row r="76" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF75" s="3"/>
+      <c r="BG75" s="3"/>
+      <c r="BH75" s="3"/>
+      <c r="BI75" s="3"/>
+    </row>
+    <row r="76" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
@@ -6222,8 +6823,12 @@
       <c r="BC76" s="3"/>
       <c r="BD76" s="3"/>
       <c r="BE76" s="3"/>
-    </row>
-    <row r="77" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF76" s="3"/>
+      <c r="BG76" s="3"/>
+      <c r="BH76" s="3"/>
+      <c r="BI76" s="3"/>
+    </row>
+    <row r="77" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
@@ -6279,8 +6884,12 @@
       <c r="BC77" s="3"/>
       <c r="BD77" s="3"/>
       <c r="BE77" s="3"/>
-    </row>
-    <row r="78" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF77" s="3"/>
+      <c r="BG77" s="3"/>
+      <c r="BH77" s="3"/>
+      <c r="BI77" s="3"/>
+    </row>
+    <row r="78" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
@@ -6336,8 +6945,12 @@
       <c r="BC78" s="3"/>
       <c r="BD78" s="3"/>
       <c r="BE78" s="3"/>
-    </row>
-    <row r="79" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF78" s="3"/>
+      <c r="BG78" s="3"/>
+      <c r="BH78" s="3"/>
+      <c r="BI78" s="3"/>
+    </row>
+    <row r="79" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
@@ -6393,8 +7006,12 @@
       <c r="BC79" s="3"/>
       <c r="BD79" s="3"/>
       <c r="BE79" s="3"/>
-    </row>
-    <row r="80" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF79" s="3"/>
+      <c r="BG79" s="3"/>
+      <c r="BH79" s="3"/>
+      <c r="BI79" s="3"/>
+    </row>
+    <row r="80" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
@@ -6450,8 +7067,12 @@
       <c r="BC80" s="3"/>
       <c r="BD80" s="3"/>
       <c r="BE80" s="3"/>
-    </row>
-    <row r="81" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF80" s="3"/>
+      <c r="BG80" s="3"/>
+      <c r="BH80" s="3"/>
+      <c r="BI80" s="3"/>
+    </row>
+    <row r="81" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
@@ -6507,8 +7128,12 @@
       <c r="BC81" s="3"/>
       <c r="BD81" s="3"/>
       <c r="BE81" s="3"/>
-    </row>
-    <row r="82" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF81" s="3"/>
+      <c r="BG81" s="3"/>
+      <c r="BH81" s="3"/>
+      <c r="BI81" s="3"/>
+    </row>
+    <row r="82" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
@@ -6564,8 +7189,12 @@
       <c r="BC82" s="3"/>
       <c r="BD82" s="3"/>
       <c r="BE82" s="3"/>
-    </row>
-    <row r="83" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF82" s="3"/>
+      <c r="BG82" s="3"/>
+      <c r="BH82" s="3"/>
+      <c r="BI82" s="3"/>
+    </row>
+    <row r="83" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
@@ -6621,8 +7250,12 @@
       <c r="BC83" s="3"/>
       <c r="BD83" s="3"/>
       <c r="BE83" s="3"/>
-    </row>
-    <row r="84" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF83" s="3"/>
+      <c r="BG83" s="3"/>
+      <c r="BH83" s="3"/>
+      <c r="BI83" s="3"/>
+    </row>
+    <row r="84" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
@@ -6678,8 +7311,12 @@
       <c r="BC84" s="3"/>
       <c r="BD84" s="3"/>
       <c r="BE84" s="3"/>
-    </row>
-    <row r="85" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF84" s="3"/>
+      <c r="BG84" s="3"/>
+      <c r="BH84" s="3"/>
+      <c r="BI84" s="3"/>
+    </row>
+    <row r="85" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
@@ -6735,8 +7372,12 @@
       <c r="BC85" s="3"/>
       <c r="BD85" s="3"/>
       <c r="BE85" s="3"/>
-    </row>
-    <row r="86" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF85" s="3"/>
+      <c r="BG85" s="3"/>
+      <c r="BH85" s="3"/>
+      <c r="BI85" s="3"/>
+    </row>
+    <row r="86" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
@@ -6792,8 +7433,12 @@
       <c r="BC86" s="3"/>
       <c r="BD86" s="3"/>
       <c r="BE86" s="3"/>
-    </row>
-    <row r="87" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF86" s="3"/>
+      <c r="BG86" s="3"/>
+      <c r="BH86" s="3"/>
+      <c r="BI86" s="3"/>
+    </row>
+    <row r="87" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
@@ -6849,8 +7494,12 @@
       <c r="BC87" s="3"/>
       <c r="BD87" s="3"/>
       <c r="BE87" s="3"/>
-    </row>
-    <row r="88" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF87" s="3"/>
+      <c r="BG87" s="3"/>
+      <c r="BH87" s="3"/>
+      <c r="BI87" s="3"/>
+    </row>
+    <row r="88" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
@@ -6906,8 +7555,12 @@
       <c r="BC88" s="3"/>
       <c r="BD88" s="3"/>
       <c r="BE88" s="3"/>
-    </row>
-    <row r="89" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF88" s="3"/>
+      <c r="BG88" s="3"/>
+      <c r="BH88" s="3"/>
+      <c r="BI88" s="3"/>
+    </row>
+    <row r="89" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
@@ -6963,8 +7616,12 @@
       <c r="BC89" s="3"/>
       <c r="BD89" s="3"/>
       <c r="BE89" s="3"/>
-    </row>
-    <row r="90" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF89" s="3"/>
+      <c r="BG89" s="3"/>
+      <c r="BH89" s="3"/>
+      <c r="BI89" s="3"/>
+    </row>
+    <row r="90" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
@@ -7020,8 +7677,12 @@
       <c r="BC90" s="3"/>
       <c r="BD90" s="3"/>
       <c r="BE90" s="3"/>
-    </row>
-    <row r="91" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF90" s="3"/>
+      <c r="BG90" s="3"/>
+      <c r="BH90" s="3"/>
+      <c r="BI90" s="3"/>
+    </row>
+    <row r="91" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
@@ -7077,8 +7738,12 @@
       <c r="BC91" s="3"/>
       <c r="BD91" s="3"/>
       <c r="BE91" s="3"/>
-    </row>
-    <row r="92" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF91" s="3"/>
+      <c r="BG91" s="3"/>
+      <c r="BH91" s="3"/>
+      <c r="BI91" s="3"/>
+    </row>
+    <row r="92" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
@@ -7134,8 +7799,12 @@
       <c r="BC92" s="3"/>
       <c r="BD92" s="3"/>
       <c r="BE92" s="3"/>
-    </row>
-    <row r="93" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF92" s="3"/>
+      <c r="BG92" s="3"/>
+      <c r="BH92" s="3"/>
+      <c r="BI92" s="3"/>
+    </row>
+    <row r="93" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
@@ -7191,8 +7860,12 @@
       <c r="BC93" s="3"/>
       <c r="BD93" s="3"/>
       <c r="BE93" s="3"/>
-    </row>
-    <row r="94" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF93" s="3"/>
+      <c r="BG93" s="3"/>
+      <c r="BH93" s="3"/>
+      <c r="BI93" s="3"/>
+    </row>
+    <row r="94" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
@@ -7248,8 +7921,12 @@
       <c r="BC94" s="3"/>
       <c r="BD94" s="3"/>
       <c r="BE94" s="3"/>
-    </row>
-    <row r="95" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF94" s="3"/>
+      <c r="BG94" s="3"/>
+      <c r="BH94" s="3"/>
+      <c r="BI94" s="3"/>
+    </row>
+    <row r="95" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
@@ -7305,8 +7982,12 @@
       <c r="BC95" s="3"/>
       <c r="BD95" s="3"/>
       <c r="BE95" s="3"/>
-    </row>
-    <row r="96" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF95" s="3"/>
+      <c r="BG95" s="3"/>
+      <c r="BH95" s="3"/>
+      <c r="BI95" s="3"/>
+    </row>
+    <row r="96" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
@@ -7362,8 +8043,12 @@
       <c r="BC96" s="3"/>
       <c r="BD96" s="3"/>
       <c r="BE96" s="3"/>
-    </row>
-    <row r="97" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF96" s="3"/>
+      <c r="BG96" s="3"/>
+      <c r="BH96" s="3"/>
+      <c r="BI96" s="3"/>
+    </row>
+    <row r="97" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
@@ -7419,8 +8104,12 @@
       <c r="BC97" s="3"/>
       <c r="BD97" s="3"/>
       <c r="BE97" s="3"/>
-    </row>
-    <row r="98" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF97" s="3"/>
+      <c r="BG97" s="3"/>
+      <c r="BH97" s="3"/>
+      <c r="BI97" s="3"/>
+    </row>
+    <row r="98" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
@@ -7476,8 +8165,12 @@
       <c r="BC98" s="3"/>
       <c r="BD98" s="3"/>
       <c r="BE98" s="3"/>
-    </row>
-    <row r="99" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF98" s="3"/>
+      <c r="BG98" s="3"/>
+      <c r="BH98" s="3"/>
+      <c r="BI98" s="3"/>
+    </row>
+    <row r="99" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
@@ -7533,8 +8226,12 @@
       <c r="BC99" s="3"/>
       <c r="BD99" s="3"/>
       <c r="BE99" s="3"/>
-    </row>
-    <row r="100" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF99" s="3"/>
+      <c r="BG99" s="3"/>
+      <c r="BH99" s="3"/>
+      <c r="BI99" s="3"/>
+    </row>
+    <row r="100" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
@@ -7590,8 +8287,12 @@
       <c r="BC100" s="3"/>
       <c r="BD100" s="3"/>
       <c r="BE100" s="3"/>
-    </row>
-    <row r="101" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF100" s="3"/>
+      <c r="BG100" s="3"/>
+      <c r="BH100" s="3"/>
+      <c r="BI100" s="3"/>
+    </row>
+    <row r="101" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
@@ -7647,8 +8348,12 @@
       <c r="BC101" s="3"/>
       <c r="BD101" s="3"/>
       <c r="BE101" s="3"/>
-    </row>
-    <row r="102" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF101" s="3"/>
+      <c r="BG101" s="3"/>
+      <c r="BH101" s="3"/>
+      <c r="BI101" s="3"/>
+    </row>
+    <row r="102" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
@@ -7704,8 +8409,12 @@
       <c r="BC102" s="3"/>
       <c r="BD102" s="3"/>
       <c r="BE102" s="3"/>
-    </row>
-    <row r="103" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF102" s="3"/>
+      <c r="BG102" s="3"/>
+      <c r="BH102" s="3"/>
+      <c r="BI102" s="3"/>
+    </row>
+    <row r="103" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
@@ -7761,8 +8470,12 @@
       <c r="BC103" s="3"/>
       <c r="BD103" s="3"/>
       <c r="BE103" s="3"/>
-    </row>
-    <row r="104" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF103" s="3"/>
+      <c r="BG103" s="3"/>
+      <c r="BH103" s="3"/>
+      <c r="BI103" s="3"/>
+    </row>
+    <row r="104" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
@@ -7818,8 +8531,12 @@
       <c r="BC104" s="3"/>
       <c r="BD104" s="3"/>
       <c r="BE104" s="3"/>
-    </row>
-    <row r="105" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF104" s="3"/>
+      <c r="BG104" s="3"/>
+      <c r="BH104" s="3"/>
+      <c r="BI104" s="3"/>
+    </row>
+    <row r="105" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
@@ -7875,8 +8592,12 @@
       <c r="BC105" s="3"/>
       <c r="BD105" s="3"/>
       <c r="BE105" s="3"/>
-    </row>
-    <row r="106" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF105" s="3"/>
+      <c r="BG105" s="3"/>
+      <c r="BH105" s="3"/>
+      <c r="BI105" s="3"/>
+    </row>
+    <row r="106" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
@@ -7932,8 +8653,12 @@
       <c r="BC106" s="3"/>
       <c r="BD106" s="3"/>
       <c r="BE106" s="3"/>
-    </row>
-    <row r="107" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF106" s="3"/>
+      <c r="BG106" s="3"/>
+      <c r="BH106" s="3"/>
+      <c r="BI106" s="3"/>
+    </row>
+    <row r="107" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
@@ -7989,8 +8714,12 @@
       <c r="BC107" s="3"/>
       <c r="BD107" s="3"/>
       <c r="BE107" s="3"/>
-    </row>
-    <row r="108" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF107" s="3"/>
+      <c r="BG107" s="3"/>
+      <c r="BH107" s="3"/>
+      <c r="BI107" s="3"/>
+    </row>
+    <row r="108" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
@@ -8046,8 +8775,12 @@
       <c r="BC108" s="3"/>
       <c r="BD108" s="3"/>
       <c r="BE108" s="3"/>
-    </row>
-    <row r="109" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF108" s="3"/>
+      <c r="BG108" s="3"/>
+      <c r="BH108" s="3"/>
+      <c r="BI108" s="3"/>
+    </row>
+    <row r="109" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
@@ -8103,8 +8836,12 @@
       <c r="BC109" s="3"/>
       <c r="BD109" s="3"/>
       <c r="BE109" s="3"/>
-    </row>
-    <row r="110" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF109" s="3"/>
+      <c r="BG109" s="3"/>
+      <c r="BH109" s="3"/>
+      <c r="BI109" s="3"/>
+    </row>
+    <row r="110" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
@@ -8160,8 +8897,12 @@
       <c r="BC110" s="3"/>
       <c r="BD110" s="3"/>
       <c r="BE110" s="3"/>
-    </row>
-    <row r="111" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF110" s="3"/>
+      <c r="BG110" s="3"/>
+      <c r="BH110" s="3"/>
+      <c r="BI110" s="3"/>
+    </row>
+    <row r="111" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
@@ -8217,8 +8958,12 @@
       <c r="BC111" s="3"/>
       <c r="BD111" s="3"/>
       <c r="BE111" s="3"/>
-    </row>
-    <row r="112" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF111" s="3"/>
+      <c r="BG111" s="3"/>
+      <c r="BH111" s="3"/>
+      <c r="BI111" s="3"/>
+    </row>
+    <row r="112" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
@@ -8274,8 +9019,12 @@
       <c r="BC112" s="3"/>
       <c r="BD112" s="3"/>
       <c r="BE112" s="3"/>
-    </row>
-    <row r="113" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF112" s="3"/>
+      <c r="BG112" s="3"/>
+      <c r="BH112" s="3"/>
+      <c r="BI112" s="3"/>
+    </row>
+    <row r="113" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
@@ -8331,8 +9080,12 @@
       <c r="BC113" s="3"/>
       <c r="BD113" s="3"/>
       <c r="BE113" s="3"/>
-    </row>
-    <row r="114" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF113" s="3"/>
+      <c r="BG113" s="3"/>
+      <c r="BH113" s="3"/>
+      <c r="BI113" s="3"/>
+    </row>
+    <row r="114" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
@@ -8388,8 +9141,12 @@
       <c r="BC114" s="3"/>
       <c r="BD114" s="3"/>
       <c r="BE114" s="3"/>
-    </row>
-    <row r="115" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF114" s="3"/>
+      <c r="BG114" s="3"/>
+      <c r="BH114" s="3"/>
+      <c r="BI114" s="3"/>
+    </row>
+    <row r="115" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
@@ -8445,8 +9202,12 @@
       <c r="BC115" s="3"/>
       <c r="BD115" s="3"/>
       <c r="BE115" s="3"/>
-    </row>
-    <row r="116" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF115" s="3"/>
+      <c r="BG115" s="3"/>
+      <c r="BH115" s="3"/>
+      <c r="BI115" s="3"/>
+    </row>
+    <row r="116" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
@@ -8502,8 +9263,12 @@
       <c r="BC116" s="3"/>
       <c r="BD116" s="3"/>
       <c r="BE116" s="3"/>
-    </row>
-    <row r="117" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF116" s="3"/>
+      <c r="BG116" s="3"/>
+      <c r="BH116" s="3"/>
+      <c r="BI116" s="3"/>
+    </row>
+    <row r="117" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
@@ -8559,8 +9324,12 @@
       <c r="BC117" s="3"/>
       <c r="BD117" s="3"/>
       <c r="BE117" s="3"/>
-    </row>
-    <row r="118" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF117" s="3"/>
+      <c r="BG117" s="3"/>
+      <c r="BH117" s="3"/>
+      <c r="BI117" s="3"/>
+    </row>
+    <row r="118" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
@@ -8616,8 +9385,12 @@
       <c r="BC118" s="3"/>
       <c r="BD118" s="3"/>
       <c r="BE118" s="3"/>
-    </row>
-    <row r="119" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF118" s="3"/>
+      <c r="BG118" s="3"/>
+      <c r="BH118" s="3"/>
+      <c r="BI118" s="3"/>
+    </row>
+    <row r="119" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
@@ -8673,8 +9446,12 @@
       <c r="BC119" s="3"/>
       <c r="BD119" s="3"/>
       <c r="BE119" s="3"/>
-    </row>
-    <row r="120" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF119" s="3"/>
+      <c r="BG119" s="3"/>
+      <c r="BH119" s="3"/>
+      <c r="BI119" s="3"/>
+    </row>
+    <row r="120" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
@@ -8730,8 +9507,12 @@
       <c r="BC120" s="3"/>
       <c r="BD120" s="3"/>
       <c r="BE120" s="3"/>
-    </row>
-    <row r="121" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF120" s="3"/>
+      <c r="BG120" s="3"/>
+      <c r="BH120" s="3"/>
+      <c r="BI120" s="3"/>
+    </row>
+    <row r="121" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
@@ -8787,8 +9568,12 @@
       <c r="BC121" s="3"/>
       <c r="BD121" s="3"/>
       <c r="BE121" s="3"/>
-    </row>
-    <row r="122" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF121" s="3"/>
+      <c r="BG121" s="3"/>
+      <c r="BH121" s="3"/>
+      <c r="BI121" s="3"/>
+    </row>
+    <row r="122" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
@@ -8844,8 +9629,12 @@
       <c r="BC122" s="3"/>
       <c r="BD122" s="3"/>
       <c r="BE122" s="3"/>
-    </row>
-    <row r="123" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF122" s="3"/>
+      <c r="BG122" s="3"/>
+      <c r="BH122" s="3"/>
+      <c r="BI122" s="3"/>
+    </row>
+    <row r="123" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
@@ -8901,8 +9690,12 @@
       <c r="BC123" s="3"/>
       <c r="BD123" s="3"/>
       <c r="BE123" s="3"/>
-    </row>
-    <row r="124" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF123" s="3"/>
+      <c r="BG123" s="3"/>
+      <c r="BH123" s="3"/>
+      <c r="BI123" s="3"/>
+    </row>
+    <row r="124" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
@@ -8958,8 +9751,12 @@
       <c r="BC124" s="3"/>
       <c r="BD124" s="3"/>
       <c r="BE124" s="3"/>
-    </row>
-    <row r="125" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF124" s="3"/>
+      <c r="BG124" s="3"/>
+      <c r="BH124" s="3"/>
+      <c r="BI124" s="3"/>
+    </row>
+    <row r="125" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
@@ -9015,8 +9812,12 @@
       <c r="BC125" s="3"/>
       <c r="BD125" s="3"/>
       <c r="BE125" s="3"/>
-    </row>
-    <row r="126" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF125" s="3"/>
+      <c r="BG125" s="3"/>
+      <c r="BH125" s="3"/>
+      <c r="BI125" s="3"/>
+    </row>
+    <row r="126" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
@@ -9072,8 +9873,12 @@
       <c r="BC126" s="3"/>
       <c r="BD126" s="3"/>
       <c r="BE126" s="3"/>
-    </row>
-    <row r="127" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF126" s="3"/>
+      <c r="BG126" s="3"/>
+      <c r="BH126" s="3"/>
+      <c r="BI126" s="3"/>
+    </row>
+    <row r="127" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
@@ -9129,8 +9934,12 @@
       <c r="BC127" s="3"/>
       <c r="BD127" s="3"/>
       <c r="BE127" s="3"/>
-    </row>
-    <row r="128" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF127" s="3"/>
+      <c r="BG127" s="3"/>
+      <c r="BH127" s="3"/>
+      <c r="BI127" s="3"/>
+    </row>
+    <row r="128" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
@@ -9186,8 +9995,12 @@
       <c r="BC128" s="3"/>
       <c r="BD128" s="3"/>
       <c r="BE128" s="3"/>
-    </row>
-    <row r="129" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF128" s="3"/>
+      <c r="BG128" s="3"/>
+      <c r="BH128" s="3"/>
+      <c r="BI128" s="3"/>
+    </row>
+    <row r="129" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
@@ -9243,8 +10056,12 @@
       <c r="BC129" s="3"/>
       <c r="BD129" s="3"/>
       <c r="BE129" s="3"/>
-    </row>
-    <row r="130" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF129" s="3"/>
+      <c r="BG129" s="3"/>
+      <c r="BH129" s="3"/>
+      <c r="BI129" s="3"/>
+    </row>
+    <row r="130" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
@@ -9300,8 +10117,12 @@
       <c r="BC130" s="3"/>
       <c r="BD130" s="3"/>
       <c r="BE130" s="3"/>
-    </row>
-    <row r="131" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF130" s="3"/>
+      <c r="BG130" s="3"/>
+      <c r="BH130" s="3"/>
+      <c r="BI130" s="3"/>
+    </row>
+    <row r="131" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
@@ -9357,8 +10178,12 @@
       <c r="BC131" s="3"/>
       <c r="BD131" s="3"/>
       <c r="BE131" s="3"/>
-    </row>
-    <row r="132" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF131" s="3"/>
+      <c r="BG131" s="3"/>
+      <c r="BH131" s="3"/>
+      <c r="BI131" s="3"/>
+    </row>
+    <row r="132" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
@@ -9414,8 +10239,12 @@
       <c r="BC132" s="3"/>
       <c r="BD132" s="3"/>
       <c r="BE132" s="3"/>
-    </row>
-    <row r="133" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF132" s="3"/>
+      <c r="BG132" s="3"/>
+      <c r="BH132" s="3"/>
+      <c r="BI132" s="3"/>
+    </row>
+    <row r="133" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
@@ -9471,8 +10300,12 @@
       <c r="BC133" s="3"/>
       <c r="BD133" s="3"/>
       <c r="BE133" s="3"/>
-    </row>
-    <row r="134" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF133" s="3"/>
+      <c r="BG133" s="3"/>
+      <c r="BH133" s="3"/>
+      <c r="BI133" s="3"/>
+    </row>
+    <row r="134" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
       <c r="E134" s="3"/>
@@ -9528,8 +10361,12 @@
       <c r="BC134" s="3"/>
       <c r="BD134" s="3"/>
       <c r="BE134" s="3"/>
-    </row>
-    <row r="135" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF134" s="3"/>
+      <c r="BG134" s="3"/>
+      <c r="BH134" s="3"/>
+      <c r="BI134" s="3"/>
+    </row>
+    <row r="135" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
@@ -9585,8 +10422,12 @@
       <c r="BC135" s="3"/>
       <c r="BD135" s="3"/>
       <c r="BE135" s="3"/>
-    </row>
-    <row r="136" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF135" s="3"/>
+      <c r="BG135" s="3"/>
+      <c r="BH135" s="3"/>
+      <c r="BI135" s="3"/>
+    </row>
+    <row r="136" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
@@ -9642,8 +10483,12 @@
       <c r="BC136" s="3"/>
       <c r="BD136" s="3"/>
       <c r="BE136" s="3"/>
-    </row>
-    <row r="137" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF136" s="3"/>
+      <c r="BG136" s="3"/>
+      <c r="BH136" s="3"/>
+      <c r="BI136" s="3"/>
+    </row>
+    <row r="137" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
@@ -9699,8 +10544,12 @@
       <c r="BC137" s="3"/>
       <c r="BD137" s="3"/>
       <c r="BE137" s="3"/>
-    </row>
-    <row r="138" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF137" s="3"/>
+      <c r="BG137" s="3"/>
+      <c r="BH137" s="3"/>
+      <c r="BI137" s="3"/>
+    </row>
+    <row r="138" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
@@ -9756,8 +10605,12 @@
       <c r="BC138" s="3"/>
       <c r="BD138" s="3"/>
       <c r="BE138" s="3"/>
-    </row>
-    <row r="139" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF138" s="3"/>
+      <c r="BG138" s="3"/>
+      <c r="BH138" s="3"/>
+      <c r="BI138" s="3"/>
+    </row>
+    <row r="139" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
@@ -9813,8 +10666,12 @@
       <c r="BC139" s="3"/>
       <c r="BD139" s="3"/>
       <c r="BE139" s="3"/>
-    </row>
-    <row r="140" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF139" s="3"/>
+      <c r="BG139" s="3"/>
+      <c r="BH139" s="3"/>
+      <c r="BI139" s="3"/>
+    </row>
+    <row r="140" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
@@ -9870,8 +10727,12 @@
       <c r="BC140" s="3"/>
       <c r="BD140" s="3"/>
       <c r="BE140" s="3"/>
-    </row>
-    <row r="141" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF140" s="3"/>
+      <c r="BG140" s="3"/>
+      <c r="BH140" s="3"/>
+      <c r="BI140" s="3"/>
+    </row>
+    <row r="141" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
@@ -9927,8 +10788,12 @@
       <c r="BC141" s="3"/>
       <c r="BD141" s="3"/>
       <c r="BE141" s="3"/>
-    </row>
-    <row r="142" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF141" s="3"/>
+      <c r="BG141" s="3"/>
+      <c r="BH141" s="3"/>
+      <c r="BI141" s="3"/>
+    </row>
+    <row r="142" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
@@ -9984,8 +10849,12 @@
       <c r="BC142" s="3"/>
       <c r="BD142" s="3"/>
       <c r="BE142" s="3"/>
-    </row>
-    <row r="143" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF142" s="3"/>
+      <c r="BG142" s="3"/>
+      <c r="BH142" s="3"/>
+      <c r="BI142" s="3"/>
+    </row>
+    <row r="143" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
@@ -10041,8 +10910,12 @@
       <c r="BC143" s="3"/>
       <c r="BD143" s="3"/>
       <c r="BE143" s="3"/>
-    </row>
-    <row r="144" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF143" s="3"/>
+      <c r="BG143" s="3"/>
+      <c r="BH143" s="3"/>
+      <c r="BI143" s="3"/>
+    </row>
+    <row r="144" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
@@ -10098,8 +10971,12 @@
       <c r="BC144" s="3"/>
       <c r="BD144" s="3"/>
       <c r="BE144" s="3"/>
-    </row>
-    <row r="145" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF144" s="3"/>
+      <c r="BG144" s="3"/>
+      <c r="BH144" s="3"/>
+      <c r="BI144" s="3"/>
+    </row>
+    <row r="145" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
@@ -10155,8 +11032,12 @@
       <c r="BC145" s="3"/>
       <c r="BD145" s="3"/>
       <c r="BE145" s="3"/>
-    </row>
-    <row r="146" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF145" s="3"/>
+      <c r="BG145" s="3"/>
+      <c r="BH145" s="3"/>
+      <c r="BI145" s="3"/>
+    </row>
+    <row r="146" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
       <c r="E146" s="3"/>
@@ -10212,8 +11093,12 @@
       <c r="BC146" s="3"/>
       <c r="BD146" s="3"/>
       <c r="BE146" s="3"/>
-    </row>
-    <row r="147" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF146" s="3"/>
+      <c r="BG146" s="3"/>
+      <c r="BH146" s="3"/>
+      <c r="BI146" s="3"/>
+    </row>
+    <row r="147" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
       <c r="E147" s="3"/>
@@ -10269,8 +11154,12 @@
       <c r="BC147" s="3"/>
       <c r="BD147" s="3"/>
       <c r="BE147" s="3"/>
-    </row>
-    <row r="148" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF147" s="3"/>
+      <c r="BG147" s="3"/>
+      <c r="BH147" s="3"/>
+      <c r="BI147" s="3"/>
+    </row>
+    <row r="148" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
       <c r="E148" s="3"/>
@@ -10326,8 +11215,12 @@
       <c r="BC148" s="3"/>
       <c r="BD148" s="3"/>
       <c r="BE148" s="3"/>
-    </row>
-    <row r="149" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF148" s="3"/>
+      <c r="BG148" s="3"/>
+      <c r="BH148" s="3"/>
+      <c r="BI148" s="3"/>
+    </row>
+    <row r="149" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
@@ -10383,8 +11276,12 @@
       <c r="BC149" s="3"/>
       <c r="BD149" s="3"/>
       <c r="BE149" s="3"/>
-    </row>
-    <row r="150" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF149" s="3"/>
+      <c r="BG149" s="3"/>
+      <c r="BH149" s="3"/>
+      <c r="BI149" s="3"/>
+    </row>
+    <row r="150" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
       <c r="E150" s="3"/>
@@ -10440,8 +11337,12 @@
       <c r="BC150" s="3"/>
       <c r="BD150" s="3"/>
       <c r="BE150" s="3"/>
-    </row>
-    <row r="151" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF150" s="3"/>
+      <c r="BG150" s="3"/>
+      <c r="BH150" s="3"/>
+      <c r="BI150" s="3"/>
+    </row>
+    <row r="151" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
@@ -10497,8 +11398,12 @@
       <c r="BC151" s="3"/>
       <c r="BD151" s="3"/>
       <c r="BE151" s="3"/>
-    </row>
-    <row r="152" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF151" s="3"/>
+      <c r="BG151" s="3"/>
+      <c r="BH151" s="3"/>
+      <c r="BI151" s="3"/>
+    </row>
+    <row r="152" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
       <c r="E152" s="3"/>
@@ -10554,8 +11459,12 @@
       <c r="BC152" s="3"/>
       <c r="BD152" s="3"/>
       <c r="BE152" s="3"/>
-    </row>
-    <row r="153" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF152" s="3"/>
+      <c r="BG152" s="3"/>
+      <c r="BH152" s="3"/>
+      <c r="BI152" s="3"/>
+    </row>
+    <row r="153" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
@@ -10611,8 +11520,12 @@
       <c r="BC153" s="3"/>
       <c r="BD153" s="3"/>
       <c r="BE153" s="3"/>
-    </row>
-    <row r="154" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF153" s="3"/>
+      <c r="BG153" s="3"/>
+      <c r="BH153" s="3"/>
+      <c r="BI153" s="3"/>
+    </row>
+    <row r="154" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
@@ -10668,8 +11581,12 @@
       <c r="BC154" s="3"/>
       <c r="BD154" s="3"/>
       <c r="BE154" s="3"/>
-    </row>
-    <row r="155" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF154" s="3"/>
+      <c r="BG154" s="3"/>
+      <c r="BH154" s="3"/>
+      <c r="BI154" s="3"/>
+    </row>
+    <row r="155" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
@@ -10725,8 +11642,12 @@
       <c r="BC155" s="3"/>
       <c r="BD155" s="3"/>
       <c r="BE155" s="3"/>
-    </row>
-    <row r="156" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF155" s="3"/>
+      <c r="BG155" s="3"/>
+      <c r="BH155" s="3"/>
+      <c r="BI155" s="3"/>
+    </row>
+    <row r="156" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
@@ -10782,8 +11703,12 @@
       <c r="BC156" s="3"/>
       <c r="BD156" s="3"/>
       <c r="BE156" s="3"/>
-    </row>
-    <row r="157" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF156" s="3"/>
+      <c r="BG156" s="3"/>
+      <c r="BH156" s="3"/>
+      <c r="BI156" s="3"/>
+    </row>
+    <row r="157" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
@@ -10839,8 +11764,12 @@
       <c r="BC157" s="3"/>
       <c r="BD157" s="3"/>
       <c r="BE157" s="3"/>
-    </row>
-    <row r="158" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF157" s="3"/>
+      <c r="BG157" s="3"/>
+      <c r="BH157" s="3"/>
+      <c r="BI157" s="3"/>
+    </row>
+    <row r="158" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
@@ -10896,8 +11825,12 @@
       <c r="BC158" s="3"/>
       <c r="BD158" s="3"/>
       <c r="BE158" s="3"/>
-    </row>
-    <row r="159" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF158" s="3"/>
+      <c r="BG158" s="3"/>
+      <c r="BH158" s="3"/>
+      <c r="BI158" s="3"/>
+    </row>
+    <row r="159" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
       <c r="E159" s="3"/>
@@ -10953,8 +11886,12 @@
       <c r="BC159" s="3"/>
       <c r="BD159" s="3"/>
       <c r="BE159" s="3"/>
-    </row>
-    <row r="160" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF159" s="3"/>
+      <c r="BG159" s="3"/>
+      <c r="BH159" s="3"/>
+      <c r="BI159" s="3"/>
+    </row>
+    <row r="160" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
@@ -11010,8 +11947,12 @@
       <c r="BC160" s="3"/>
       <c r="BD160" s="3"/>
       <c r="BE160" s="3"/>
-    </row>
-    <row r="161" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF160" s="3"/>
+      <c r="BG160" s="3"/>
+      <c r="BH160" s="3"/>
+      <c r="BI160" s="3"/>
+    </row>
+    <row r="161" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
@@ -11067,8 +12008,12 @@
       <c r="BC161" s="3"/>
       <c r="BD161" s="3"/>
       <c r="BE161" s="3"/>
-    </row>
-    <row r="162" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF161" s="3"/>
+      <c r="BG161" s="3"/>
+      <c r="BH161" s="3"/>
+      <c r="BI161" s="3"/>
+    </row>
+    <row r="162" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
@@ -11124,8 +12069,12 @@
       <c r="BC162" s="3"/>
       <c r="BD162" s="3"/>
       <c r="BE162" s="3"/>
-    </row>
-    <row r="163" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF162" s="3"/>
+      <c r="BG162" s="3"/>
+      <c r="BH162" s="3"/>
+      <c r="BI162" s="3"/>
+    </row>
+    <row r="163" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
       <c r="E163" s="3"/>
@@ -11181,8 +12130,12 @@
       <c r="BC163" s="3"/>
       <c r="BD163" s="3"/>
       <c r="BE163" s="3"/>
-    </row>
-    <row r="164" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF163" s="3"/>
+      <c r="BG163" s="3"/>
+      <c r="BH163" s="3"/>
+      <c r="BI163" s="3"/>
+    </row>
+    <row r="164" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
       <c r="E164" s="3"/>
@@ -11238,8 +12191,12 @@
       <c r="BC164" s="3"/>
       <c r="BD164" s="3"/>
       <c r="BE164" s="3"/>
-    </row>
-    <row r="165" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF164" s="3"/>
+      <c r="BG164" s="3"/>
+      <c r="BH164" s="3"/>
+      <c r="BI164" s="3"/>
+    </row>
+    <row r="165" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
       <c r="E165" s="3"/>
@@ -11295,8 +12252,12 @@
       <c r="BC165" s="3"/>
       <c r="BD165" s="3"/>
       <c r="BE165" s="3"/>
-    </row>
-    <row r="166" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF165" s="3"/>
+      <c r="BG165" s="3"/>
+      <c r="BH165" s="3"/>
+      <c r="BI165" s="3"/>
+    </row>
+    <row r="166" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
       <c r="E166" s="3"/>
@@ -11352,8 +12313,12 @@
       <c r="BC166" s="3"/>
       <c r="BD166" s="3"/>
       <c r="BE166" s="3"/>
-    </row>
-    <row r="167" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF166" s="3"/>
+      <c r="BG166" s="3"/>
+      <c r="BH166" s="3"/>
+      <c r="BI166" s="3"/>
+    </row>
+    <row r="167" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
       <c r="E167" s="3"/>
@@ -11409,8 +12374,12 @@
       <c r="BC167" s="3"/>
       <c r="BD167" s="3"/>
       <c r="BE167" s="3"/>
-    </row>
-    <row r="168" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF167" s="3"/>
+      <c r="BG167" s="3"/>
+      <c r="BH167" s="3"/>
+      <c r="BI167" s="3"/>
+    </row>
+    <row r="168" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
       <c r="E168" s="3"/>
@@ -11466,8 +12435,12 @@
       <c r="BC168" s="3"/>
       <c r="BD168" s="3"/>
       <c r="BE168" s="3"/>
-    </row>
-    <row r="169" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF168" s="3"/>
+      <c r="BG168" s="3"/>
+      <c r="BH168" s="3"/>
+      <c r="BI168" s="3"/>
+    </row>
+    <row r="169" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
       <c r="E169" s="3"/>
@@ -11523,8 +12496,12 @@
       <c r="BC169" s="3"/>
       <c r="BD169" s="3"/>
       <c r="BE169" s="3"/>
-    </row>
-    <row r="170" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF169" s="3"/>
+      <c r="BG169" s="3"/>
+      <c r="BH169" s="3"/>
+      <c r="BI169" s="3"/>
+    </row>
+    <row r="170" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C170" s="3"/>
       <c r="D170" s="3"/>
       <c r="E170" s="3"/>
@@ -11580,8 +12557,12 @@
       <c r="BC170" s="3"/>
       <c r="BD170" s="3"/>
       <c r="BE170" s="3"/>
-    </row>
-    <row r="171" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF170" s="3"/>
+      <c r="BG170" s="3"/>
+      <c r="BH170" s="3"/>
+      <c r="BI170" s="3"/>
+    </row>
+    <row r="171" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
       <c r="E171" s="3"/>
@@ -11637,8 +12618,12 @@
       <c r="BC171" s="3"/>
       <c r="BD171" s="3"/>
       <c r="BE171" s="3"/>
-    </row>
-    <row r="172" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF171" s="3"/>
+      <c r="BG171" s="3"/>
+      <c r="BH171" s="3"/>
+      <c r="BI171" s="3"/>
+    </row>
+    <row r="172" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
       <c r="E172" s="3"/>
@@ -11694,8 +12679,12 @@
       <c r="BC172" s="3"/>
       <c r="BD172" s="3"/>
       <c r="BE172" s="3"/>
-    </row>
-    <row r="173" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF172" s="3"/>
+      <c r="BG172" s="3"/>
+      <c r="BH172" s="3"/>
+      <c r="BI172" s="3"/>
+    </row>
+    <row r="173" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
       <c r="E173" s="3"/>
@@ -11751,8 +12740,12 @@
       <c r="BC173" s="3"/>
       <c r="BD173" s="3"/>
       <c r="BE173" s="3"/>
-    </row>
-    <row r="174" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF173" s="3"/>
+      <c r="BG173" s="3"/>
+      <c r="BH173" s="3"/>
+      <c r="BI173" s="3"/>
+    </row>
+    <row r="174" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
       <c r="E174" s="3"/>
@@ -11808,8 +12801,12 @@
       <c r="BC174" s="3"/>
       <c r="BD174" s="3"/>
       <c r="BE174" s="3"/>
-    </row>
-    <row r="175" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF174" s="3"/>
+      <c r="BG174" s="3"/>
+      <c r="BH174" s="3"/>
+      <c r="BI174" s="3"/>
+    </row>
+    <row r="175" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
       <c r="E175" s="3"/>
@@ -11865,8 +12862,12 @@
       <c r="BC175" s="3"/>
       <c r="BD175" s="3"/>
       <c r="BE175" s="3"/>
-    </row>
-    <row r="176" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF175" s="3"/>
+      <c r="BG175" s="3"/>
+      <c r="BH175" s="3"/>
+      <c r="BI175" s="3"/>
+    </row>
+    <row r="176" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
       <c r="E176" s="3"/>
@@ -11922,8 +12923,12 @@
       <c r="BC176" s="3"/>
       <c r="BD176" s="3"/>
       <c r="BE176" s="3"/>
-    </row>
-    <row r="177" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF176" s="3"/>
+      <c r="BG176" s="3"/>
+      <c r="BH176" s="3"/>
+      <c r="BI176" s="3"/>
+    </row>
+    <row r="177" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
       <c r="E177" s="3"/>
@@ -11979,8 +12984,12 @@
       <c r="BC177" s="3"/>
       <c r="BD177" s="3"/>
       <c r="BE177" s="3"/>
-    </row>
-    <row r="178" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF177" s="3"/>
+      <c r="BG177" s="3"/>
+      <c r="BH177" s="3"/>
+      <c r="BI177" s="3"/>
+    </row>
+    <row r="178" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
       <c r="E178" s="3"/>
@@ -12036,8 +13045,12 @@
       <c r="BC178" s="3"/>
       <c r="BD178" s="3"/>
       <c r="BE178" s="3"/>
-    </row>
-    <row r="179" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF178" s="3"/>
+      <c r="BG178" s="3"/>
+      <c r="BH178" s="3"/>
+      <c r="BI178" s="3"/>
+    </row>
+    <row r="179" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
       <c r="E179" s="3"/>
@@ -12093,8 +13106,12 @@
       <c r="BC179" s="3"/>
       <c r="BD179" s="3"/>
       <c r="BE179" s="3"/>
-    </row>
-    <row r="180" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF179" s="3"/>
+      <c r="BG179" s="3"/>
+      <c r="BH179" s="3"/>
+      <c r="BI179" s="3"/>
+    </row>
+    <row r="180" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
       <c r="E180" s="3"/>
@@ -12150,8 +13167,12 @@
       <c r="BC180" s="3"/>
       <c r="BD180" s="3"/>
       <c r="BE180" s="3"/>
-    </row>
-    <row r="181" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF180" s="3"/>
+      <c r="BG180" s="3"/>
+      <c r="BH180" s="3"/>
+      <c r="BI180" s="3"/>
+    </row>
+    <row r="181" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
       <c r="E181" s="3"/>
@@ -12207,8 +13228,12 @@
       <c r="BC181" s="3"/>
       <c r="BD181" s="3"/>
       <c r="BE181" s="3"/>
-    </row>
-    <row r="182" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF181" s="3"/>
+      <c r="BG181" s="3"/>
+      <c r="BH181" s="3"/>
+      <c r="BI181" s="3"/>
+    </row>
+    <row r="182" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
       <c r="E182" s="3"/>
@@ -12264,8 +13289,12 @@
       <c r="BC182" s="3"/>
       <c r="BD182" s="3"/>
       <c r="BE182" s="3"/>
-    </row>
-    <row r="183" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF182" s="3"/>
+      <c r="BG182" s="3"/>
+      <c r="BH182" s="3"/>
+      <c r="BI182" s="3"/>
+    </row>
+    <row r="183" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
       <c r="E183" s="3"/>
@@ -12321,8 +13350,12 @@
       <c r="BC183" s="3"/>
       <c r="BD183" s="3"/>
       <c r="BE183" s="3"/>
-    </row>
-    <row r="184" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF183" s="3"/>
+      <c r="BG183" s="3"/>
+      <c r="BH183" s="3"/>
+      <c r="BI183" s="3"/>
+    </row>
+    <row r="184" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
       <c r="E184" s="3"/>
@@ -12378,8 +13411,12 @@
       <c r="BC184" s="3"/>
       <c r="BD184" s="3"/>
       <c r="BE184" s="3"/>
-    </row>
-    <row r="185" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF184" s="3"/>
+      <c r="BG184" s="3"/>
+      <c r="BH184" s="3"/>
+      <c r="BI184" s="3"/>
+    </row>
+    <row r="185" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
       <c r="E185" s="3"/>
@@ -12435,8 +13472,12 @@
       <c r="BC185" s="3"/>
       <c r="BD185" s="3"/>
       <c r="BE185" s="3"/>
-    </row>
-    <row r="186" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF185" s="3"/>
+      <c r="BG185" s="3"/>
+      <c r="BH185" s="3"/>
+      <c r="BI185" s="3"/>
+    </row>
+    <row r="186" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
       <c r="E186" s="3"/>
@@ -12492,8 +13533,12 @@
       <c r="BC186" s="3"/>
       <c r="BD186" s="3"/>
       <c r="BE186" s="3"/>
-    </row>
-    <row r="187" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF186" s="3"/>
+      <c r="BG186" s="3"/>
+      <c r="BH186" s="3"/>
+      <c r="BI186" s="3"/>
+    </row>
+    <row r="187" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C187" s="3"/>
       <c r="D187" s="3"/>
       <c r="E187" s="3"/>
@@ -12549,8 +13594,12 @@
       <c r="BC187" s="3"/>
       <c r="BD187" s="3"/>
       <c r="BE187" s="3"/>
-    </row>
-    <row r="188" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF187" s="3"/>
+      <c r="BG187" s="3"/>
+      <c r="BH187" s="3"/>
+      <c r="BI187" s="3"/>
+    </row>
+    <row r="188" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C188" s="3"/>
       <c r="D188" s="3"/>
       <c r="E188" s="3"/>
@@ -12606,8 +13655,12 @@
       <c r="BC188" s="3"/>
       <c r="BD188" s="3"/>
       <c r="BE188" s="3"/>
-    </row>
-    <row r="189" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF188" s="3"/>
+      <c r="BG188" s="3"/>
+      <c r="BH188" s="3"/>
+      <c r="BI188" s="3"/>
+    </row>
+    <row r="189" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C189" s="3"/>
       <c r="D189" s="3"/>
       <c r="E189" s="3"/>
@@ -12663,8 +13716,12 @@
       <c r="BC189" s="3"/>
       <c r="BD189" s="3"/>
       <c r="BE189" s="3"/>
-    </row>
-    <row r="190" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF189" s="3"/>
+      <c r="BG189" s="3"/>
+      <c r="BH189" s="3"/>
+      <c r="BI189" s="3"/>
+    </row>
+    <row r="190" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C190" s="3"/>
       <c r="D190" s="3"/>
       <c r="E190" s="3"/>
@@ -12720,8 +13777,12 @@
       <c r="BC190" s="3"/>
       <c r="BD190" s="3"/>
       <c r="BE190" s="3"/>
-    </row>
-    <row r="191" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF190" s="3"/>
+      <c r="BG190" s="3"/>
+      <c r="BH190" s="3"/>
+      <c r="BI190" s="3"/>
+    </row>
+    <row r="191" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C191" s="3"/>
       <c r="D191" s="3"/>
       <c r="E191" s="3"/>
@@ -12777,8 +13838,12 @@
       <c r="BC191" s="3"/>
       <c r="BD191" s="3"/>
       <c r="BE191" s="3"/>
-    </row>
-    <row r="192" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF191" s="3"/>
+      <c r="BG191" s="3"/>
+      <c r="BH191" s="3"/>
+      <c r="BI191" s="3"/>
+    </row>
+    <row r="192" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C192" s="3"/>
       <c r="D192" s="3"/>
       <c r="E192" s="3"/>
@@ -12834,8 +13899,12 @@
       <c r="BC192" s="3"/>
       <c r="BD192" s="3"/>
       <c r="BE192" s="3"/>
-    </row>
-    <row r="193" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF192" s="3"/>
+      <c r="BG192" s="3"/>
+      <c r="BH192" s="3"/>
+      <c r="BI192" s="3"/>
+    </row>
+    <row r="193" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C193" s="3"/>
       <c r="D193" s="3"/>
       <c r="E193" s="3"/>
@@ -12891,8 +13960,12 @@
       <c r="BC193" s="3"/>
       <c r="BD193" s="3"/>
       <c r="BE193" s="3"/>
-    </row>
-    <row r="194" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF193" s="3"/>
+      <c r="BG193" s="3"/>
+      <c r="BH193" s="3"/>
+      <c r="BI193" s="3"/>
+    </row>
+    <row r="194" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C194" s="3"/>
       <c r="D194" s="3"/>
       <c r="E194" s="3"/>
@@ -12948,8 +14021,12 @@
       <c r="BC194" s="3"/>
       <c r="BD194" s="3"/>
       <c r="BE194" s="3"/>
-    </row>
-    <row r="195" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF194" s="3"/>
+      <c r="BG194" s="3"/>
+      <c r="BH194" s="3"/>
+      <c r="BI194" s="3"/>
+    </row>
+    <row r="195" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C195" s="3"/>
       <c r="D195" s="3"/>
       <c r="E195" s="3"/>
@@ -13005,8 +14082,12 @@
       <c r="BC195" s="3"/>
       <c r="BD195" s="3"/>
       <c r="BE195" s="3"/>
-    </row>
-    <row r="196" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF195" s="3"/>
+      <c r="BG195" s="3"/>
+      <c r="BH195" s="3"/>
+      <c r="BI195" s="3"/>
+    </row>
+    <row r="196" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C196" s="3"/>
       <c r="D196" s="3"/>
       <c r="E196" s="3"/>
@@ -13062,8 +14143,12 @@
       <c r="BC196" s="3"/>
       <c r="BD196" s="3"/>
       <c r="BE196" s="3"/>
-    </row>
-    <row r="197" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF196" s="3"/>
+      <c r="BG196" s="3"/>
+      <c r="BH196" s="3"/>
+      <c r="BI196" s="3"/>
+    </row>
+    <row r="197" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C197" s="3"/>
       <c r="D197" s="3"/>
       <c r="E197" s="3"/>
@@ -13119,8 +14204,12 @@
       <c r="BC197" s="3"/>
       <c r="BD197" s="3"/>
       <c r="BE197" s="3"/>
-    </row>
-    <row r="198" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF197" s="3"/>
+      <c r="BG197" s="3"/>
+      <c r="BH197" s="3"/>
+      <c r="BI197" s="3"/>
+    </row>
+    <row r="198" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C198" s="3"/>
       <c r="D198" s="3"/>
       <c r="E198" s="3"/>
@@ -13176,8 +14265,12 @@
       <c r="BC198" s="3"/>
       <c r="BD198" s="3"/>
       <c r="BE198" s="3"/>
-    </row>
-    <row r="199" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF198" s="3"/>
+      <c r="BG198" s="3"/>
+      <c r="BH198" s="3"/>
+      <c r="BI198" s="3"/>
+    </row>
+    <row r="199" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C199" s="3"/>
       <c r="D199" s="3"/>
       <c r="E199" s="3"/>
@@ -13233,8 +14326,12 @@
       <c r="BC199" s="3"/>
       <c r="BD199" s="3"/>
       <c r="BE199" s="3"/>
-    </row>
-    <row r="200" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF199" s="3"/>
+      <c r="BG199" s="3"/>
+      <c r="BH199" s="3"/>
+      <c r="BI199" s="3"/>
+    </row>
+    <row r="200" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C200" s="3"/>
       <c r="D200" s="3"/>
       <c r="E200" s="3"/>
@@ -13290,8 +14387,12 @@
       <c r="BC200" s="3"/>
       <c r="BD200" s="3"/>
       <c r="BE200" s="3"/>
-    </row>
-    <row r="201" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF200" s="3"/>
+      <c r="BG200" s="3"/>
+      <c r="BH200" s="3"/>
+      <c r="BI200" s="3"/>
+    </row>
+    <row r="201" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C201" s="3"/>
       <c r="D201" s="3"/>
       <c r="E201" s="3"/>
@@ -13347,8 +14448,12 @@
       <c r="BC201" s="3"/>
       <c r="BD201" s="3"/>
       <c r="BE201" s="3"/>
-    </row>
-    <row r="202" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF201" s="3"/>
+      <c r="BG201" s="3"/>
+      <c r="BH201" s="3"/>
+      <c r="BI201" s="3"/>
+    </row>
+    <row r="202" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C202" s="3"/>
       <c r="D202" s="3"/>
       <c r="E202" s="3"/>
@@ -13404,8 +14509,12 @@
       <c r="BC202" s="3"/>
       <c r="BD202" s="3"/>
       <c r="BE202" s="3"/>
-    </row>
-    <row r="203" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF202" s="3"/>
+      <c r="BG202" s="3"/>
+      <c r="BH202" s="3"/>
+      <c r="BI202" s="3"/>
+    </row>
+    <row r="203" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C203" s="3"/>
       <c r="D203" s="3"/>
       <c r="E203" s="3"/>
@@ -13461,8 +14570,12 @@
       <c r="BC203" s="3"/>
       <c r="BD203" s="3"/>
       <c r="BE203" s="3"/>
-    </row>
-    <row r="204" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF203" s="3"/>
+      <c r="BG203" s="3"/>
+      <c r="BH203" s="3"/>
+      <c r="BI203" s="3"/>
+    </row>
+    <row r="204" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C204" s="3"/>
       <c r="D204" s="3"/>
       <c r="E204" s="3"/>
@@ -13518,8 +14631,12 @@
       <c r="BC204" s="3"/>
       <c r="BD204" s="3"/>
       <c r="BE204" s="3"/>
-    </row>
-    <row r="205" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF204" s="3"/>
+      <c r="BG204" s="3"/>
+      <c r="BH204" s="3"/>
+      <c r="BI204" s="3"/>
+    </row>
+    <row r="205" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C205" s="3"/>
       <c r="D205" s="3"/>
       <c r="E205" s="3"/>
@@ -13575,8 +14692,12 @@
       <c r="BC205" s="3"/>
       <c r="BD205" s="3"/>
       <c r="BE205" s="3"/>
-    </row>
-    <row r="206" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF205" s="3"/>
+      <c r="BG205" s="3"/>
+      <c r="BH205" s="3"/>
+      <c r="BI205" s="3"/>
+    </row>
+    <row r="206" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C206" s="3"/>
       <c r="D206" s="3"/>
       <c r="E206" s="3"/>
@@ -13632,8 +14753,12 @@
       <c r="BC206" s="3"/>
       <c r="BD206" s="3"/>
       <c r="BE206" s="3"/>
-    </row>
-    <row r="207" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF206" s="3"/>
+      <c r="BG206" s="3"/>
+      <c r="BH206" s="3"/>
+      <c r="BI206" s="3"/>
+    </row>
+    <row r="207" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C207" s="3"/>
       <c r="D207" s="3"/>
       <c r="E207" s="3"/>
@@ -13689,8 +14814,12 @@
       <c r="BC207" s="3"/>
       <c r="BD207" s="3"/>
       <c r="BE207" s="3"/>
-    </row>
-    <row r="208" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF207" s="3"/>
+      <c r="BG207" s="3"/>
+      <c r="BH207" s="3"/>
+      <c r="BI207" s="3"/>
+    </row>
+    <row r="208" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C208" s="3"/>
       <c r="D208" s="3"/>
       <c r="E208" s="3"/>
@@ -13746,8 +14875,12 @@
       <c r="BC208" s="3"/>
       <c r="BD208" s="3"/>
       <c r="BE208" s="3"/>
-    </row>
-    <row r="209" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF208" s="3"/>
+      <c r="BG208" s="3"/>
+      <c r="BH208" s="3"/>
+      <c r="BI208" s="3"/>
+    </row>
+    <row r="209" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C209" s="3"/>
       <c r="D209" s="3"/>
       <c r="E209" s="3"/>
@@ -13803,8 +14936,12 @@
       <c r="BC209" s="3"/>
       <c r="BD209" s="3"/>
       <c r="BE209" s="3"/>
-    </row>
-    <row r="210" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF209" s="3"/>
+      <c r="BG209" s="3"/>
+      <c r="BH209" s="3"/>
+      <c r="BI209" s="3"/>
+    </row>
+    <row r="210" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C210" s="3"/>
       <c r="D210" s="3"/>
       <c r="E210" s="3"/>
@@ -13860,8 +14997,12 @@
       <c r="BC210" s="3"/>
       <c r="BD210" s="3"/>
       <c r="BE210" s="3"/>
-    </row>
-    <row r="211" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF210" s="3"/>
+      <c r="BG210" s="3"/>
+      <c r="BH210" s="3"/>
+      <c r="BI210" s="3"/>
+    </row>
+    <row r="211" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C211" s="3"/>
       <c r="D211" s="3"/>
       <c r="E211" s="3"/>
@@ -13917,8 +15058,12 @@
       <c r="BC211" s="3"/>
       <c r="BD211" s="3"/>
       <c r="BE211" s="3"/>
-    </row>
-    <row r="212" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF211" s="3"/>
+      <c r="BG211" s="3"/>
+      <c r="BH211" s="3"/>
+      <c r="BI211" s="3"/>
+    </row>
+    <row r="212" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C212" s="3"/>
       <c r="D212" s="3"/>
       <c r="E212" s="3"/>
@@ -13974,8 +15119,12 @@
       <c r="BC212" s="3"/>
       <c r="BD212" s="3"/>
       <c r="BE212" s="3"/>
-    </row>
-    <row r="213" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF212" s="3"/>
+      <c r="BG212" s="3"/>
+      <c r="BH212" s="3"/>
+      <c r="BI212" s="3"/>
+    </row>
+    <row r="213" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C213" s="3"/>
       <c r="D213" s="3"/>
       <c r="E213" s="3"/>
@@ -14031,8 +15180,12 @@
       <c r="BC213" s="3"/>
       <c r="BD213" s="3"/>
       <c r="BE213" s="3"/>
-    </row>
-    <row r="214" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF213" s="3"/>
+      <c r="BG213" s="3"/>
+      <c r="BH213" s="3"/>
+      <c r="BI213" s="3"/>
+    </row>
+    <row r="214" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C214" s="3"/>
       <c r="D214" s="3"/>
       <c r="E214" s="3"/>
@@ -14088,8 +15241,12 @@
       <c r="BC214" s="3"/>
       <c r="BD214" s="3"/>
       <c r="BE214" s="3"/>
-    </row>
-    <row r="215" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF214" s="3"/>
+      <c r="BG214" s="3"/>
+      <c r="BH214" s="3"/>
+      <c r="BI214" s="3"/>
+    </row>
+    <row r="215" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C215" s="3"/>
       <c r="D215" s="3"/>
       <c r="E215" s="3"/>
@@ -14145,8 +15302,12 @@
       <c r="BC215" s="3"/>
       <c r="BD215" s="3"/>
       <c r="BE215" s="3"/>
-    </row>
-    <row r="216" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF215" s="3"/>
+      <c r="BG215" s="3"/>
+      <c r="BH215" s="3"/>
+      <c r="BI215" s="3"/>
+    </row>
+    <row r="216" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C216" s="3"/>
       <c r="D216" s="3"/>
       <c r="E216" s="3"/>
@@ -14202,8 +15363,12 @@
       <c r="BC216" s="3"/>
       <c r="BD216" s="3"/>
       <c r="BE216" s="3"/>
-    </row>
-    <row r="217" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF216" s="3"/>
+      <c r="BG216" s="3"/>
+      <c r="BH216" s="3"/>
+      <c r="BI216" s="3"/>
+    </row>
+    <row r="217" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C217" s="3"/>
       <c r="D217" s="3"/>
       <c r="E217" s="3"/>
@@ -14259,8 +15424,12 @@
       <c r="BC217" s="3"/>
       <c r="BD217" s="3"/>
       <c r="BE217" s="3"/>
-    </row>
-    <row r="218" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF217" s="3"/>
+      <c r="BG217" s="3"/>
+      <c r="BH217" s="3"/>
+      <c r="BI217" s="3"/>
+    </row>
+    <row r="218" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C218" s="3"/>
       <c r="D218" s="3"/>
       <c r="E218" s="3"/>
@@ -14316,68 +15485,17 @@
       <c r="BC218" s="3"/>
       <c r="BD218" s="3"/>
       <c r="BE218" s="3"/>
-    </row>
-    <row r="219" spans="3:57" x14ac:dyDescent="0.25">
-      <c r="C219" s="3"/>
-      <c r="D219" s="3"/>
-      <c r="E219" s="3"/>
-      <c r="F219" s="3"/>
-      <c r="G219" s="3"/>
-      <c r="H219" s="3"/>
-      <c r="I219" s="3"/>
-      <c r="J219" s="3"/>
-      <c r="K219" s="3"/>
-      <c r="L219" s="3"/>
-      <c r="M219" s="3"/>
-      <c r="N219" s="3"/>
-      <c r="O219" s="3"/>
-      <c r="P219" s="3"/>
-      <c r="Q219" s="3"/>
-      <c r="R219" s="3"/>
-      <c r="S219" s="3"/>
-      <c r="T219" s="3"/>
-      <c r="U219" s="3"/>
-      <c r="V219" s="3"/>
-      <c r="W219" s="3"/>
-      <c r="X219" s="3"/>
-      <c r="Y219" s="3"/>
-      <c r="Z219" s="3"/>
-      <c r="AA219" s="3"/>
-      <c r="AB219" s="3"/>
-      <c r="AC219" s="3"/>
-      <c r="AD219" s="3"/>
-      <c r="AE219" s="3"/>
-      <c r="AF219" s="3"/>
-      <c r="AG219" s="3"/>
-      <c r="AH219" s="3"/>
-      <c r="AI219" s="3"/>
-      <c r="AJ219" s="3"/>
-      <c r="AK219" s="3"/>
-      <c r="AL219" s="3"/>
-      <c r="AM219" s="3"/>
-      <c r="AN219" s="3"/>
-      <c r="AO219" s="3"/>
-      <c r="AP219" s="3"/>
-      <c r="AQ219" s="3"/>
-      <c r="AR219" s="3"/>
-      <c r="AS219" s="3"/>
-      <c r="AT219" s="3"/>
-      <c r="AU219" s="3"/>
-      <c r="AV219" s="3"/>
-      <c r="AW219" s="3"/>
-      <c r="AX219" s="3"/>
-      <c r="AY219" s="3"/>
-      <c r="AZ219" s="3"/>
-      <c r="BA219" s="3"/>
-      <c r="BB219" s="3"/>
-      <c r="BC219" s="3"/>
-      <c r="BD219" s="3"/>
-      <c r="BE219" s="3"/>
+      <c r="BF218" s="3"/>
+      <c r="BG218" s="3"/>
+      <c r="BH218" s="3"/>
+      <c r="BI218" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{848A9855-F722-423E-95DB-AE2621A9CE62}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/BOSS.DE.xlsx
+++ b/BOSS.DE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E9EE83-6985-40CF-86EC-AF598DA39E6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83A16403-3ECA-4586-A840-2B4860AC94FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" activeTab="1" xr2:uid="{09B18DE7-4EEF-4A72-AC57-80486CCDDA74}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{09B18DE7-4EEF-4A72-AC57-80486CCDDA74}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -40,18 +40,9 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={D81B57CA-BD4B-4035-AE68-E24052A657A2}</author>
-    <author>tc={5337027C-6CD1-40E4-8BA0-D358F92A1B78}</author>
   </authors>
   <commentList>
     <comment ref="L21" authorId="0" shapeId="0" xr:uid="{D81B57CA-BD4B-4035-AE68-E24052A657A2}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Consensus of 4 analysts</t>
-      </text>
-    </comment>
-    <comment ref="L26" authorId="1" shapeId="0" xr:uid="{5337027C-6CD1-40E4-8BA0-D358F92A1B78}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -314,7 +305,7 @@
     <numFmt numFmtId="164" formatCode="#,##0;\(#,##0\)"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -353,12 +344,6 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -422,16 +407,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>604838</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>61913</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>33337</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>4763</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -446,8 +431,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8015288" y="152400"/>
-          <a:ext cx="14287" cy="10039350"/>
+          <a:off x="8648700" y="61913"/>
+          <a:ext cx="14287" cy="9848850"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -799,9 +784,6 @@
   <threadedComment ref="L21" dT="2025-05-06T11:33:50.96" personId="{BC3090F9-DCFB-461E-938B-BB97A04862C6}" id="{D81B57CA-BD4B-4035-AE68-E24052A657A2}">
     <text>Consensus of 4 analysts</text>
   </threadedComment>
-  <threadedComment ref="L26" dT="2025-05-06T11:34:06.98" personId="{BC3090F9-DCFB-461E-938B-BB97A04862C6}" id="{5337027C-6CD1-40E4-8BA0-D358F92A1B78}">
-    <text>Consensus of 4 analysts</text>
-  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -809,7 +791,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8611755C-CD3F-4338-B61A-F6ABE7723C78}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
@@ -831,7 +813,7 @@
         <v>2</v>
       </c>
       <c r="J2">
-        <v>38.450000000000003</v>
+        <v>41.48</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -842,7 +824,7 @@
         <v>70.400000000000006</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -854,7 +836,7 @@
       </c>
       <c r="J4" s="3">
         <f>+J2*J3</f>
-        <v>2706.8800000000006</v>
+        <v>2920.192</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -865,10 +847,11 @@
         <v>5</v>
       </c>
       <c r="J5" s="3">
-        <v>107</v>
+        <f>106+46</f>
+        <v>152</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -876,10 +859,11 @@
         <v>6</v>
       </c>
       <c r="J6" s="3">
-        <v>327</v>
+        <f>284+62</f>
+        <v>346</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -888,7 +872,7 @@
       </c>
       <c r="J7" s="3">
         <f>+J4-J5+J6</f>
-        <v>2926.8800000000006</v>
+        <v>3114.192</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -938,11 +922,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D20D4061-CFF8-435B-9C35-BFCD41DEF5B1}">
   <dimension ref="A1:BI218"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1052,7 +1036,9 @@
         <f>564</f>
         <v>564</v>
       </c>
-      <c r="L3" s="7"/>
+      <c r="L3" s="7">
+        <v>562</v>
+      </c>
       <c r="M3" s="7"/>
       <c r="N3" s="7"/>
       <c r="O3" s="7"/>
@@ -1137,7 +1123,9 @@
         <f>579</f>
         <v>579</v>
       </c>
-      <c r="L4" s="7"/>
+      <c r="L4" s="7">
+        <v>557</v>
+      </c>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
@@ -1222,7 +1210,9 @@
         <f>376</f>
         <v>376</v>
       </c>
-      <c r="L5" s="7"/>
+      <c r="L5" s="7">
+        <v>376</v>
+      </c>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
@@ -1300,7 +1290,10 @@
       <c r="K6" s="8">
         <v>1519</v>
       </c>
-      <c r="L6" s="8"/>
+      <c r="L6" s="8">
+        <f>+SUM(L3:L5)</f>
+        <v>1495</v>
+      </c>
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
@@ -1375,7 +1368,9 @@
       <c r="K7" s="7">
         <v>500</v>
       </c>
-      <c r="L7" s="7"/>
+      <c r="L7" s="7">
+        <v>491</v>
+      </c>
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
@@ -1545,7 +1540,9 @@
       <c r="K10" s="7">
         <v>766</v>
       </c>
-      <c r="L10" s="7"/>
+      <c r="L10" s="7">
+        <v>808</v>
+      </c>
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
@@ -1621,7 +1618,9 @@
       <c r="K11" s="7">
         <v>70</v>
       </c>
-      <c r="L11" s="7"/>
+      <c r="L11" s="7">
+        <v>62</v>
+      </c>
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
@@ -1697,7 +1696,9 @@
       <c r="K12" s="7">
         <v>163</v>
       </c>
-      <c r="L12" s="7"/>
+      <c r="L12" s="7">
+        <v>132</v>
+      </c>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
@@ -1773,7 +1774,9 @@
       <c r="K13" s="7">
         <v>631</v>
       </c>
-      <c r="L13" s="7"/>
+      <c r="L13" s="7">
+        <v>618</v>
+      </c>
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
@@ -1849,7 +1852,9 @@
       <c r="K14" s="7">
         <v>212</v>
       </c>
-      <c r="L14" s="7"/>
+      <c r="L14" s="7">
+        <v>236</v>
+      </c>
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
@@ -1925,7 +1930,9 @@
       <c r="K15" s="7">
         <v>130</v>
       </c>
-      <c r="L15" s="7"/>
+      <c r="L15" s="7">
+        <v>124</v>
+      </c>
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
@@ -2001,7 +2008,9 @@
       <c r="K16" s="7">
         <v>26</v>
       </c>
-      <c r="L16" s="7"/>
+      <c r="L16" s="7">
+        <v>24</v>
+      </c>
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
@@ -2077,7 +2086,9 @@
       <c r="K17" s="7">
         <v>473</v>
       </c>
-      <c r="L17" s="7"/>
+      <c r="L17" s="7">
+        <v>542</v>
+      </c>
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
@@ -2153,7 +2164,9 @@
       <c r="K18" s="7">
         <v>296</v>
       </c>
-      <c r="L18" s="7"/>
+      <c r="L18" s="7">
+        <v>237</v>
+      </c>
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
@@ -2229,7 +2242,9 @@
       <c r="K19" s="7">
         <v>204</v>
       </c>
-      <c r="L19" s="7"/>
+      <c r="L19" s="7">
+        <v>199</v>
+      </c>
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
@@ -2305,7 +2320,9 @@
       <c r="K20" s="7">
         <v>26</v>
       </c>
-      <c r="L20" s="7"/>
+      <c r="L20" s="7">
+        <v>24</v>
+      </c>
       <c r="M20" s="7"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
@@ -2396,7 +2413,7 @@
         <v>999</v>
       </c>
       <c r="L21" s="8">
-        <v>1010</v>
+        <v>1002</v>
       </c>
       <c r="M21" s="8"/>
       <c r="N21" s="8"/>
@@ -2487,7 +2504,9 @@
       <c r="K22" s="7">
         <v>386</v>
       </c>
-      <c r="L22" s="7"/>
+      <c r="L22" s="7">
+        <v>372</v>
+      </c>
       <c r="M22" s="7"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
@@ -2584,7 +2603,10 @@
         <f>+K21-K22</f>
         <v>613</v>
       </c>
-      <c r="L23" s="7"/>
+      <c r="L23" s="7">
+        <f>+L21-L22</f>
+        <v>630</v>
+      </c>
       <c r="M23" s="7"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
@@ -2677,7 +2699,9 @@
       <c r="K24" s="7">
         <v>441</v>
       </c>
-      <c r="L24" s="7"/>
+      <c r="L24" s="7">
+        <v>433</v>
+      </c>
       <c r="M24" s="7"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
@@ -2767,7 +2791,9 @@
       <c r="K25" s="7">
         <v>110</v>
       </c>
-      <c r="L25" s="7"/>
+      <c r="L25" s="7">
+        <v>116</v>
+      </c>
       <c r="M25" s="7"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
@@ -2857,7 +2883,7 @@
         <v>95</v>
       </c>
       <c r="J26" s="7">
-        <f t="shared" ref="J26:K26" si="5">+J23-SUM(J24:J25)</f>
+        <f t="shared" ref="J26:L26" si="5">+J23-SUM(J24:J25)</f>
         <v>125</v>
       </c>
       <c r="K26" s="7">
@@ -2865,7 +2891,8 @@
         <v>62</v>
       </c>
       <c r="L26" s="7">
-        <v>88.2</v>
+        <f t="shared" si="5"/>
+        <v>81</v>
       </c>
       <c r="M26" s="7"/>
       <c r="N26" s="7"/>
@@ -2959,7 +2986,9 @@
       <c r="K27" s="7">
         <v>-9</v>
       </c>
-      <c r="L27" s="7"/>
+      <c r="L27" s="7">
+        <v>-12</v>
+      </c>
       <c r="M27" s="7"/>
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
@@ -3049,14 +3078,17 @@
         <v>77</v>
       </c>
       <c r="J28" s="7">
-        <f t="shared" ref="J28:K28" si="7">+J26+J27</f>
+        <f t="shared" ref="J28:L28" si="7">+J26+J27</f>
         <v>112</v>
       </c>
       <c r="K28" s="7">
         <f t="shared" si="7"/>
         <v>53</v>
       </c>
-      <c r="L28" s="7"/>
+      <c r="L28" s="7">
+        <f t="shared" si="7"/>
+        <v>69</v>
+      </c>
       <c r="M28" s="7"/>
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
@@ -3149,7 +3181,9 @@
       <c r="K29" s="7">
         <v>15</v>
       </c>
-      <c r="L29" s="7"/>
+      <c r="L29" s="7">
+        <v>19</v>
+      </c>
       <c r="M29" s="7"/>
       <c r="N29" s="7"/>
       <c r="O29" s="7"/>
@@ -3239,14 +3273,17 @@
         <v>55</v>
       </c>
       <c r="J30" s="7">
-        <f t="shared" ref="J30:K30" si="9">+J28-J29</f>
+        <f t="shared" ref="J30" si="9">+J28-J29</f>
         <v>87</v>
       </c>
       <c r="K30" s="7">
-        <f t="shared" si="9"/>
+        <f>+K28-K29</f>
         <v>38</v>
       </c>
-      <c r="L30" s="7"/>
+      <c r="L30" s="7">
+        <f>+L28-L29</f>
+        <v>50</v>
+      </c>
       <c r="M30" s="7"/>
       <c r="N30" s="7"/>
       <c r="O30" s="7"/>
@@ -3339,7 +3376,9 @@
       <c r="K31" s="7">
         <v>2</v>
       </c>
-      <c r="L31" s="7"/>
+      <c r="L31" s="7">
+        <v>3</v>
+      </c>
       <c r="M31" s="7"/>
       <c r="N31" s="7"/>
       <c r="O31" s="7"/>
@@ -3429,14 +3468,17 @@
         <v>54</v>
       </c>
       <c r="J32" s="7">
-        <f t="shared" ref="J32:K32" si="11">+J30-J31</f>
+        <f t="shared" ref="J32" si="11">+J30-J31</f>
         <v>83</v>
       </c>
       <c r="K32" s="7">
-        <f t="shared" si="11"/>
+        <f>+K30-K31</f>
         <v>36</v>
       </c>
-      <c r="L32" s="7"/>
+      <c r="L32" s="7">
+        <f>+L30-L31</f>
+        <v>47</v>
+      </c>
       <c r="M32" s="7"/>
       <c r="N32" s="7"/>
       <c r="O32" s="7"/>
@@ -3574,7 +3616,7 @@
         <v>0.89488636363636354</v>
       </c>
       <c r="F34" s="5">
-        <f t="shared" ref="F34:K34" si="13">+F32/F35</f>
+        <f t="shared" ref="F34:J34" si="13">+F32/F35</f>
         <v>1.1789772727272727</v>
       </c>
       <c r="G34" s="5">
@@ -3594,10 +3636,13 @@
         <v>1.1789772727272727</v>
       </c>
       <c r="K34" s="5">
-        <f t="shared" si="13"/>
+        <f>+K32/K35</f>
         <v>0.51136363636363635</v>
       </c>
-      <c r="L34" s="5"/>
+      <c r="L34" s="5">
+        <f>+L32/L35</f>
+        <v>0.66761363636363635</v>
+      </c>
       <c r="M34" s="5"/>
       <c r="N34" s="5"/>
       <c r="O34" s="3"/>
@@ -3697,7 +3742,9 @@
       <c r="K35" s="9">
         <v>70.400000000000006</v>
       </c>
-      <c r="L35" s="9"/>
+      <c r="L35" s="9">
+        <v>70.400000000000006</v>
+      </c>
       <c r="M35" s="9"/>
       <c r="N35" s="9"/>
       <c r="O35" s="3"/>
@@ -3824,23 +3871,23 @@
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
       <c r="G37" s="6">
-        <f>+G6/C6-1</f>
+        <f t="shared" ref="G37:K38" si="15">+G6/C6-1</f>
         <v>5.6417489421720646E-3</v>
       </c>
       <c r="H37" s="6">
-        <f>+H6/D6-1</f>
+        <f t="shared" si="15"/>
         <v>5.0775740479548581E-2</v>
       </c>
       <c r="I37" s="6">
-        <f>+I6/E6-1</f>
+        <f t="shared" si="15"/>
         <v>4.6544428772919533E-2</v>
       </c>
       <c r="J37" s="6">
-        <f>+J6/F6-1</f>
+        <f t="shared" si="15"/>
         <v>8.0394922425952142E-2</v>
       </c>
       <c r="K37" s="6">
-        <f>+K6/G6-1</f>
+        <f t="shared" si="15"/>
         <v>6.5217391304347894E-2</v>
       </c>
       <c r="L37" s="6"/>
@@ -3849,23 +3896,23 @@
       <c r="O37" s="3"/>
       <c r="P37" s="3"/>
       <c r="Q37" s="6" t="e">
-        <f>+Q6/P6-1</f>
+        <f t="shared" ref="Q37:U38" si="16">+Q6/P6-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R37" s="6" t="e">
-        <f>+R6/Q6-1</f>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S37" s="6" t="e">
-        <f>+S6/R6-1</f>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T37" s="6">
-        <f>+T6/S6-1</f>
+        <f t="shared" si="16"/>
         <v>7.7507598784194442E-2</v>
       </c>
       <c r="U37" s="6">
-        <f>+U6/T6-1</f>
+        <f t="shared" si="16"/>
         <v>8.0394922425952142E-2</v>
       </c>
       <c r="V37" s="3"/>
@@ -3918,23 +3965,23 @@
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="6">
-        <f>+G7/C7-1</f>
+        <f t="shared" si="15"/>
         <v>2.044989775051187E-3</v>
       </c>
       <c r="H38" s="6">
-        <f>+H7/D7-1</f>
+        <f t="shared" si="15"/>
         <v>1.0224948875255713E-2</v>
       </c>
       <c r="I38" s="6">
-        <f>+I7/E7-1</f>
+        <f t="shared" si="15"/>
         <v>2.044989775051187E-3</v>
       </c>
       <c r="J38" s="6">
-        <f>+J7/F7-1</f>
+        <f t="shared" si="15"/>
         <v>2.249488752556239E-2</v>
       </c>
       <c r="K38" s="6">
-        <f>+K7/G7-1</f>
+        <f t="shared" si="15"/>
         <v>2.0408163265306145E-2</v>
       </c>
       <c r="L38" s="6"/>
@@ -3943,23 +3990,23 @@
       <c r="O38" s="3"/>
       <c r="P38" s="3"/>
       <c r="Q38" s="6" t="e">
-        <f>+Q7/P7-1</f>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R38" s="6" t="e">
-        <f>+R7/Q7-1</f>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S38" s="6" t="e">
-        <f>+S7/R7-1</f>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T38" s="6">
-        <f>+T7/S7-1</f>
+        <f t="shared" si="16"/>
         <v>4.042553191489362E-2</v>
       </c>
       <c r="U38" s="6">
-        <f>+U7/T7-1</f>
+        <f t="shared" si="16"/>
         <v>2.249488752556239E-2</v>
       </c>
       <c r="V38" s="3"/>
@@ -4012,11 +4059,11 @@
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
       <c r="G39" s="6">
-        <f t="shared" ref="G39:H48" si="15">+G10/C10-1</f>
+        <f t="shared" ref="G39:H48" si="17">+G10/C10-1</f>
         <v>4.1554959785522705E-2</v>
       </c>
       <c r="H39" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-1.9753086419753041E-2</v>
       </c>
       <c r="I39" s="6">
@@ -4037,15 +4084,15 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="6" t="e">
-        <f t="shared" ref="Q39:S48" si="16">+Q10/P10-1</f>
+        <f t="shared" ref="Q39:S48" si="18">+Q10/P10-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R39" s="6" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S39" s="6" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T39" s="6">
@@ -4106,23 +4153,23 @@
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
       <c r="G40" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4.4776119402984982E-2</v>
       </c>
       <c r="H40" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.4925373134328401E-2</v>
       </c>
       <c r="I40" s="6">
-        <f t="shared" ref="I40:K48" si="17">+I11/E11-1</f>
+        <f t="shared" ref="I40:K48" si="19">+I11/E11-1</f>
         <v>1.3698630136986356E-2</v>
       </c>
       <c r="J40" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>4.9382716049382713E-2</v>
       </c>
       <c r="K40" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="L40" s="6"/>
@@ -4131,23 +4178,23 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="6" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R40" s="6" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S40" s="6" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T40" s="6">
-        <f t="shared" ref="T40:U48" si="18">+T11/S11-1</f>
+        <f t="shared" ref="T40:U48" si="20">+T11/S11-1</f>
         <v>0.20502092050209209</v>
       </c>
       <c r="U40" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>3.125E-2</v>
       </c>
       <c r="V40" s="3"/>
@@ -4200,23 +4247,23 @@
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
       <c r="G41" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>7.7419354838709653E-2</v>
       </c>
       <c r="H41" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2.7027027027026973E-2</v>
       </c>
       <c r="I41" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.1834319526627279E-2</v>
       </c>
       <c r="J41" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>6.0773480662983381E-2</v>
       </c>
       <c r="K41" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-2.39520958083832E-2</v>
       </c>
       <c r="L41" s="6"/>
@@ -4225,23 +4272,23 @@
       <c r="O41" s="3"/>
       <c r="P41" s="3"/>
       <c r="Q41" s="6" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R41" s="6" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S41" s="6" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T41" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.19816513761467891</v>
       </c>
       <c r="U41" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>4.4410413476263511E-2</v>
       </c>
       <c r="V41" s="3"/>
@@ -4294,23 +4341,23 @@
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
       <c r="G42" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4.1050903119868698E-2</v>
       </c>
       <c r="H42" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-2.5806451612903181E-2</v>
       </c>
       <c r="I42" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.3782542113323082E-2</v>
       </c>
       <c r="J42" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>6.6176470588235281E-2</v>
       </c>
       <c r="K42" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-4.7318611987381409E-3</v>
       </c>
       <c r="L42" s="6"/>
@@ -4319,23 +4366,23 @@
       <c r="O42" s="3"/>
       <c r="P42" s="3"/>
       <c r="Q42" s="6" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R42" s="6" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S42" s="6" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T42" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.11246200607902734</v>
       </c>
       <c r="U42" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>2.4590163934426146E-2</v>
       </c>
       <c r="V42" s="3"/>
@@ -4388,23 +4435,23 @@
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
       <c r="G43" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.11794871794871797</v>
       </c>
       <c r="H43" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5.9322033898305149E-2</v>
       </c>
       <c r="I43" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J43" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>9.4594594594594517E-2</v>
       </c>
       <c r="K43" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-2.752293577981646E-2</v>
       </c>
       <c r="L43" s="6"/>
@@ -4413,23 +4460,23 @@
       <c r="O43" s="3"/>
       <c r="P43" s="3"/>
       <c r="Q43" s="6" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R43" s="6" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S43" s="6" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T43" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.21039290240811148</v>
       </c>
       <c r="U43" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>6.8062827225130906E-2</v>
       </c>
       <c r="V43" s="3"/>
@@ -4482,23 +4529,23 @@
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
       <c r="G44" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-1.4184397163120588E-2</v>
       </c>
       <c r="H44" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-6.944444444444442E-2</v>
       </c>
       <c r="I44" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-8.333333333333337E-2</v>
       </c>
       <c r="J44" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-5.8479532163743242E-3</v>
       </c>
       <c r="K44" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-6.4748201438848962E-2</v>
       </c>
       <c r="L44" s="6"/>
@@ -4507,23 +4554,23 @@
       <c r="O44" s="3"/>
       <c r="P44" s="3"/>
       <c r="Q44" s="6" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R44" s="6" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S44" s="6" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T44" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.23340471092077086</v>
       </c>
       <c r="U44" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>-3.993055555555558E-2</v>
       </c>
       <c r="V44" s="3"/>
@@ -4576,23 +4623,23 @@
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
       <c r="G45" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H45" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I45" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.11538461538461542</v>
       </c>
       <c r="J45" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>6.8965517241379226E-2</v>
       </c>
       <c r="K45" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.13043478260869557</v>
       </c>
       <c r="L45" s="6"/>
@@ -4601,23 +4648,23 @@
       <c r="O45" s="3"/>
       <c r="P45" s="3"/>
       <c r="Q45" s="6" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R45" s="6" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S45" s="6" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T45" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.13043478260869557</v>
       </c>
       <c r="U45" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>4.8076923076923128E-2</v>
       </c>
       <c r="V45" s="3"/>
@@ -4670,23 +4717,23 @@
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
       <c r="G46" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.4432989690721598E-2</v>
       </c>
       <c r="H46" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-2.931034482758621E-2</v>
       </c>
       <c r="I46" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-4.2226487523992273E-2</v>
       </c>
       <c r="J46" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.4792899408284654E-3</v>
       </c>
       <c r="K46" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-3.8617886178861749E-2</v>
       </c>
       <c r="L46" s="6"/>
@@ -4695,23 +4742,23 @@
       <c r="O46" s="3"/>
       <c r="P46" s="3"/>
       <c r="Q46" s="6" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R46" s="6" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S46" s="6" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T46" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.12202380952380953</v>
       </c>
       <c r="U46" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>-1.3704686118479192E-2</v>
       </c>
       <c r="V46" s="3"/>
@@ -4764,23 +4811,23 @@
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
       <c r="G47" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>7.4468085106383031E-2</v>
       </c>
       <c r="H47" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5.3571428571428603E-2</v>
       </c>
       <c r="I47" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>3.0716723549488067E-2</v>
       </c>
       <c r="J47" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.15384615384615374</v>
       </c>
       <c r="K47" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-2.3102310231023049E-2</v>
       </c>
       <c r="L47" s="6"/>
@@ -4789,23 +4836,23 @@
       <c r="O47" s="3"/>
       <c r="P47" s="3"/>
       <c r="Q47" s="6" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R47" s="6" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S47" s="6" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T47" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.15418994413407816</v>
       </c>
       <c r="U47" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>7.5508228460793747E-2</v>
       </c>
       <c r="V47" s="3"/>
@@ -4858,23 +4905,23 @@
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
       <c r="G48" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>9.550561797752799E-2</v>
       </c>
       <c r="H48" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-3.5714285714285698E-2</v>
       </c>
       <c r="I48" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>6.4171122994652441E-2</v>
       </c>
       <c r="J48" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.10970464135021096</v>
       </c>
       <c r="K48" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>4.6153846153846212E-2</v>
       </c>
       <c r="L48" s="6"/>
@@ -4883,23 +4930,23 @@
       <c r="O48" s="3"/>
       <c r="P48" s="3"/>
       <c r="Q48" s="6" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R48" s="6" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S48" s="6" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T48" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.2314814814814814</v>
       </c>
       <c r="U48" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>6.0150375939849621E-2</v>
       </c>
       <c r="V48" s="3"/>
@@ -4952,11 +4999,11 @@
       <c r="E49" s="11"/>
       <c r="F49" s="11"/>
       <c r="G49" s="12">
-        <f t="shared" ref="G49:H49" si="19">+G21/C21-1</f>
+        <f t="shared" ref="G49:H49" si="21">+G21/C21-1</f>
         <v>4.7520661157024691E-2</v>
       </c>
       <c r="H49" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>-1.0721247563352798E-2</v>
       </c>
       <c r="I49" s="12">
@@ -4964,11 +5011,11 @@
         <v>1.9474196689386325E-3</v>
       </c>
       <c r="J49" s="12">
-        <f t="shared" ref="J49:K49" si="20">+J21/F21-1</f>
+        <f t="shared" ref="J49:K49" si="22">+J21/F21-1</f>
         <v>6.2074829931972886E-2</v>
       </c>
       <c r="K49" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>-1.4792899408283988E-2</v>
       </c>
       <c r="L49" s="6"/>
@@ -4977,15 +5024,15 @@
       <c r="O49" s="11"/>
       <c r="P49" s="11"/>
       <c r="Q49" s="12" t="e">
-        <f t="shared" ref="Q49:S49" si="21">+Q21/P21-1</f>
+        <f t="shared" ref="Q49:S49" si="23">+Q21/P21-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R49" s="12" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S49" s="12" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T49" s="12">
@@ -5042,27 +5089,27 @@
         <v>57</v>
       </c>
       <c r="C50" s="6">
-        <f t="shared" ref="C50:H50" si="22">+C23/C21</f>
+        <f t="shared" ref="C50:H50" si="24">+C23/C21</f>
         <v>0.61363636363636365</v>
       </c>
       <c r="D50" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.62378167641325533</v>
       </c>
       <c r="E50" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.60662122687439146</v>
       </c>
       <c r="F50" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.61479591836734693</v>
       </c>
       <c r="G50" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.61439842209072981</v>
       </c>
       <c r="H50" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.62857142857142856</v>
       </c>
       <c r="I50" s="6">
@@ -5082,19 +5129,19 @@
       <c r="N50" s="6"/>
       <c r="O50" s="3"/>
       <c r="P50" s="6" t="e">
-        <f t="shared" ref="P50:S50" si="23">+P23/P21</f>
+        <f t="shared" ref="P50:S50" si="25">+P23/P21</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q50" s="6" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R50" s="6" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S50" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.61791290057518489</v>
       </c>
       <c r="T50" s="6">
@@ -5151,27 +5198,27 @@
         <v>58</v>
       </c>
       <c r="C51" s="6">
-        <f t="shared" ref="C51:H51" si="24">+C26/C21</f>
+        <f t="shared" ref="C51:H51" si="26">+C26/C21</f>
         <v>6.8181818181818177E-2</v>
       </c>
       <c r="D51" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.1189083820662768</v>
       </c>
       <c r="E51" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.10029211295034079</v>
       </c>
       <c r="F51" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.10034013605442177</v>
       </c>
       <c r="G51" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>6.8047337278106509E-2</v>
       </c>
       <c r="H51" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>6.9950738916256153E-2</v>
       </c>
       <c r="I51" s="6">
@@ -5191,19 +5238,19 @@
       <c r="N51" s="6"/>
       <c r="O51" s="3"/>
       <c r="P51" s="6" t="e">
-        <f t="shared" ref="P51:S51" si="25">+P26/P21</f>
+        <f t="shared" ref="P51:S51" si="27">+P26/P21</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q51" s="6" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R51" s="6" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S51" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>9.1755683374417973E-2</v>
       </c>
       <c r="T51" s="6">
@@ -5260,27 +5307,27 @@
         <v>59</v>
       </c>
       <c r="C52" s="6">
-        <f t="shared" ref="C52:H52" si="26">+C29/C28</f>
+        <f t="shared" ref="C52:H52" si="28">+C29/C28</f>
         <v>0.27777777777777779</v>
       </c>
       <c r="D52" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.27272727272727271</v>
       </c>
       <c r="E52" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.28409090909090912</v>
       </c>
       <c r="F52" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.16346153846153846</v>
       </c>
       <c r="G52" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.2807017543859649</v>
       </c>
       <c r="H52" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.27272727272727271</v>
       </c>
       <c r="I52" s="6">
@@ -5300,19 +5347,19 @@
       <c r="N52" s="6"/>
       <c r="O52" s="3"/>
       <c r="P52" s="6" t="e">
-        <f t="shared" ref="P52:S52" si="27">+P29/P28</f>
+        <f t="shared" ref="P52:S52" si="29">+P29/P28</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q52" s="6" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R52" s="6" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S52" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0.22105263157894736</v>
       </c>
       <c r="T52" s="6">

--- a/BOSS.DE.xlsx
+++ b/BOSS.DE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83A16403-3ECA-4586-A840-2B4860AC94FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5249E33E-D82F-4488-B815-4B17B1E122AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{09B18DE7-4EEF-4A72-AC57-80486CCDDA74}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" activeTab="1" xr2:uid="{09B18DE7-4EEF-4A72-AC57-80486CCDDA74}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -305,7 +305,7 @@
     <numFmt numFmtId="164" formatCode="#,##0;\(#,##0\)"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -314,12 +314,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -338,12 +336,25 @@
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <u/>
-      <sz val="11"/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -368,22 +379,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -791,33 +803,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8611755C-CD3F-4338-B61A-F6ABE7723C78}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" customWidth="1"/>
+    <col min="1" max="1" width="3.85546875" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="2">
         <v>41.48</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I3" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J3" s="3">
@@ -827,11 +840,11 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="J4" s="3">
@@ -839,11 +852,11 @@
         <v>2920.192</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J5" s="3">
@@ -854,8 +867,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I6" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="J6" s="3">
@@ -866,8 +879,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I7" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="J7" s="3">
@@ -875,38 +888,38 @@
         <v>3114.192</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I9" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I9" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="2">
         <v>1924</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I10" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I10" s="2" t="s">
         <v>78</v>
       </c>
       <c r="J10" s="3">
         <v>18376</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="10" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B12" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="I12" s="10" t="s">
+      <c r="I12" s="6" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" s="2" t="s">
         <v>73</v>
       </c>
     </row>
@@ -922,25 +935,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D20D4061-CFF8-435B-9C35-BFCD41DEF5B1}">
   <dimension ref="A1:BI218"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.5703125" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.5703125" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.2">
       <c r="C2" s="4" t="s">
         <v>12</v>
       </c>
@@ -996,8 +1010,8 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C3" s="7">
@@ -1083,8 +1097,8 @@
       <c r="AT3" s="7"/>
       <c r="AU3" s="7"/>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C4" s="7">
@@ -1170,8 +1184,8 @@
       <c r="AT4" s="7"/>
       <c r="AU4" s="7"/>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C5" s="7">
@@ -1257,8 +1271,8 @@
       <c r="AT5" s="7"/>
       <c r="AU5" s="7"/>
     </row>
-    <row r="6" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6"/>
+    <row r="6" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
       <c r="B6" s="1" t="s">
         <v>79</v>
       </c>
@@ -1336,8 +1350,8 @@
       <c r="AT6" s="8"/>
       <c r="AU6" s="8"/>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C7" s="7">
@@ -1413,7 +1427,7 @@
       <c r="AT7" s="7"/>
       <c r="AU7" s="7"/>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.2">
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
@@ -1460,7 +1474,7 @@
       <c r="AT8" s="7"/>
       <c r="AU8" s="7"/>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.2">
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
@@ -1507,8 +1521,8 @@
       <c r="AT9" s="7"/>
       <c r="AU9" s="7"/>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C10" s="7">
@@ -1585,8 +1599,8 @@
       <c r="AT10" s="7"/>
       <c r="AU10" s="7"/>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C11" s="7">
@@ -1663,8 +1677,8 @@
       <c r="AT11" s="7"/>
       <c r="AU11" s="7"/>
     </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="12" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C12" s="7">
@@ -1741,8 +1755,8 @@
       <c r="AT12" s="7"/>
       <c r="AU12" s="7"/>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="13" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C13" s="7">
@@ -1819,8 +1833,8 @@
       <c r="AT13" s="7"/>
       <c r="AU13" s="7"/>
     </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="14" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C14" s="7">
@@ -1897,8 +1911,8 @@
       <c r="AT14" s="7"/>
       <c r="AU14" s="7"/>
     </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C15" s="7">
@@ -1975,8 +1989,8 @@
       <c r="AT15" s="7"/>
       <c r="AU15" s="7"/>
     </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    <row r="16" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C16" s="7">
@@ -2053,8 +2067,8 @@
       <c r="AT16" s="7"/>
       <c r="AU16" s="7"/>
     </row>
-    <row r="17" spans="2:61" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+    <row r="17" spans="2:61" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C17" s="7">
@@ -2131,8 +2145,8 @@
       <c r="AT17" s="7"/>
       <c r="AU17" s="7"/>
     </row>
-    <row r="18" spans="2:61" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+    <row r="18" spans="2:61" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C18" s="7">
@@ -2209,8 +2223,8 @@
       <c r="AT18" s="7"/>
       <c r="AU18" s="7"/>
     </row>
-    <row r="19" spans="2:61" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+    <row r="19" spans="2:61" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C19" s="7">
@@ -2287,8 +2301,8 @@
       <c r="AT19" s="7"/>
       <c r="AU19" s="7"/>
     </row>
-    <row r="20" spans="2:61" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    <row r="20" spans="2:61" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C20" s="7">
@@ -2379,7 +2393,7 @@
       <c r="BH20" s="3"/>
       <c r="BI20" s="3"/>
     </row>
-    <row r="21" spans="2:61" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:61" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
         <v>19</v>
       </c>
@@ -2471,8 +2485,8 @@
       <c r="BH21" s="3"/>
       <c r="BI21" s="3"/>
     </row>
-    <row r="22" spans="2:61" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+    <row r="22" spans="2:61" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C22" s="7">
@@ -2563,8 +2577,8 @@
       <c r="BH22" s="3"/>
       <c r="BI22" s="3"/>
     </row>
-    <row r="23" spans="2:61" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+    <row r="23" spans="2:61" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C23" s="7">
@@ -2666,8 +2680,8 @@
       <c r="BH23" s="3"/>
       <c r="BI23" s="3"/>
     </row>
-    <row r="24" spans="2:61" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+    <row r="24" spans="2:61" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C24" s="7">
@@ -2758,8 +2772,8 @@
       <c r="BH24" s="3"/>
       <c r="BI24" s="3"/>
     </row>
-    <row r="25" spans="2:61" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+    <row r="25" spans="2:61" x14ac:dyDescent="0.2">
+      <c r="B25" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C25" s="7">
@@ -2850,8 +2864,8 @@
       <c r="BH25" s="3"/>
       <c r="BI25" s="3"/>
     </row>
-    <row r="26" spans="2:61" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+    <row r="26" spans="2:61" x14ac:dyDescent="0.2">
+      <c r="B26" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C26" s="7">
@@ -2953,8 +2967,8 @@
       <c r="BH26" s="3"/>
       <c r="BI26" s="3"/>
     </row>
-    <row r="27" spans="2:61" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+    <row r="27" spans="2:61" x14ac:dyDescent="0.2">
+      <c r="B27" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C27" s="7">
@@ -3045,8 +3059,8 @@
       <c r="BH27" s="3"/>
       <c r="BI27" s="3"/>
     </row>
-    <row r="28" spans="2:61" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+    <row r="28" spans="2:61" x14ac:dyDescent="0.2">
+      <c r="B28" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C28" s="7">
@@ -3148,8 +3162,8 @@
       <c r="BH28" s="3"/>
       <c r="BI28" s="3"/>
     </row>
-    <row r="29" spans="2:61" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+    <row r="29" spans="2:61" x14ac:dyDescent="0.2">
+      <c r="B29" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C29" s="7">
@@ -3240,8 +3254,8 @@
       <c r="BH29" s="3"/>
       <c r="BI29" s="3"/>
     </row>
-    <row r="30" spans="2:61" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+    <row r="30" spans="2:61" x14ac:dyDescent="0.2">
+      <c r="B30" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C30" s="7">
@@ -3343,8 +3357,8 @@
       <c r="BH30" s="3"/>
       <c r="BI30" s="3"/>
     </row>
-    <row r="31" spans="2:61" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+    <row r="31" spans="2:61" x14ac:dyDescent="0.2">
+      <c r="B31" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C31" s="7">
@@ -3435,8 +3449,8 @@
       <c r="BH31" s="3"/>
       <c r="BI31" s="3"/>
     </row>
-    <row r="32" spans="2:61" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
+    <row r="32" spans="2:61" x14ac:dyDescent="0.2">
+      <c r="B32" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C32" s="7">
@@ -3538,7 +3552,7 @@
       <c r="BH32" s="3"/>
       <c r="BI32" s="3"/>
     </row>
-    <row r="33" spans="2:61" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:61" x14ac:dyDescent="0.2">
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
@@ -3599,74 +3613,74 @@
       <c r="BH33" s="3"/>
       <c r="BI33" s="3"/>
     </row>
-    <row r="34" spans="2:61" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
+    <row r="34" spans="2:61" x14ac:dyDescent="0.2">
+      <c r="B34" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C34" s="9">
         <f t="shared" ref="C34:D34" si="12">+C32/C35</f>
         <v>0.49715909090909088</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D34" s="9">
         <f t="shared" si="12"/>
         <v>1.09375</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E34" s="9">
         <f>+E32/E35</f>
         <v>0.89488636363636354</v>
       </c>
-      <c r="F34" s="5">
+      <c r="F34" s="9">
         <f t="shared" ref="F34:J34" si="13">+F32/F35</f>
         <v>1.1789772727272727</v>
       </c>
-      <c r="G34" s="5">
+      <c r="G34" s="9">
         <f t="shared" si="13"/>
         <v>0.53977272727272718</v>
       </c>
-      <c r="H34" s="5">
+      <c r="H34" s="9">
         <f t="shared" si="13"/>
         <v>0.53977272727272718</v>
       </c>
-      <c r="I34" s="5">
+      <c r="I34" s="9">
         <f t="shared" si="13"/>
         <v>0.76704545454545447</v>
       </c>
-      <c r="J34" s="5">
+      <c r="J34" s="9">
         <f t="shared" si="13"/>
         <v>1.1789772727272727</v>
       </c>
-      <c r="K34" s="5">
+      <c r="K34" s="9">
         <f>+K32/K35</f>
         <v>0.51136363636363635</v>
       </c>
-      <c r="L34" s="5">
+      <c r="L34" s="9">
         <f>+L32/L35</f>
         <v>0.66761363636363635</v>
       </c>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
       <c r="O34" s="3"/>
-      <c r="P34" s="5" t="e">
+      <c r="P34" s="9" t="e">
         <f t="shared" ref="P34:S34" si="14">+P32/P35</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q34" s="5" t="e">
+      <c r="Q34" s="9" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R34" s="5" t="e">
+      <c r="R34" s="9" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S34" s="5">
+      <c r="S34" s="9">
         <f t="shared" si="14"/>
         <v>2.9829545454545454</v>
       </c>
-      <c r="T34" s="5">
+      <c r="T34" s="9">
         <f>+T32/T35</f>
         <v>3.6647727272727271</v>
       </c>
-      <c r="U34" s="5">
+      <c r="U34" s="9">
         <f>+U32/U35</f>
         <v>3.0255681818181817</v>
       </c>
@@ -3711,53 +3725,53 @@
       <c r="BH34" s="3"/>
       <c r="BI34" s="3"/>
     </row>
-    <row r="35" spans="2:61" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
+    <row r="35" spans="2:61" x14ac:dyDescent="0.2">
+      <c r="B35" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C35" s="9">
+      <c r="C35" s="10">
         <v>70.400000000000006</v>
       </c>
-      <c r="D35" s="9">
+      <c r="D35" s="10">
         <v>70.400000000000006</v>
       </c>
-      <c r="E35" s="9">
+      <c r="E35" s="10">
         <v>70.400000000000006</v>
       </c>
-      <c r="F35" s="9">
+      <c r="F35" s="10">
         <v>70.400000000000006</v>
       </c>
-      <c r="G35" s="9">
+      <c r="G35" s="10">
         <v>70.400000000000006</v>
       </c>
-      <c r="H35" s="9">
+      <c r="H35" s="10">
         <v>70.400000000000006</v>
       </c>
-      <c r="I35" s="9">
+      <c r="I35" s="10">
         <v>70.400000000000006</v>
       </c>
-      <c r="J35" s="9">
+      <c r="J35" s="10">
         <v>70.400000000000006</v>
       </c>
-      <c r="K35" s="9">
+      <c r="K35" s="10">
         <v>70.400000000000006</v>
       </c>
-      <c r="L35" s="9">
+      <c r="L35" s="10">
         <v>70.400000000000006</v>
       </c>
-      <c r="M35" s="9"/>
-      <c r="N35" s="9"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
       <c r="O35" s="3"/>
       <c r="P35" s="3"/>
       <c r="Q35" s="3"/>
       <c r="R35" s="3"/>
-      <c r="S35" s="9">
+      <c r="S35" s="10">
         <v>70.400000000000006</v>
       </c>
-      <c r="T35" s="9">
+      <c r="T35" s="10">
         <v>70.400000000000006</v>
       </c>
-      <c r="U35" s="9">
+      <c r="U35" s="10">
         <v>70.400000000000006</v>
       </c>
       <c r="V35" s="3"/>
@@ -3801,7 +3815,7 @@
       <c r="BH35" s="3"/>
       <c r="BI35" s="3"/>
     </row>
-    <row r="36" spans="2:61" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:61" x14ac:dyDescent="0.2">
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
@@ -3862,56 +3876,56 @@
       <c r="BH36" s="3"/>
       <c r="BI36" s="3"/>
     </row>
-    <row r="37" spans="2:61" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
+    <row r="37" spans="2:61" x14ac:dyDescent="0.2">
+      <c r="B37" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
-      <c r="G37" s="6">
+      <c r="G37" s="11">
         <f t="shared" ref="G37:K38" si="15">+G6/C6-1</f>
         <v>5.6417489421720646E-3</v>
       </c>
-      <c r="H37" s="6">
+      <c r="H37" s="11">
         <f t="shared" si="15"/>
         <v>5.0775740479548581E-2</v>
       </c>
-      <c r="I37" s="6">
+      <c r="I37" s="11">
         <f t="shared" si="15"/>
         <v>4.6544428772919533E-2</v>
       </c>
-      <c r="J37" s="6">
+      <c r="J37" s="11">
         <f t="shared" si="15"/>
         <v>8.0394922425952142E-2</v>
       </c>
-      <c r="K37" s="6">
+      <c r="K37" s="11">
         <f t="shared" si="15"/>
         <v>6.5217391304347894E-2</v>
       </c>
-      <c r="L37" s="6"/>
-      <c r="M37" s="6"/>
-      <c r="N37" s="6"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
       <c r="O37" s="3"/>
       <c r="P37" s="3"/>
-      <c r="Q37" s="6" t="e">
+      <c r="Q37" s="11" t="e">
         <f t="shared" ref="Q37:U38" si="16">+Q6/P6-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R37" s="6" t="e">
+      <c r="R37" s="11" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S37" s="6" t="e">
+      <c r="S37" s="11" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T37" s="6">
+      <c r="T37" s="11">
         <f t="shared" si="16"/>
         <v>7.7507598784194442E-2</v>
       </c>
-      <c r="U37" s="6">
+      <c r="U37" s="11">
         <f t="shared" si="16"/>
         <v>8.0394922425952142E-2</v>
       </c>
@@ -3956,56 +3970,56 @@
       <c r="BH37" s="3"/>
       <c r="BI37" s="3"/>
     </row>
-    <row r="38" spans="2:61" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
+    <row r="38" spans="2:61" x14ac:dyDescent="0.2">
+      <c r="B38" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
-      <c r="G38" s="6">
+      <c r="G38" s="11">
         <f t="shared" si="15"/>
         <v>2.044989775051187E-3</v>
       </c>
-      <c r="H38" s="6">
+      <c r="H38" s="11">
         <f t="shared" si="15"/>
         <v>1.0224948875255713E-2</v>
       </c>
-      <c r="I38" s="6">
+      <c r="I38" s="11">
         <f t="shared" si="15"/>
         <v>2.044989775051187E-3</v>
       </c>
-      <c r="J38" s="6">
+      <c r="J38" s="11">
         <f t="shared" si="15"/>
         <v>2.249488752556239E-2</v>
       </c>
-      <c r="K38" s="6">
+      <c r="K38" s="11">
         <f t="shared" si="15"/>
         <v>2.0408163265306145E-2</v>
       </c>
-      <c r="L38" s="6"/>
-      <c r="M38" s="6"/>
-      <c r="N38" s="6"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
       <c r="O38" s="3"/>
       <c r="P38" s="3"/>
-      <c r="Q38" s="6" t="e">
+      <c r="Q38" s="11" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R38" s="6" t="e">
+      <c r="R38" s="11" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S38" s="6" t="e">
+      <c r="S38" s="11" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T38" s="6">
+      <c r="T38" s="11">
         <f t="shared" si="16"/>
         <v>4.042553191489362E-2</v>
       </c>
-      <c r="U38" s="6">
+      <c r="U38" s="11">
         <f t="shared" si="16"/>
         <v>2.249488752556239E-2</v>
       </c>
@@ -4050,56 +4064,56 @@
       <c r="BH38" s="3"/>
       <c r="BI38" s="3"/>
     </row>
-    <row r="39" spans="2:61" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
+    <row r="39" spans="2:61" x14ac:dyDescent="0.2">
+      <c r="B39" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
-      <c r="G39" s="6">
+      <c r="G39" s="11">
         <f t="shared" ref="G39:H48" si="17">+G10/C10-1</f>
         <v>4.1554959785522705E-2</v>
       </c>
-      <c r="H39" s="6">
+      <c r="H39" s="11">
         <f t="shared" si="17"/>
         <v>-1.9753086419753041E-2</v>
       </c>
-      <c r="I39" s="6">
+      <c r="I39" s="11">
         <f>+I10/E10-1</f>
         <v>-1.2722646310432406E-3</v>
       </c>
-      <c r="J39" s="6">
+      <c r="J39" s="11">
         <f>+J10/F10-1</f>
         <v>6.4551422319474749E-2</v>
       </c>
-      <c r="K39" s="6">
+      <c r="K39" s="11">
         <f>+K10/G10-1</f>
         <v>-1.4157014157014203E-2</v>
       </c>
-      <c r="L39" s="6"/>
-      <c r="M39" s="6"/>
-      <c r="N39" s="6"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-      <c r="Q39" s="6" t="e">
+      <c r="Q39" s="11" t="e">
         <f t="shared" ref="Q39:S48" si="18">+Q10/P10-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R39" s="6" t="e">
+      <c r="R39" s="11" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S39" s="6" t="e">
+      <c r="S39" s="11" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T39" s="6">
+      <c r="T39" s="11">
         <f>+T10/S10-1</f>
         <v>0.13528591352859132</v>
       </c>
-      <c r="U39" s="6">
+      <c r="U39" s="11">
         <f>+U10/T10-1</f>
         <v>2.2420147420147529E-2</v>
       </c>
@@ -4144,56 +4158,56 @@
       <c r="BH39" s="3"/>
       <c r="BI39" s="3"/>
     </row>
-    <row r="40" spans="2:61" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
+    <row r="40" spans="2:61" x14ac:dyDescent="0.2">
+      <c r="B40" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
-      <c r="G40" s="6">
+      <c r="G40" s="11">
         <f t="shared" si="17"/>
         <v>4.4776119402984982E-2</v>
       </c>
-      <c r="H40" s="6">
+      <c r="H40" s="11">
         <f t="shared" si="17"/>
         <v>1.4925373134328401E-2</v>
       </c>
-      <c r="I40" s="6">
+      <c r="I40" s="11">
         <f t="shared" ref="I40:K48" si="19">+I11/E11-1</f>
         <v>1.3698630136986356E-2</v>
       </c>
-      <c r="J40" s="6">
+      <c r="J40" s="11">
         <f t="shared" si="19"/>
         <v>4.9382716049382713E-2</v>
       </c>
-      <c r="K40" s="6">
+      <c r="K40" s="11">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="L40" s="6"/>
-      <c r="M40" s="6"/>
-      <c r="N40" s="6"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-      <c r="Q40" s="6" t="e">
+      <c r="Q40" s="11" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R40" s="6" t="e">
+      <c r="R40" s="11" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S40" s="6" t="e">
+      <c r="S40" s="11" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T40" s="6">
+      <c r="T40" s="11">
         <f t="shared" ref="T40:U48" si="20">+T11/S11-1</f>
         <v>0.20502092050209209</v>
       </c>
-      <c r="U40" s="6">
+      <c r="U40" s="11">
         <f t="shared" si="20"/>
         <v>3.125E-2</v>
       </c>
@@ -4238,56 +4252,56 @@
       <c r="BH40" s="3"/>
       <c r="BI40" s="3"/>
     </row>
-    <row r="41" spans="2:61" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
+    <row r="41" spans="2:61" x14ac:dyDescent="0.2">
+      <c r="B41" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
-      <c r="G41" s="6">
+      <c r="G41" s="11">
         <f t="shared" si="17"/>
         <v>7.7419354838709653E-2</v>
       </c>
-      <c r="H41" s="6">
+      <c r="H41" s="11">
         <f t="shared" si="17"/>
         <v>2.7027027027026973E-2</v>
       </c>
-      <c r="I41" s="6">
+      <c r="I41" s="11">
         <f t="shared" si="19"/>
         <v>1.1834319526627279E-2</v>
       </c>
-      <c r="J41" s="6">
+      <c r="J41" s="11">
         <f t="shared" si="19"/>
         <v>6.0773480662983381E-2</v>
       </c>
-      <c r="K41" s="6">
+      <c r="K41" s="11">
         <f t="shared" si="19"/>
         <v>-2.39520958083832E-2</v>
       </c>
-      <c r="L41" s="6"/>
-      <c r="M41" s="6"/>
-      <c r="N41" s="6"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="11"/>
       <c r="O41" s="3"/>
       <c r="P41" s="3"/>
-      <c r="Q41" s="6" t="e">
+      <c r="Q41" s="11" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R41" s="6" t="e">
+      <c r="R41" s="11" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S41" s="6" t="e">
+      <c r="S41" s="11" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T41" s="6">
+      <c r="T41" s="11">
         <f t="shared" si="20"/>
         <v>0.19816513761467891</v>
       </c>
-      <c r="U41" s="6">
+      <c r="U41" s="11">
         <f t="shared" si="20"/>
         <v>4.4410413476263511E-2</v>
       </c>
@@ -4332,56 +4346,56 @@
       <c r="BH41" s="3"/>
       <c r="BI41" s="3"/>
     </row>
-    <row r="42" spans="2:61" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
+    <row r="42" spans="2:61" x14ac:dyDescent="0.2">
+      <c r="B42" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
-      <c r="G42" s="6">
+      <c r="G42" s="11">
         <f t="shared" si="17"/>
         <v>4.1050903119868698E-2</v>
       </c>
-      <c r="H42" s="6">
+      <c r="H42" s="11">
         <f t="shared" si="17"/>
         <v>-2.5806451612903181E-2</v>
       </c>
-      <c r="I42" s="6">
+      <c r="I42" s="11">
         <f t="shared" si="19"/>
         <v>1.3782542113323082E-2</v>
       </c>
-      <c r="J42" s="6">
+      <c r="J42" s="11">
         <f t="shared" si="19"/>
         <v>6.6176470588235281E-2</v>
       </c>
-      <c r="K42" s="6">
+      <c r="K42" s="11">
         <f t="shared" si="19"/>
         <v>-4.7318611987381409E-3</v>
       </c>
-      <c r="L42" s="6"/>
-      <c r="M42" s="6"/>
-      <c r="N42" s="6"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11"/>
       <c r="O42" s="3"/>
       <c r="P42" s="3"/>
-      <c r="Q42" s="6" t="e">
+      <c r="Q42" s="11" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R42" s="6" t="e">
+      <c r="R42" s="11" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S42" s="6" t="e">
+      <c r="S42" s="11" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T42" s="6">
+      <c r="T42" s="11">
         <f t="shared" si="20"/>
         <v>0.11246200607902734</v>
       </c>
-      <c r="U42" s="6">
+      <c r="U42" s="11">
         <f t="shared" si="20"/>
         <v>2.4590163934426146E-2</v>
       </c>
@@ -4426,56 +4440,56 @@
       <c r="BH42" s="3"/>
       <c r="BI42" s="3"/>
     </row>
-    <row r="43" spans="2:61" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
+    <row r="43" spans="2:61" x14ac:dyDescent="0.2">
+      <c r="B43" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
-      <c r="G43" s="6">
+      <c r="G43" s="11">
         <f t="shared" si="17"/>
         <v>0.11794871794871797</v>
       </c>
-      <c r="H43" s="6">
+      <c r="H43" s="11">
         <f t="shared" si="17"/>
         <v>5.9322033898305149E-2</v>
       </c>
-      <c r="I43" s="6">
+      <c r="I43" s="11">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="J43" s="6">
+      <c r="J43" s="11">
         <f t="shared" si="19"/>
         <v>9.4594594594594517E-2</v>
       </c>
-      <c r="K43" s="6">
+      <c r="K43" s="11">
         <f t="shared" si="19"/>
         <v>-2.752293577981646E-2</v>
       </c>
-      <c r="L43" s="6"/>
-      <c r="M43" s="6"/>
-      <c r="N43" s="6"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="11"/>
       <c r="O43" s="3"/>
       <c r="P43" s="3"/>
-      <c r="Q43" s="6" t="e">
+      <c r="Q43" s="11" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R43" s="6" t="e">
+      <c r="R43" s="11" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S43" s="6" t="e">
+      <c r="S43" s="11" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T43" s="6">
+      <c r="T43" s="11">
         <f t="shared" si="20"/>
         <v>0.21039290240811148</v>
       </c>
-      <c r="U43" s="6">
+      <c r="U43" s="11">
         <f t="shared" si="20"/>
         <v>6.8062827225130906E-2</v>
       </c>
@@ -4520,56 +4534,56 @@
       <c r="BH43" s="3"/>
       <c r="BI43" s="3"/>
     </row>
-    <row r="44" spans="2:61" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
+    <row r="44" spans="2:61" x14ac:dyDescent="0.2">
+      <c r="B44" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
-      <c r="G44" s="6">
+      <c r="G44" s="11">
         <f t="shared" si="17"/>
         <v>-1.4184397163120588E-2</v>
       </c>
-      <c r="H44" s="6">
+      <c r="H44" s="11">
         <f t="shared" si="17"/>
         <v>-6.944444444444442E-2</v>
       </c>
-      <c r="I44" s="6">
+      <c r="I44" s="11">
         <f t="shared" si="19"/>
         <v>-8.333333333333337E-2</v>
       </c>
-      <c r="J44" s="6">
+      <c r="J44" s="11">
         <f t="shared" si="19"/>
         <v>-5.8479532163743242E-3</v>
       </c>
-      <c r="K44" s="6">
+      <c r="K44" s="11">
         <f t="shared" si="19"/>
         <v>-6.4748201438848962E-2</v>
       </c>
-      <c r="L44" s="6"/>
-      <c r="M44" s="6"/>
-      <c r="N44" s="6"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="11"/>
       <c r="O44" s="3"/>
       <c r="P44" s="3"/>
-      <c r="Q44" s="6" t="e">
+      <c r="Q44" s="11" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R44" s="6" t="e">
+      <c r="R44" s="11" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S44" s="6" t="e">
+      <c r="S44" s="11" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T44" s="6">
+      <c r="T44" s="11">
         <f t="shared" si="20"/>
         <v>0.23340471092077086</v>
       </c>
-      <c r="U44" s="6">
+      <c r="U44" s="11">
         <f t="shared" si="20"/>
         <v>-3.993055555555558E-2</v>
       </c>
@@ -4614,56 +4628,56 @@
       <c r="BH44" s="3"/>
       <c r="BI44" s="3"/>
     </row>
-    <row r="45" spans="2:61" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
+    <row r="45" spans="2:61" x14ac:dyDescent="0.2">
+      <c r="B45" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
-      <c r="G45" s="6">
+      <c r="G45" s="11">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H45" s="6">
+      <c r="H45" s="11">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="I45" s="6">
+      <c r="I45" s="11">
         <f t="shared" si="19"/>
         <v>0.11538461538461542</v>
       </c>
-      <c r="J45" s="6">
+      <c r="J45" s="11">
         <f t="shared" si="19"/>
         <v>6.8965517241379226E-2</v>
       </c>
-      <c r="K45" s="6">
+      <c r="K45" s="11">
         <f t="shared" si="19"/>
         <v>0.13043478260869557</v>
       </c>
-      <c r="L45" s="6"/>
-      <c r="M45" s="6"/>
-      <c r="N45" s="6"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
+      <c r="N45" s="11"/>
       <c r="O45" s="3"/>
       <c r="P45" s="3"/>
-      <c r="Q45" s="6" t="e">
+      <c r="Q45" s="11" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R45" s="6" t="e">
+      <c r="R45" s="11" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S45" s="6" t="e">
+      <c r="S45" s="11" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T45" s="6">
+      <c r="T45" s="11">
         <f t="shared" si="20"/>
         <v>0.13043478260869557</v>
       </c>
-      <c r="U45" s="6">
+      <c r="U45" s="11">
         <f t="shared" si="20"/>
         <v>4.8076923076923128E-2</v>
       </c>
@@ -4708,56 +4722,56 @@
       <c r="BH45" s="3"/>
       <c r="BI45" s="3"/>
     </row>
-    <row r="46" spans="2:61" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
+    <row r="46" spans="2:61" x14ac:dyDescent="0.2">
+      <c r="B46" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
-      <c r="G46" s="6">
+      <c r="G46" s="11">
         <f t="shared" si="17"/>
         <v>1.4432989690721598E-2</v>
       </c>
-      <c r="H46" s="6">
+      <c r="H46" s="11">
         <f t="shared" si="17"/>
         <v>-2.931034482758621E-2</v>
       </c>
-      <c r="I46" s="6">
+      <c r="I46" s="11">
         <f t="shared" si="19"/>
         <v>-4.2226487523992273E-2</v>
       </c>
-      <c r="J46" s="6">
+      <c r="J46" s="11">
         <f t="shared" si="19"/>
         <v>1.4792899408284654E-3</v>
       </c>
-      <c r="K46" s="6">
+      <c r="K46" s="11">
         <f t="shared" si="19"/>
         <v>-3.8617886178861749E-2</v>
       </c>
-      <c r="L46" s="6"/>
-      <c r="M46" s="6"/>
-      <c r="N46" s="6"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="11"/>
+      <c r="N46" s="11"/>
       <c r="O46" s="3"/>
       <c r="P46" s="3"/>
-      <c r="Q46" s="6" t="e">
+      <c r="Q46" s="11" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R46" s="6" t="e">
+      <c r="R46" s="11" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S46" s="6" t="e">
+      <c r="S46" s="11" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T46" s="6">
+      <c r="T46" s="11">
         <f t="shared" si="20"/>
         <v>0.12202380952380953</v>
       </c>
-      <c r="U46" s="6">
+      <c r="U46" s="11">
         <f t="shared" si="20"/>
         <v>-1.3704686118479192E-2</v>
       </c>
@@ -4802,56 +4816,56 @@
       <c r="BH46" s="3"/>
       <c r="BI46" s="3"/>
     </row>
-    <row r="47" spans="2:61" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
+    <row r="47" spans="2:61" x14ac:dyDescent="0.2">
+      <c r="B47" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
-      <c r="G47" s="6">
+      <c r="G47" s="11">
         <f t="shared" si="17"/>
         <v>7.4468085106383031E-2</v>
       </c>
-      <c r="H47" s="6">
+      <c r="H47" s="11">
         <f t="shared" si="17"/>
         <v>5.3571428571428603E-2</v>
       </c>
-      <c r="I47" s="6">
+      <c r="I47" s="11">
         <f t="shared" si="19"/>
         <v>3.0716723549488067E-2</v>
       </c>
-      <c r="J47" s="6">
+      <c r="J47" s="11">
         <f t="shared" si="19"/>
         <v>0.15384615384615374</v>
       </c>
-      <c r="K47" s="6">
+      <c r="K47" s="11">
         <f t="shared" si="19"/>
         <v>-2.3102310231023049E-2</v>
       </c>
-      <c r="L47" s="6"/>
-      <c r="M47" s="6"/>
-      <c r="N47" s="6"/>
+      <c r="L47" s="11"/>
+      <c r="M47" s="11"/>
+      <c r="N47" s="11"/>
       <c r="O47" s="3"/>
       <c r="P47" s="3"/>
-      <c r="Q47" s="6" t="e">
+      <c r="Q47" s="11" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R47" s="6" t="e">
+      <c r="R47" s="11" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S47" s="6" t="e">
+      <c r="S47" s="11" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T47" s="6">
+      <c r="T47" s="11">
         <f t="shared" si="20"/>
         <v>0.15418994413407816</v>
       </c>
-      <c r="U47" s="6">
+      <c r="U47" s="11">
         <f t="shared" si="20"/>
         <v>7.5508228460793747E-2</v>
       </c>
@@ -4896,56 +4910,56 @@
       <c r="BH47" s="3"/>
       <c r="BI47" s="3"/>
     </row>
-    <row r="48" spans="2:61" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
+    <row r="48" spans="2:61" x14ac:dyDescent="0.2">
+      <c r="B48" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
-      <c r="G48" s="6">
+      <c r="G48" s="11">
         <f t="shared" si="17"/>
         <v>9.550561797752799E-2</v>
       </c>
-      <c r="H48" s="6">
+      <c r="H48" s="11">
         <f t="shared" si="17"/>
         <v>-3.5714285714285698E-2</v>
       </c>
-      <c r="I48" s="6">
+      <c r="I48" s="11">
         <f t="shared" si="19"/>
         <v>6.4171122994652441E-2</v>
       </c>
-      <c r="J48" s="6">
+      <c r="J48" s="11">
         <f t="shared" si="19"/>
         <v>0.10970464135021096</v>
       </c>
-      <c r="K48" s="6">
+      <c r="K48" s="11">
         <f t="shared" si="19"/>
         <v>4.6153846153846212E-2</v>
       </c>
-      <c r="L48" s="6"/>
-      <c r="M48" s="6"/>
-      <c r="N48" s="6"/>
+      <c r="L48" s="11"/>
+      <c r="M48" s="11"/>
+      <c r="N48" s="11"/>
       <c r="O48" s="3"/>
       <c r="P48" s="3"/>
-      <c r="Q48" s="6" t="e">
+      <c r="Q48" s="11" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R48" s="6" t="e">
+      <c r="R48" s="11" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S48" s="6" t="e">
+      <c r="S48" s="11" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T48" s="6">
+      <c r="T48" s="11">
         <f t="shared" si="20"/>
         <v>0.2314814814814814</v>
       </c>
-      <c r="U48" s="6">
+      <c r="U48" s="11">
         <f t="shared" si="20"/>
         <v>6.0150375939849621E-2</v>
       </c>
@@ -4990,61 +5004,61 @@
       <c r="BH48" s="3"/>
       <c r="BI48" s="3"/>
     </row>
-    <row r="49" spans="2:61" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:61" x14ac:dyDescent="0.2">
       <c r="B49" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="12">
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="13">
         <f t="shared" ref="G49:H49" si="21">+G21/C21-1</f>
         <v>4.7520661157024691E-2</v>
       </c>
-      <c r="H49" s="12">
+      <c r="H49" s="13">
         <f t="shared" si="21"/>
         <v>-1.0721247563352798E-2</v>
       </c>
-      <c r="I49" s="12">
+      <c r="I49" s="13">
         <f>+I21/E21-1</f>
         <v>1.9474196689386325E-3</v>
       </c>
-      <c r="J49" s="12">
+      <c r="J49" s="13">
         <f t="shared" ref="J49:K49" si="22">+J21/F21-1</f>
         <v>6.2074829931972886E-2</v>
       </c>
-      <c r="K49" s="12">
+      <c r="K49" s="13">
         <f t="shared" si="22"/>
         <v>-1.4792899408283988E-2</v>
       </c>
-      <c r="L49" s="6"/>
-      <c r="M49" s="12"/>
-      <c r="N49" s="12"/>
-      <c r="O49" s="11"/>
-      <c r="P49" s="11"/>
-      <c r="Q49" s="12" t="e">
+      <c r="L49" s="11"/>
+      <c r="M49" s="13"/>
+      <c r="N49" s="13"/>
+      <c r="O49" s="12"/>
+      <c r="P49" s="12"/>
+      <c r="Q49" s="13" t="e">
         <f t="shared" ref="Q49:S49" si="23">+Q21/P21-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R49" s="12" t="e">
+      <c r="R49" s="13" t="e">
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S49" s="12" t="e">
+      <c r="S49" s="13" t="e">
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T49" s="12">
+      <c r="T49" s="13">
         <f>+T21/S21-1</f>
         <v>0.14954806902218576</v>
       </c>
-      <c r="U49" s="12">
+      <c r="U49" s="13">
         <f>+U21/T21-1</f>
         <v>2.6209197045508725E-2</v>
       </c>
-      <c r="V49" s="11"/>
-      <c r="W49" s="11"/>
+      <c r="V49" s="12"/>
+      <c r="W49" s="12"/>
       <c r="X49" s="3"/>
       <c r="Y49" s="3"/>
       <c r="Z49" s="3"/>
@@ -5084,71 +5098,71 @@
       <c r="BH49" s="3"/>
       <c r="BI49" s="3"/>
     </row>
-    <row r="50" spans="2:61" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
+    <row r="50" spans="2:61" x14ac:dyDescent="0.2">
+      <c r="B50" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C50" s="6">
+      <c r="C50" s="11">
         <f t="shared" ref="C50:H50" si="24">+C23/C21</f>
         <v>0.61363636363636365</v>
       </c>
-      <c r="D50" s="6">
+      <c r="D50" s="11">
         <f t="shared" si="24"/>
         <v>0.62378167641325533</v>
       </c>
-      <c r="E50" s="6">
+      <c r="E50" s="11">
         <f t="shared" si="24"/>
         <v>0.60662122687439146</v>
       </c>
-      <c r="F50" s="6">
+      <c r="F50" s="11">
         <f t="shared" si="24"/>
         <v>0.61479591836734693</v>
       </c>
-      <c r="G50" s="6">
+      <c r="G50" s="11">
         <f t="shared" si="24"/>
         <v>0.61439842209072981</v>
       </c>
-      <c r="H50" s="6">
+      <c r="H50" s="11">
         <f t="shared" si="24"/>
         <v>0.62857142857142856</v>
       </c>
-      <c r="I50" s="6">
+      <c r="I50" s="11">
         <f>+I23/I21</f>
         <v>0.60155490767735664</v>
       </c>
-      <c r="J50" s="6">
+      <c r="J50" s="11">
         <f>+J23/J21</f>
         <v>0.62369895916733387</v>
       </c>
-      <c r="K50" s="6">
+      <c r="K50" s="11">
         <f>+K23/K21</f>
         <v>0.61361361361361366</v>
       </c>
-      <c r="L50" s="6"/>
-      <c r="M50" s="6"/>
-      <c r="N50" s="6"/>
+      <c r="L50" s="11"/>
+      <c r="M50" s="11"/>
+      <c r="N50" s="11"/>
       <c r="O50" s="3"/>
-      <c r="P50" s="6" t="e">
+      <c r="P50" s="11" t="e">
         <f t="shared" ref="P50:S50" si="25">+P23/P21</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q50" s="6" t="e">
+      <c r="Q50" s="11" t="e">
         <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R50" s="6" t="e">
+      <c r="R50" s="11" t="e">
         <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S50" s="6">
+      <c r="S50" s="11">
         <f t="shared" si="25"/>
         <v>0.61791290057518489</v>
       </c>
-      <c r="T50" s="6">
+      <c r="T50" s="11">
         <f>+T23/T21</f>
         <v>0.6147248034310222</v>
       </c>
-      <c r="U50" s="6">
+      <c r="U50" s="11">
         <f>+U23/U21</f>
         <v>0.61736707685163683</v>
       </c>
@@ -5193,71 +5207,71 @@
       <c r="BH50" s="3"/>
       <c r="BI50" s="3"/>
     </row>
-    <row r="51" spans="2:61" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
+    <row r="51" spans="2:61" x14ac:dyDescent="0.2">
+      <c r="B51" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C51" s="6">
+      <c r="C51" s="11">
         <f t="shared" ref="C51:H51" si="26">+C26/C21</f>
         <v>6.8181818181818177E-2</v>
       </c>
-      <c r="D51" s="6">
+      <c r="D51" s="11">
         <f t="shared" si="26"/>
         <v>0.1189083820662768</v>
       </c>
-      <c r="E51" s="6">
+      <c r="E51" s="11">
         <f t="shared" si="26"/>
         <v>0.10029211295034079</v>
       </c>
-      <c r="F51" s="6">
+      <c r="F51" s="11">
         <f t="shared" si="26"/>
         <v>0.10034013605442177</v>
       </c>
-      <c r="G51" s="6">
+      <c r="G51" s="11">
         <f t="shared" si="26"/>
         <v>6.8047337278106509E-2</v>
       </c>
-      <c r="H51" s="6">
+      <c r="H51" s="11">
         <f t="shared" si="26"/>
         <v>6.9950738916256153E-2</v>
       </c>
-      <c r="I51" s="6">
+      <c r="I51" s="11">
         <f>+I26/I21</f>
         <v>9.23226433430515E-2</v>
       </c>
-      <c r="J51" s="6">
+      <c r="J51" s="11">
         <f>+J26/J21</f>
         <v>0.10008006405124099</v>
       </c>
-      <c r="K51" s="6">
+      <c r="K51" s="11">
         <f>+K26/K21</f>
         <v>6.2062062062062065E-2</v>
       </c>
-      <c r="L51" s="6"/>
-      <c r="M51" s="6"/>
-      <c r="N51" s="6"/>
+      <c r="L51" s="11"/>
+      <c r="M51" s="11"/>
+      <c r="N51" s="11"/>
       <c r="O51" s="3"/>
-      <c r="P51" s="6" t="e">
+      <c r="P51" s="11" t="e">
         <f t="shared" ref="P51:S51" si="27">+P26/P21</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q51" s="6" t="e">
+      <c r="Q51" s="11" t="e">
         <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R51" s="6" t="e">
+      <c r="R51" s="11" t="e">
         <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S51" s="6">
+      <c r="S51" s="11">
         <f t="shared" si="27"/>
         <v>9.1755683374417973E-2</v>
       </c>
-      <c r="T51" s="6">
+      <c r="T51" s="11">
         <f>+T26/T21</f>
         <v>9.7450559923755065E-2</v>
       </c>
-      <c r="U51" s="6">
+      <c r="U51" s="11">
         <f>+U26/U21</f>
         <v>8.3584861852797773E-2</v>
       </c>
@@ -5302,71 +5316,71 @@
       <c r="BH51" s="3"/>
       <c r="BI51" s="3"/>
     </row>
-    <row r="52" spans="2:61" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
+    <row r="52" spans="2:61" x14ac:dyDescent="0.2">
+      <c r="B52" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C52" s="6">
+      <c r="C52" s="11">
         <f t="shared" ref="C52:H52" si="28">+C29/C28</f>
         <v>0.27777777777777779</v>
       </c>
-      <c r="D52" s="6">
+      <c r="D52" s="11">
         <f t="shared" si="28"/>
         <v>0.27272727272727271</v>
       </c>
-      <c r="E52" s="6">
+      <c r="E52" s="11">
         <f t="shared" si="28"/>
         <v>0.28409090909090912</v>
       </c>
-      <c r="F52" s="6">
+      <c r="F52" s="11">
         <f t="shared" si="28"/>
         <v>0.16346153846153846</v>
       </c>
-      <c r="G52" s="6">
+      <c r="G52" s="11">
         <f t="shared" si="28"/>
         <v>0.2807017543859649</v>
       </c>
-      <c r="H52" s="6">
+      <c r="H52" s="11">
         <f t="shared" si="28"/>
         <v>0.27272727272727271</v>
       </c>
-      <c r="I52" s="6">
+      <c r="I52" s="11">
         <f>+I29/I28</f>
         <v>0.2857142857142857</v>
       </c>
-      <c r="J52" s="6">
+      <c r="J52" s="11">
         <f>+J29/J28</f>
         <v>0.22321428571428573</v>
       </c>
-      <c r="K52" s="6">
+      <c r="K52" s="11">
         <f>+K29/K28</f>
         <v>0.28301886792452829</v>
       </c>
-      <c r="L52" s="6"/>
-      <c r="M52" s="6"/>
-      <c r="N52" s="6"/>
+      <c r="L52" s="11"/>
+      <c r="M52" s="11"/>
+      <c r="N52" s="11"/>
       <c r="O52" s="3"/>
-      <c r="P52" s="6" t="e">
+      <c r="P52" s="11" t="e">
         <f t="shared" ref="P52:S52" si="29">+P29/P28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q52" s="6" t="e">
+      <c r="Q52" s="11" t="e">
         <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R52" s="6" t="e">
+      <c r="R52" s="11" t="e">
         <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S52" s="6">
+      <c r="S52" s="11">
         <f t="shared" si="29"/>
         <v>0.22105263157894736</v>
       </c>
-      <c r="T52" s="6">
+      <c r="T52" s="11">
         <f>+T29/T28</f>
         <v>0.2443820224719101</v>
       </c>
-      <c r="U52" s="6">
+      <c r="U52" s="11">
         <f>+U29/U28</f>
         <v>0.25913621262458469</v>
       </c>
@@ -5411,7 +5425,7 @@
       <c r="BH52" s="3"/>
       <c r="BI52" s="3"/>
     </row>
-    <row r="53" spans="2:61" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:61" x14ac:dyDescent="0.2">
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
@@ -5472,7 +5486,7 @@
       <c r="BH53" s="3"/>
       <c r="BI53" s="3"/>
     </row>
-    <row r="54" spans="2:61" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:61" x14ac:dyDescent="0.2">
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
@@ -5533,7 +5547,7 @@
       <c r="BH54" s="3"/>
       <c r="BI54" s="3"/>
     </row>
-    <row r="55" spans="2:61" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:61" x14ac:dyDescent="0.2">
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
@@ -5594,7 +5608,7 @@
       <c r="BH55" s="3"/>
       <c r="BI55" s="3"/>
     </row>
-    <row r="56" spans="2:61" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:61" x14ac:dyDescent="0.2">
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
@@ -5655,7 +5669,7 @@
       <c r="BH56" s="3"/>
       <c r="BI56" s="3"/>
     </row>
-    <row r="57" spans="2:61" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:61" x14ac:dyDescent="0.2">
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
@@ -5716,7 +5730,7 @@
       <c r="BH57" s="3"/>
       <c r="BI57" s="3"/>
     </row>
-    <row r="58" spans="2:61" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:61" x14ac:dyDescent="0.2">
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
@@ -5777,7 +5791,7 @@
       <c r="BH58" s="3"/>
       <c r="BI58" s="3"/>
     </row>
-    <row r="59" spans="2:61" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:61" x14ac:dyDescent="0.2">
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
@@ -5838,7 +5852,7 @@
       <c r="BH59" s="3"/>
       <c r="BI59" s="3"/>
     </row>
-    <row r="60" spans="2:61" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:61" x14ac:dyDescent="0.2">
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
@@ -5899,7 +5913,7 @@
       <c r="BH60" s="3"/>
       <c r="BI60" s="3"/>
     </row>
-    <row r="61" spans="2:61" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:61" x14ac:dyDescent="0.2">
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
@@ -5960,7 +5974,7 @@
       <c r="BH61" s="3"/>
       <c r="BI61" s="3"/>
     </row>
-    <row r="62" spans="2:61" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:61" x14ac:dyDescent="0.2">
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
@@ -6021,7 +6035,7 @@
       <c r="BH62" s="3"/>
       <c r="BI62" s="3"/>
     </row>
-    <row r="63" spans="2:61" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:61" x14ac:dyDescent="0.2">
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
@@ -6082,7 +6096,7 @@
       <c r="BH63" s="3"/>
       <c r="BI63" s="3"/>
     </row>
-    <row r="64" spans="2:61" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:61" x14ac:dyDescent="0.2">
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
@@ -6143,7 +6157,7 @@
       <c r="BH64" s="3"/>
       <c r="BI64" s="3"/>
     </row>
-    <row r="65" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
@@ -6204,7 +6218,7 @@
       <c r="BH65" s="3"/>
       <c r="BI65" s="3"/>
     </row>
-    <row r="66" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
@@ -6265,7 +6279,7 @@
       <c r="BH66" s="3"/>
       <c r="BI66" s="3"/>
     </row>
-    <row r="67" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
@@ -6326,7 +6340,7 @@
       <c r="BH67" s="3"/>
       <c r="BI67" s="3"/>
     </row>
-    <row r="68" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
@@ -6387,7 +6401,7 @@
       <c r="BH68" s="3"/>
       <c r="BI68" s="3"/>
     </row>
-    <row r="69" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
@@ -6448,7 +6462,7 @@
       <c r="BH69" s="3"/>
       <c r="BI69" s="3"/>
     </row>
-    <row r="70" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
@@ -6509,7 +6523,7 @@
       <c r="BH70" s="3"/>
       <c r="BI70" s="3"/>
     </row>
-    <row r="71" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
@@ -6570,7 +6584,7 @@
       <c r="BH71" s="3"/>
       <c r="BI71" s="3"/>
     </row>
-    <row r="72" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
@@ -6631,7 +6645,7 @@
       <c r="BH72" s="3"/>
       <c r="BI72" s="3"/>
     </row>
-    <row r="73" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
@@ -6692,7 +6706,7 @@
       <c r="BH73" s="3"/>
       <c r="BI73" s="3"/>
     </row>
-    <row r="74" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
@@ -6753,7 +6767,7 @@
       <c r="BH74" s="3"/>
       <c r="BI74" s="3"/>
     </row>
-    <row r="75" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
@@ -6814,7 +6828,7 @@
       <c r="BH75" s="3"/>
       <c r="BI75" s="3"/>
     </row>
-    <row r="76" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
@@ -6875,7 +6889,7 @@
       <c r="BH76" s="3"/>
       <c r="BI76" s="3"/>
     </row>
-    <row r="77" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
@@ -6936,7 +6950,7 @@
       <c r="BH77" s="3"/>
       <c r="BI77" s="3"/>
     </row>
-    <row r="78" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
@@ -6997,7 +7011,7 @@
       <c r="BH78" s="3"/>
       <c r="BI78" s="3"/>
     </row>
-    <row r="79" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
@@ -7058,7 +7072,7 @@
       <c r="BH79" s="3"/>
       <c r="BI79" s="3"/>
     </row>
-    <row r="80" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
@@ -7119,7 +7133,7 @@
       <c r="BH80" s="3"/>
       <c r="BI80" s="3"/>
     </row>
-    <row r="81" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
@@ -7180,7 +7194,7 @@
       <c r="BH81" s="3"/>
       <c r="BI81" s="3"/>
     </row>
-    <row r="82" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
@@ -7241,7 +7255,7 @@
       <c r="BH82" s="3"/>
       <c r="BI82" s="3"/>
     </row>
-    <row r="83" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
@@ -7302,7 +7316,7 @@
       <c r="BH83" s="3"/>
       <c r="BI83" s="3"/>
     </row>
-    <row r="84" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
@@ -7363,7 +7377,7 @@
       <c r="BH84" s="3"/>
       <c r="BI84" s="3"/>
     </row>
-    <row r="85" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
@@ -7424,7 +7438,7 @@
       <c r="BH85" s="3"/>
       <c r="BI85" s="3"/>
     </row>
-    <row r="86" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
@@ -7485,7 +7499,7 @@
       <c r="BH86" s="3"/>
       <c r="BI86" s="3"/>
     </row>
-    <row r="87" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
@@ -7546,7 +7560,7 @@
       <c r="BH87" s="3"/>
       <c r="BI87" s="3"/>
     </row>
-    <row r="88" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
@@ -7607,7 +7621,7 @@
       <c r="BH88" s="3"/>
       <c r="BI88" s="3"/>
     </row>
-    <row r="89" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
@@ -7668,7 +7682,7 @@
       <c r="BH89" s="3"/>
       <c r="BI89" s="3"/>
     </row>
-    <row r="90" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
@@ -7729,7 +7743,7 @@
       <c r="BH90" s="3"/>
       <c r="BI90" s="3"/>
     </row>
-    <row r="91" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
@@ -7790,7 +7804,7 @@
       <c r="BH91" s="3"/>
       <c r="BI91" s="3"/>
     </row>
-    <row r="92" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
@@ -7851,7 +7865,7 @@
       <c r="BH92" s="3"/>
       <c r="BI92" s="3"/>
     </row>
-    <row r="93" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
@@ -7912,7 +7926,7 @@
       <c r="BH93" s="3"/>
       <c r="BI93" s="3"/>
     </row>
-    <row r="94" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
@@ -7973,7 +7987,7 @@
       <c r="BH94" s="3"/>
       <c r="BI94" s="3"/>
     </row>
-    <row r="95" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
@@ -8034,7 +8048,7 @@
       <c r="BH95" s="3"/>
       <c r="BI95" s="3"/>
     </row>
-    <row r="96" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
@@ -8095,7 +8109,7 @@
       <c r="BH96" s="3"/>
       <c r="BI96" s="3"/>
     </row>
-    <row r="97" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
@@ -8156,7 +8170,7 @@
       <c r="BH97" s="3"/>
       <c r="BI97" s="3"/>
     </row>
-    <row r="98" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
@@ -8217,7 +8231,7 @@
       <c r="BH98" s="3"/>
       <c r="BI98" s="3"/>
     </row>
-    <row r="99" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
@@ -8278,7 +8292,7 @@
       <c r="BH99" s="3"/>
       <c r="BI99" s="3"/>
     </row>
-    <row r="100" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
@@ -8339,7 +8353,7 @@
       <c r="BH100" s="3"/>
       <c r="BI100" s="3"/>
     </row>
-    <row r="101" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
@@ -8400,7 +8414,7 @@
       <c r="BH101" s="3"/>
       <c r="BI101" s="3"/>
     </row>
-    <row r="102" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
@@ -8461,7 +8475,7 @@
       <c r="BH102" s="3"/>
       <c r="BI102" s="3"/>
     </row>
-    <row r="103" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
@@ -8522,7 +8536,7 @@
       <c r="BH103" s="3"/>
       <c r="BI103" s="3"/>
     </row>
-    <row r="104" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
@@ -8583,7 +8597,7 @@
       <c r="BH104" s="3"/>
       <c r="BI104" s="3"/>
     </row>
-    <row r="105" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
@@ -8644,7 +8658,7 @@
       <c r="BH105" s="3"/>
       <c r="BI105" s="3"/>
     </row>
-    <row r="106" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
@@ -8705,7 +8719,7 @@
       <c r="BH106" s="3"/>
       <c r="BI106" s="3"/>
     </row>
-    <row r="107" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
@@ -8766,7 +8780,7 @@
       <c r="BH107" s="3"/>
       <c r="BI107" s="3"/>
     </row>
-    <row r="108" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
@@ -8827,7 +8841,7 @@
       <c r="BH108" s="3"/>
       <c r="BI108" s="3"/>
     </row>
-    <row r="109" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
@@ -8888,7 +8902,7 @@
       <c r="BH109" s="3"/>
       <c r="BI109" s="3"/>
     </row>
-    <row r="110" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
@@ -8949,7 +8963,7 @@
       <c r="BH110" s="3"/>
       <c r="BI110" s="3"/>
     </row>
-    <row r="111" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
@@ -9010,7 +9024,7 @@
       <c r="BH111" s="3"/>
       <c r="BI111" s="3"/>
     </row>
-    <row r="112" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
@@ -9071,7 +9085,7 @@
       <c r="BH112" s="3"/>
       <c r="BI112" s="3"/>
     </row>
-    <row r="113" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
@@ -9132,7 +9146,7 @@
       <c r="BH113" s="3"/>
       <c r="BI113" s="3"/>
     </row>
-    <row r="114" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
@@ -9193,7 +9207,7 @@
       <c r="BH114" s="3"/>
       <c r="BI114" s="3"/>
     </row>
-    <row r="115" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
@@ -9254,7 +9268,7 @@
       <c r="BH115" s="3"/>
       <c r="BI115" s="3"/>
     </row>
-    <row r="116" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
@@ -9315,7 +9329,7 @@
       <c r="BH116" s="3"/>
       <c r="BI116" s="3"/>
     </row>
-    <row r="117" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
@@ -9376,7 +9390,7 @@
       <c r="BH117" s="3"/>
       <c r="BI117" s="3"/>
     </row>
-    <row r="118" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
@@ -9437,7 +9451,7 @@
       <c r="BH118" s="3"/>
       <c r="BI118" s="3"/>
     </row>
-    <row r="119" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
@@ -9498,7 +9512,7 @@
       <c r="BH119" s="3"/>
       <c r="BI119" s="3"/>
     </row>
-    <row r="120" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
@@ -9559,7 +9573,7 @@
       <c r="BH120" s="3"/>
       <c r="BI120" s="3"/>
     </row>
-    <row r="121" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
@@ -9620,7 +9634,7 @@
       <c r="BH121" s="3"/>
       <c r="BI121" s="3"/>
     </row>
-    <row r="122" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
@@ -9681,7 +9695,7 @@
       <c r="BH122" s="3"/>
       <c r="BI122" s="3"/>
     </row>
-    <row r="123" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
@@ -9742,7 +9756,7 @@
       <c r="BH123" s="3"/>
       <c r="BI123" s="3"/>
     </row>
-    <row r="124" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
@@ -9803,7 +9817,7 @@
       <c r="BH124" s="3"/>
       <c r="BI124" s="3"/>
     </row>
-    <row r="125" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
@@ -9864,7 +9878,7 @@
       <c r="BH125" s="3"/>
       <c r="BI125" s="3"/>
     </row>
-    <row r="126" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
@@ -9925,7 +9939,7 @@
       <c r="BH126" s="3"/>
       <c r="BI126" s="3"/>
     </row>
-    <row r="127" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
@@ -9986,7 +10000,7 @@
       <c r="BH127" s="3"/>
       <c r="BI127" s="3"/>
     </row>
-    <row r="128" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
@@ -10047,7 +10061,7 @@
       <c r="BH128" s="3"/>
       <c r="BI128" s="3"/>
     </row>
-    <row r="129" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
@@ -10108,7 +10122,7 @@
       <c r="BH129" s="3"/>
       <c r="BI129" s="3"/>
     </row>
-    <row r="130" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
@@ -10169,7 +10183,7 @@
       <c r="BH130" s="3"/>
       <c r="BI130" s="3"/>
     </row>
-    <row r="131" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
@@ -10230,7 +10244,7 @@
       <c r="BH131" s="3"/>
       <c r="BI131" s="3"/>
     </row>
-    <row r="132" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
@@ -10291,7 +10305,7 @@
       <c r="BH132" s="3"/>
       <c r="BI132" s="3"/>
     </row>
-    <row r="133" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
@@ -10352,7 +10366,7 @@
       <c r="BH133" s="3"/>
       <c r="BI133" s="3"/>
     </row>
-    <row r="134" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
       <c r="E134" s="3"/>
@@ -10413,7 +10427,7 @@
       <c r="BH134" s="3"/>
       <c r="BI134" s="3"/>
     </row>
-    <row r="135" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
@@ -10474,7 +10488,7 @@
       <c r="BH135" s="3"/>
       <c r="BI135" s="3"/>
     </row>
-    <row r="136" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
@@ -10535,7 +10549,7 @@
       <c r="BH136" s="3"/>
       <c r="BI136" s="3"/>
     </row>
-    <row r="137" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
@@ -10596,7 +10610,7 @@
       <c r="BH137" s="3"/>
       <c r="BI137" s="3"/>
     </row>
-    <row r="138" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
@@ -10657,7 +10671,7 @@
       <c r="BH138" s="3"/>
       <c r="BI138" s="3"/>
     </row>
-    <row r="139" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
@@ -10718,7 +10732,7 @@
       <c r="BH139" s="3"/>
       <c r="BI139" s="3"/>
     </row>
-    <row r="140" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
@@ -10779,7 +10793,7 @@
       <c r="BH140" s="3"/>
       <c r="BI140" s="3"/>
     </row>
-    <row r="141" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
@@ -10840,7 +10854,7 @@
       <c r="BH141" s="3"/>
       <c r="BI141" s="3"/>
     </row>
-    <row r="142" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
@@ -10901,7 +10915,7 @@
       <c r="BH142" s="3"/>
       <c r="BI142" s="3"/>
     </row>
-    <row r="143" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
@@ -10962,7 +10976,7 @@
       <c r="BH143" s="3"/>
       <c r="BI143" s="3"/>
     </row>
-    <row r="144" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
@@ -11023,7 +11037,7 @@
       <c r="BH144" s="3"/>
       <c r="BI144" s="3"/>
     </row>
-    <row r="145" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
@@ -11084,7 +11098,7 @@
       <c r="BH145" s="3"/>
       <c r="BI145" s="3"/>
     </row>
-    <row r="146" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
       <c r="E146" s="3"/>
@@ -11145,7 +11159,7 @@
       <c r="BH146" s="3"/>
       <c r="BI146" s="3"/>
     </row>
-    <row r="147" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
       <c r="E147" s="3"/>
@@ -11206,7 +11220,7 @@
       <c r="BH147" s="3"/>
       <c r="BI147" s="3"/>
     </row>
-    <row r="148" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
       <c r="E148" s="3"/>
@@ -11267,7 +11281,7 @@
       <c r="BH148" s="3"/>
       <c r="BI148" s="3"/>
     </row>
-    <row r="149" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
@@ -11328,7 +11342,7 @@
       <c r="BH149" s="3"/>
       <c r="BI149" s="3"/>
     </row>
-    <row r="150" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
       <c r="E150" s="3"/>
@@ -11389,7 +11403,7 @@
       <c r="BH150" s="3"/>
       <c r="BI150" s="3"/>
     </row>
-    <row r="151" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
@@ -11450,7 +11464,7 @@
       <c r="BH151" s="3"/>
       <c r="BI151" s="3"/>
     </row>
-    <row r="152" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
       <c r="E152" s="3"/>
@@ -11511,7 +11525,7 @@
       <c r="BH152" s="3"/>
       <c r="BI152" s="3"/>
     </row>
-    <row r="153" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
@@ -11572,7 +11586,7 @@
       <c r="BH153" s="3"/>
       <c r="BI153" s="3"/>
     </row>
-    <row r="154" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
@@ -11633,7 +11647,7 @@
       <c r="BH154" s="3"/>
       <c r="BI154" s="3"/>
     </row>
-    <row r="155" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
@@ -11694,7 +11708,7 @@
       <c r="BH155" s="3"/>
       <c r="BI155" s="3"/>
     </row>
-    <row r="156" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
@@ -11755,7 +11769,7 @@
       <c r="BH156" s="3"/>
       <c r="BI156" s="3"/>
     </row>
-    <row r="157" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
@@ -11816,7 +11830,7 @@
       <c r="BH157" s="3"/>
       <c r="BI157" s="3"/>
     </row>
-    <row r="158" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
@@ -11877,7 +11891,7 @@
       <c r="BH158" s="3"/>
       <c r="BI158" s="3"/>
     </row>
-    <row r="159" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
       <c r="E159" s="3"/>
@@ -11938,7 +11952,7 @@
       <c r="BH159" s="3"/>
       <c r="BI159" s="3"/>
     </row>
-    <row r="160" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
@@ -11999,7 +12013,7 @@
       <c r="BH160" s="3"/>
       <c r="BI160" s="3"/>
     </row>
-    <row r="161" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
@@ -12060,7 +12074,7 @@
       <c r="BH161" s="3"/>
       <c r="BI161" s="3"/>
     </row>
-    <row r="162" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
@@ -12121,7 +12135,7 @@
       <c r="BH162" s="3"/>
       <c r="BI162" s="3"/>
     </row>
-    <row r="163" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
       <c r="E163" s="3"/>
@@ -12182,7 +12196,7 @@
       <c r="BH163" s="3"/>
       <c r="BI163" s="3"/>
     </row>
-    <row r="164" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
       <c r="E164" s="3"/>
@@ -12243,7 +12257,7 @@
       <c r="BH164" s="3"/>
       <c r="BI164" s="3"/>
     </row>
-    <row r="165" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
       <c r="E165" s="3"/>
@@ -12304,7 +12318,7 @@
       <c r="BH165" s="3"/>
       <c r="BI165" s="3"/>
     </row>
-    <row r="166" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
       <c r="E166" s="3"/>
@@ -12365,7 +12379,7 @@
       <c r="BH166" s="3"/>
       <c r="BI166" s="3"/>
     </row>
-    <row r="167" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
       <c r="E167" s="3"/>
@@ -12426,7 +12440,7 @@
       <c r="BH167" s="3"/>
       <c r="BI167" s="3"/>
     </row>
-    <row r="168" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
       <c r="E168" s="3"/>
@@ -12487,7 +12501,7 @@
       <c r="BH168" s="3"/>
       <c r="BI168" s="3"/>
     </row>
-    <row r="169" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
       <c r="E169" s="3"/>
@@ -12548,7 +12562,7 @@
       <c r="BH169" s="3"/>
       <c r="BI169" s="3"/>
     </row>
-    <row r="170" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C170" s="3"/>
       <c r="D170" s="3"/>
       <c r="E170" s="3"/>
@@ -12609,7 +12623,7 @@
       <c r="BH170" s="3"/>
       <c r="BI170" s="3"/>
     </row>
-    <row r="171" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
       <c r="E171" s="3"/>
@@ -12670,7 +12684,7 @@
       <c r="BH171" s="3"/>
       <c r="BI171" s="3"/>
     </row>
-    <row r="172" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
       <c r="E172" s="3"/>
@@ -12731,7 +12745,7 @@
       <c r="BH172" s="3"/>
       <c r="BI172" s="3"/>
     </row>
-    <row r="173" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
       <c r="E173" s="3"/>
@@ -12792,7 +12806,7 @@
       <c r="BH173" s="3"/>
       <c r="BI173" s="3"/>
     </row>
-    <row r="174" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
       <c r="E174" s="3"/>
@@ -12853,7 +12867,7 @@
       <c r="BH174" s="3"/>
       <c r="BI174" s="3"/>
     </row>
-    <row r="175" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
       <c r="E175" s="3"/>
@@ -12914,7 +12928,7 @@
       <c r="BH175" s="3"/>
       <c r="BI175" s="3"/>
     </row>
-    <row r="176" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
       <c r="E176" s="3"/>
@@ -12975,7 +12989,7 @@
       <c r="BH176" s="3"/>
       <c r="BI176" s="3"/>
     </row>
-    <row r="177" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
       <c r="E177" s="3"/>
@@ -13036,7 +13050,7 @@
       <c r="BH177" s="3"/>
       <c r="BI177" s="3"/>
     </row>
-    <row r="178" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
       <c r="E178" s="3"/>
@@ -13097,7 +13111,7 @@
       <c r="BH178" s="3"/>
       <c r="BI178" s="3"/>
     </row>
-    <row r="179" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
       <c r="E179" s="3"/>
@@ -13158,7 +13172,7 @@
       <c r="BH179" s="3"/>
       <c r="BI179" s="3"/>
     </row>
-    <row r="180" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="180" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
       <c r="E180" s="3"/>
@@ -13219,7 +13233,7 @@
       <c r="BH180" s="3"/>
       <c r="BI180" s="3"/>
     </row>
-    <row r="181" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
       <c r="E181" s="3"/>
@@ -13280,7 +13294,7 @@
       <c r="BH181" s="3"/>
       <c r="BI181" s="3"/>
     </row>
-    <row r="182" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
       <c r="E182" s="3"/>
@@ -13341,7 +13355,7 @@
       <c r="BH182" s="3"/>
       <c r="BI182" s="3"/>
     </row>
-    <row r="183" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="183" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
       <c r="E183" s="3"/>
@@ -13402,7 +13416,7 @@
       <c r="BH183" s="3"/>
       <c r="BI183" s="3"/>
     </row>
-    <row r="184" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="184" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
       <c r="E184" s="3"/>
@@ -13463,7 +13477,7 @@
       <c r="BH184" s="3"/>
       <c r="BI184" s="3"/>
     </row>
-    <row r="185" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="185" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
       <c r="E185" s="3"/>
@@ -13524,7 +13538,7 @@
       <c r="BH185" s="3"/>
       <c r="BI185" s="3"/>
     </row>
-    <row r="186" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="186" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
       <c r="E186" s="3"/>
@@ -13585,7 +13599,7 @@
       <c r="BH186" s="3"/>
       <c r="BI186" s="3"/>
     </row>
-    <row r="187" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="187" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C187" s="3"/>
       <c r="D187" s="3"/>
       <c r="E187" s="3"/>
@@ -13646,7 +13660,7 @@
       <c r="BH187" s="3"/>
       <c r="BI187" s="3"/>
     </row>
-    <row r="188" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="188" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C188" s="3"/>
       <c r="D188" s="3"/>
       <c r="E188" s="3"/>
@@ -13707,7 +13721,7 @@
       <c r="BH188" s="3"/>
       <c r="BI188" s="3"/>
     </row>
-    <row r="189" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="189" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C189" s="3"/>
       <c r="D189" s="3"/>
       <c r="E189" s="3"/>
@@ -13768,7 +13782,7 @@
       <c r="BH189" s="3"/>
       <c r="BI189" s="3"/>
     </row>
-    <row r="190" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="190" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C190" s="3"/>
       <c r="D190" s="3"/>
       <c r="E190" s="3"/>
@@ -13829,7 +13843,7 @@
       <c r="BH190" s="3"/>
       <c r="BI190" s="3"/>
     </row>
-    <row r="191" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="191" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C191" s="3"/>
       <c r="D191" s="3"/>
       <c r="E191" s="3"/>
@@ -13890,7 +13904,7 @@
       <c r="BH191" s="3"/>
       <c r="BI191" s="3"/>
     </row>
-    <row r="192" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="192" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C192" s="3"/>
       <c r="D192" s="3"/>
       <c r="E192" s="3"/>
@@ -13951,7 +13965,7 @@
       <c r="BH192" s="3"/>
       <c r="BI192" s="3"/>
     </row>
-    <row r="193" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="193" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C193" s="3"/>
       <c r="D193" s="3"/>
       <c r="E193" s="3"/>
@@ -14012,7 +14026,7 @@
       <c r="BH193" s="3"/>
       <c r="BI193" s="3"/>
     </row>
-    <row r="194" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="194" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C194" s="3"/>
       <c r="D194" s="3"/>
       <c r="E194" s="3"/>
@@ -14073,7 +14087,7 @@
       <c r="BH194" s="3"/>
       <c r="BI194" s="3"/>
     </row>
-    <row r="195" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="195" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C195" s="3"/>
       <c r="D195" s="3"/>
       <c r="E195" s="3"/>
@@ -14134,7 +14148,7 @@
       <c r="BH195" s="3"/>
       <c r="BI195" s="3"/>
     </row>
-    <row r="196" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="196" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C196" s="3"/>
       <c r="D196" s="3"/>
       <c r="E196" s="3"/>
@@ -14195,7 +14209,7 @@
       <c r="BH196" s="3"/>
       <c r="BI196" s="3"/>
     </row>
-    <row r="197" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="197" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C197" s="3"/>
       <c r="D197" s="3"/>
       <c r="E197" s="3"/>
@@ -14256,7 +14270,7 @@
       <c r="BH197" s="3"/>
       <c r="BI197" s="3"/>
     </row>
-    <row r="198" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="198" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C198" s="3"/>
       <c r="D198" s="3"/>
       <c r="E198" s="3"/>
@@ -14317,7 +14331,7 @@
       <c r="BH198" s="3"/>
       <c r="BI198" s="3"/>
     </row>
-    <row r="199" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="199" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C199" s="3"/>
       <c r="D199" s="3"/>
       <c r="E199" s="3"/>
@@ -14378,7 +14392,7 @@
       <c r="BH199" s="3"/>
       <c r="BI199" s="3"/>
     </row>
-    <row r="200" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="200" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C200" s="3"/>
       <c r="D200" s="3"/>
       <c r="E200" s="3"/>
@@ -14439,7 +14453,7 @@
       <c r="BH200" s="3"/>
       <c r="BI200" s="3"/>
     </row>
-    <row r="201" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="201" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C201" s="3"/>
       <c r="D201" s="3"/>
       <c r="E201" s="3"/>
@@ -14500,7 +14514,7 @@
       <c r="BH201" s="3"/>
       <c r="BI201" s="3"/>
     </row>
-    <row r="202" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="202" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C202" s="3"/>
       <c r="D202" s="3"/>
       <c r="E202" s="3"/>
@@ -14561,7 +14575,7 @@
       <c r="BH202" s="3"/>
       <c r="BI202" s="3"/>
     </row>
-    <row r="203" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="203" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C203" s="3"/>
       <c r="D203" s="3"/>
       <c r="E203" s="3"/>
@@ -14622,7 +14636,7 @@
       <c r="BH203" s="3"/>
       <c r="BI203" s="3"/>
     </row>
-    <row r="204" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="204" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C204" s="3"/>
       <c r="D204" s="3"/>
       <c r="E204" s="3"/>
@@ -14683,7 +14697,7 @@
       <c r="BH204" s="3"/>
       <c r="BI204" s="3"/>
     </row>
-    <row r="205" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="205" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C205" s="3"/>
       <c r="D205" s="3"/>
       <c r="E205" s="3"/>
@@ -14744,7 +14758,7 @@
       <c r="BH205" s="3"/>
       <c r="BI205" s="3"/>
     </row>
-    <row r="206" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="206" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C206" s="3"/>
       <c r="D206" s="3"/>
       <c r="E206" s="3"/>
@@ -14805,7 +14819,7 @@
       <c r="BH206" s="3"/>
       <c r="BI206" s="3"/>
     </row>
-    <row r="207" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="207" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C207" s="3"/>
       <c r="D207" s="3"/>
       <c r="E207" s="3"/>
@@ -14866,7 +14880,7 @@
       <c r="BH207" s="3"/>
       <c r="BI207" s="3"/>
     </row>
-    <row r="208" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="208" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C208" s="3"/>
       <c r="D208" s="3"/>
       <c r="E208" s="3"/>
@@ -14927,7 +14941,7 @@
       <c r="BH208" s="3"/>
       <c r="BI208" s="3"/>
     </row>
-    <row r="209" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="209" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C209" s="3"/>
       <c r="D209" s="3"/>
       <c r="E209" s="3"/>
@@ -14988,7 +15002,7 @@
       <c r="BH209" s="3"/>
       <c r="BI209" s="3"/>
     </row>
-    <row r="210" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="210" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C210" s="3"/>
       <c r="D210" s="3"/>
       <c r="E210" s="3"/>
@@ -15049,7 +15063,7 @@
       <c r="BH210" s="3"/>
       <c r="BI210" s="3"/>
     </row>
-    <row r="211" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="211" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C211" s="3"/>
       <c r="D211" s="3"/>
       <c r="E211" s="3"/>
@@ -15110,7 +15124,7 @@
       <c r="BH211" s="3"/>
       <c r="BI211" s="3"/>
     </row>
-    <row r="212" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="212" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C212" s="3"/>
       <c r="D212" s="3"/>
       <c r="E212" s="3"/>
@@ -15171,7 +15185,7 @@
       <c r="BH212" s="3"/>
       <c r="BI212" s="3"/>
     </row>
-    <row r="213" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="213" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C213" s="3"/>
       <c r="D213" s="3"/>
       <c r="E213" s="3"/>
@@ -15232,7 +15246,7 @@
       <c r="BH213" s="3"/>
       <c r="BI213" s="3"/>
     </row>
-    <row r="214" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="214" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C214" s="3"/>
       <c r="D214" s="3"/>
       <c r="E214" s="3"/>
@@ -15293,7 +15307,7 @@
       <c r="BH214" s="3"/>
       <c r="BI214" s="3"/>
     </row>
-    <row r="215" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="215" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C215" s="3"/>
       <c r="D215" s="3"/>
       <c r="E215" s="3"/>
@@ -15354,7 +15368,7 @@
       <c r="BH215" s="3"/>
       <c r="BI215" s="3"/>
     </row>
-    <row r="216" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="216" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C216" s="3"/>
       <c r="D216" s="3"/>
       <c r="E216" s="3"/>
@@ -15415,7 +15429,7 @@
       <c r="BH216" s="3"/>
       <c r="BI216" s="3"/>
     </row>
-    <row r="217" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="217" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C217" s="3"/>
       <c r="D217" s="3"/>
       <c r="E217" s="3"/>
@@ -15476,7 +15490,7 @@
       <c r="BH217" s="3"/>
       <c r="BI217" s="3"/>
     </row>
-    <row r="218" spans="3:61" x14ac:dyDescent="0.25">
+    <row r="218" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C218" s="3"/>
       <c r="D218" s="3"/>
       <c r="E218" s="3"/>

--- a/BOSS.DE.xlsx
+++ b/BOSS.DE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5249E33E-D82F-4488-B815-4B17B1E122AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{729D13D3-0DEB-402E-BE4F-123D264156DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" activeTab="1" xr2:uid="{09B18DE7-4EEF-4A72-AC57-80486CCDDA74}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{09B18DE7-4EEF-4A72-AC57-80486CCDDA74}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -305,13 +305,19 @@
     <numFmt numFmtId="164" formatCode="#,##0;\(#,##0\)"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -376,26 +382,29 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -419,16 +428,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>61913</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>33337</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>4763</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>42862</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -443,8 +452,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8648700" y="61913"/>
-          <a:ext cx="14287" cy="9848850"/>
+          <a:off x="9267825" y="0"/>
+          <a:ext cx="14287" cy="8362950"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -803,8 +812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8611755C-CD3F-4338-B61A-F6ABE7723C78}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -826,7 +835,7 @@
         <v>2</v>
       </c>
       <c r="J2" s="2">
-        <v>41.48</v>
+        <v>36.520000000000003</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -836,8 +845,8 @@
       <c r="J3" s="3">
         <v>70.400000000000006</v>
       </c>
-      <c r="K3" s="4" t="s">
-        <v>74</v>
+      <c r="K3" s="14" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -849,7 +858,7 @@
       </c>
       <c r="J4" s="3">
         <f>+J2*J3</f>
-        <v>2920.192</v>
+        <v>2571.0080000000003</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -863,8 +872,8 @@
         <f>106+46</f>
         <v>152</v>
       </c>
-      <c r="K5" s="4" t="s">
-        <v>74</v>
+      <c r="K5" s="14" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -875,8 +884,8 @@
         <f>284+62</f>
         <v>346</v>
       </c>
-      <c r="K6" s="4" t="s">
-        <v>74</v>
+      <c r="K6" s="14" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -885,7 +894,7 @@
       </c>
       <c r="J7" s="3">
         <f>+J4-J5+J6</f>
-        <v>3114.192</v>
+        <v>2765.0080000000003</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -935,11 +944,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D20D4061-CFF8-435B-9C35-BFCD41DEF5B1}">
   <dimension ref="A1:BI218"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1053,7 +1062,9 @@
       <c r="L3" s="7">
         <v>562</v>
       </c>
-      <c r="M3" s="7"/>
+      <c r="M3" s="7">
+        <v>558</v>
+      </c>
       <c r="N3" s="7"/>
       <c r="O3" s="7"/>
       <c r="P3" s="7"/>
@@ -1140,7 +1151,9 @@
       <c r="L4" s="7">
         <v>557</v>
       </c>
-      <c r="M4" s="7"/>
+      <c r="M4" s="7">
+        <v>559</v>
+      </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
       <c r="P4" s="7"/>
@@ -1227,7 +1240,9 @@
       <c r="L5" s="7">
         <v>376</v>
       </c>
-      <c r="M5" s="7"/>
+      <c r="M5" s="7">
+        <v>368</v>
+      </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
       <c r="P5" s="7"/>
@@ -1308,7 +1323,10 @@
         <f>+SUM(L3:L5)</f>
         <v>1495</v>
       </c>
-      <c r="M6" s="8"/>
+      <c r="M6" s="8">
+        <f>+SUM(M3:M5)</f>
+        <v>1485</v>
+      </c>
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
       <c r="P6" s="8"/>
@@ -1385,7 +1403,9 @@
       <c r="L7" s="7">
         <v>491</v>
       </c>
-      <c r="M7" s="7"/>
+      <c r="M7" s="7">
+        <v>485</v>
+      </c>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
       <c r="P7" s="7"/>
@@ -1557,7 +1577,9 @@
       <c r="L10" s="7">
         <v>808</v>
       </c>
-      <c r="M10" s="7"/>
+      <c r="M10" s="7">
+        <v>764</v>
+      </c>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
@@ -1635,7 +1657,9 @@
       <c r="L11" s="7">
         <v>62</v>
       </c>
-      <c r="M11" s="7"/>
+      <c r="M11" s="7">
+        <v>67</v>
+      </c>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
@@ -1713,7 +1737,9 @@
       <c r="L12" s="7">
         <v>132</v>
       </c>
-      <c r="M12" s="7"/>
+      <c r="M12" s="7">
+        <v>158</v>
+      </c>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
@@ -1791,7 +1817,9 @@
       <c r="L13" s="7">
         <v>618</v>
       </c>
-      <c r="M13" s="7"/>
+      <c r="M13" s="7">
+        <v>641</v>
+      </c>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
@@ -1869,7 +1897,9 @@
       <c r="L14" s="7">
         <v>236</v>
       </c>
-      <c r="M14" s="7"/>
+      <c r="M14" s="7">
+        <v>223</v>
+      </c>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
@@ -1947,7 +1977,9 @@
       <c r="L15" s="7">
         <v>124</v>
       </c>
-      <c r="M15" s="7"/>
+      <c r="M15" s="7">
+        <v>101</v>
+      </c>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
@@ -2025,7 +2057,9 @@
       <c r="L16" s="7">
         <v>24</v>
       </c>
-      <c r="M16" s="7"/>
+      <c r="M16" s="7">
+        <v>25</v>
+      </c>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
@@ -2103,7 +2137,9 @@
       <c r="L17" s="7">
         <v>542</v>
       </c>
-      <c r="M17" s="7"/>
+      <c r="M17" s="7">
+        <v>483</v>
+      </c>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
@@ -2181,7 +2217,9 @@
       <c r="L18" s="7">
         <v>237</v>
       </c>
-      <c r="M18" s="7"/>
+      <c r="M18" s="7">
+        <v>281</v>
+      </c>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
@@ -2259,7 +2297,9 @@
       <c r="L19" s="7">
         <v>199</v>
       </c>
-      <c r="M19" s="7"/>
+      <c r="M19" s="7">
+        <v>201</v>
+      </c>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
       <c r="P19" s="7"/>
@@ -2337,7 +2377,9 @@
       <c r="L20" s="7">
         <v>24</v>
       </c>
-      <c r="M20" s="7"/>
+      <c r="M20" s="7">
+        <v>25</v>
+      </c>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
@@ -2429,7 +2471,9 @@
       <c r="L21" s="8">
         <v>1002</v>
       </c>
-      <c r="M21" s="8"/>
+      <c r="M21" s="8">
+        <v>989</v>
+      </c>
       <c r="N21" s="8"/>
       <c r="O21" s="7"/>
       <c r="P21" s="7"/>
@@ -2521,7 +2565,9 @@
       <c r="L22" s="7">
         <v>372</v>
       </c>
-      <c r="M22" s="7"/>
+      <c r="M22" s="7">
+        <v>384</v>
+      </c>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
       <c r="P22" s="7"/>
@@ -2621,7 +2667,10 @@
         <f>+L21-L22</f>
         <v>630</v>
       </c>
-      <c r="M23" s="7"/>
+      <c r="M23" s="7">
+        <f>+M21-M22</f>
+        <v>605</v>
+      </c>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
       <c r="P23" s="7"/>
@@ -2716,7 +2765,9 @@
       <c r="L24" s="7">
         <v>433</v>
       </c>
-      <c r="M24" s="7"/>
+      <c r="M24" s="7">
+        <v>420</v>
+      </c>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
       <c r="P24" s="7"/>
@@ -2808,7 +2859,9 @@
       <c r="L25" s="7">
         <v>116</v>
       </c>
-      <c r="M25" s="7"/>
+      <c r="M25" s="7">
+        <v>90</v>
+      </c>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
       <c r="P25" s="7"/>
@@ -2897,7 +2950,7 @@
         <v>95</v>
       </c>
       <c r="J26" s="7">
-        <f t="shared" ref="J26:L26" si="5">+J23-SUM(J24:J25)</f>
+        <f t="shared" ref="J26:M26" si="5">+J23-SUM(J24:J25)</f>
         <v>125</v>
       </c>
       <c r="K26" s="7">
@@ -2908,7 +2961,10 @@
         <f t="shared" si="5"/>
         <v>81</v>
       </c>
-      <c r="M26" s="7"/>
+      <c r="M26" s="7">
+        <f t="shared" si="5"/>
+        <v>95</v>
+      </c>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
       <c r="P26" s="7"/>
@@ -3003,7 +3059,9 @@
       <c r="L27" s="7">
         <v>-12</v>
       </c>
-      <c r="M27" s="7"/>
+      <c r="M27" s="7">
+        <v>-12</v>
+      </c>
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
       <c r="P27" s="7"/>
@@ -3092,7 +3150,7 @@
         <v>77</v>
       </c>
       <c r="J28" s="7">
-        <f t="shared" ref="J28:L28" si="7">+J26+J27</f>
+        <f t="shared" ref="J28:M28" si="7">+J26+J27</f>
         <v>112</v>
       </c>
       <c r="K28" s="7">
@@ -3103,7 +3161,10 @@
         <f t="shared" si="7"/>
         <v>69</v>
       </c>
-      <c r="M28" s="7"/>
+      <c r="M28" s="7">
+        <f t="shared" si="7"/>
+        <v>83</v>
+      </c>
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
       <c r="P28" s="7"/>
@@ -3198,7 +3259,9 @@
       <c r="L29" s="7">
         <v>19</v>
       </c>
-      <c r="M29" s="7"/>
+      <c r="M29" s="7">
+        <v>23</v>
+      </c>
       <c r="N29" s="7"/>
       <c r="O29" s="7"/>
       <c r="P29" s="7"/>
@@ -3298,7 +3361,10 @@
         <f>+L28-L29</f>
         <v>50</v>
       </c>
-      <c r="M30" s="7"/>
+      <c r="M30" s="7">
+        <f>+M28-M29</f>
+        <v>60</v>
+      </c>
       <c r="N30" s="7"/>
       <c r="O30" s="7"/>
       <c r="P30" s="7"/>
@@ -3393,7 +3459,9 @@
       <c r="L31" s="7">
         <v>3</v>
       </c>
-      <c r="M31" s="7"/>
+      <c r="M31" s="7">
+        <v>1</v>
+      </c>
       <c r="N31" s="7"/>
       <c r="O31" s="7"/>
       <c r="P31" s="7"/>
@@ -3493,7 +3561,10 @@
         <f>+L30-L31</f>
         <v>47</v>
       </c>
-      <c r="M32" s="7"/>
+      <c r="M32" s="7">
+        <f>+M30-M31</f>
+        <v>59</v>
+      </c>
       <c r="N32" s="7"/>
       <c r="O32" s="7"/>
       <c r="P32" s="7"/>
@@ -3657,7 +3728,10 @@
         <f>+L32/L35</f>
         <v>0.66761363636363635</v>
       </c>
-      <c r="M34" s="9"/>
+      <c r="M34" s="9">
+        <f>+M32/M35</f>
+        <v>0.83806818181818177</v>
+      </c>
       <c r="N34" s="9"/>
       <c r="O34" s="3"/>
       <c r="P34" s="9" t="e">
@@ -3759,7 +3833,9 @@
       <c r="L35" s="10">
         <v>70.400000000000006</v>
       </c>
-      <c r="M35" s="10"/>
+      <c r="M35" s="10">
+        <v>70.400000000000006</v>
+      </c>
       <c r="N35" s="10"/>
       <c r="O35" s="3"/>
       <c r="P35" s="3"/>
